--- a/dev/4039.Stronghold.2016.Shooter.xlsx
+++ b/dev/4039.Stronghold.2016.Shooter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="24920" windowHeight="14380"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="28140" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Calculations" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Target Pos (pixels)</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Radians</t>
+  </si>
+  <si>
+    <t>simplified?</t>
   </si>
 </sst>
 </file>
@@ -9246,15 +9249,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1041400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>1358900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>635000</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9275,16 +9278,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>165106</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101606</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>876300</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9305,16 +9308,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>25406</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>12706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>101606</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>88906</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9623,11 +9626,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H481"/>
+  <dimension ref="A1:J481"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O10" sqref="O10"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9640,9 +9643,10 @@
     <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="20.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -9663,8 +9667,11 @@
       <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="J1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9689,8 +9696,12 @@
         <f t="shared" ref="H2:H9" si="0">DEGREES(ATAN($B$2/$G2))</f>
         <v>58.368333600027384</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="J2">
+        <f>DEGREES(ATAN(TAN($D$4+ATAN(($B$5-E2)*TAN($D$3/2)/$B$5))))</f>
+        <v>58.368333600027384</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -9719,8 +9730,12 @@
         <f t="shared" si="0"/>
         <v>58.296607621190091</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="J3">
+        <f t="shared" ref="J3:J13" si="1">DEGREES(ATAN(TAN($D$4+ATAN(($B$5-E3)*TAN($D$3/2)/$B$5))))</f>
+        <v>58.296607621190091</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -9738,7 +9753,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F67" si="1">ATAN((($B$5-$E4)*TAN($D$3/2))/$B$5)</f>
+        <f t="shared" ref="F4:F67" si="2">ATAN((($B$5-$E4)*TAN($D$3/2))/$B$5)</f>
         <v>0.31808315322928887</v>
       </c>
       <c r="G4">
@@ -9749,8 +9764,12 @@
         <f t="shared" si="0"/>
         <v>58.224822214251311</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4">
+        <f t="shared" si="1"/>
+        <v>58.224822214251311</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -9764,202 +9783,238 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31682922695598481</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G68" si="2">$B$2/(TAN($D$4+$F5))</f>
+        <f t="shared" ref="G5:G68" si="3">$B$2/(TAN($D$4+$F5))</f>
         <v>1.3230772906567381</v>
       </c>
       <c r="H5">
         <f t="shared" si="0"/>
         <v>58.152977530970425</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5">
+        <f t="shared" si="1"/>
+        <v>58.152977530970425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="E6">
         <v>5</v>
       </c>
       <c r="F6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31557426878143297</v>
       </c>
       <c r="G6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3267846267695416</v>
       </c>
       <c r="H6">
         <f t="shared" si="0"/>
         <v>58.081073724103163</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>58.081073724103163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="E7">
         <v>6</v>
       </c>
       <c r="F7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31431828138911505</v>
       </c>
       <c r="G7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3305008112118688</v>
       </c>
       <c r="H7">
         <f t="shared" si="0"/>
         <v>58.009110947401702</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7">
+        <f t="shared" si="1"/>
+        <v>58.009110947401702</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31306126747990476</v>
       </c>
       <c r="G8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3342258756991385</v>
       </c>
       <c r="H8">
         <f t="shared" si="0"/>
         <v>57.937089355614717</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>57.937089355614717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.31180322977206815</v>
       </c>
       <c r="G9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3379598520985225</v>
       </c>
       <c r="H9">
         <f t="shared" si="0"/>
         <v>57.865009104487363</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>57.865009104487363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10">
+        <f t="shared" si="2"/>
+        <v>0.31054417100126369</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="3"/>
+        <v>1.3417027724298551</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ref="H10:H73" si="4">DEGREES(ATAN($B$2/$G10))</f>
+        <v>57.792870350761333</v>
+      </c>
+      <c r="J10">
         <f t="shared" si="1"/>
-        <v>0.31054417100126369</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="2"/>
-        <v>1.3417027724298551</v>
-      </c>
-      <c r="H10">
-        <f t="shared" ref="H10:H73" si="3">DEGREES(ATAN($B$2/$G10))</f>
         <v>57.792870350761333</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:10">
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11">
+        <f t="shared" si="2"/>
+        <v>0.30928409392054107</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="3"/>
+        <v>1.3454546688665456</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="4"/>
+        <v>57.72067325217477</v>
+      </c>
+      <c r="J11">
         <f t="shared" si="1"/>
-        <v>0.30928409392054107</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="2"/>
-        <v>1.3454546688665456</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="3"/>
         <v>57.72067325217477</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:10">
       <c r="E12">
         <v>11</v>
       </c>
       <c r="F12">
+        <f t="shared" si="2"/>
+        <v>0.30802300130033994</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="3"/>
+        <v>1.3492155737365055</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="4"/>
+        <v>57.648417967462144</v>
+      </c>
+      <c r="J12">
         <f t="shared" si="1"/>
-        <v>0.30802300130033994</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="2"/>
-        <v>1.3492155737365055</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="3"/>
         <v>57.648417967462144</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:10">
       <c r="E13">
         <v>12</v>
       </c>
       <c r="F13">
+        <f t="shared" si="2"/>
+        <v>0.30676089592848793</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="3"/>
+        <v>1.3529855195230704</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="4"/>
+        <v>57.576104656354232</v>
+      </c>
+      <c r="J13">
         <f t="shared" si="1"/>
-        <v>0.30676089592848793</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="2"/>
-        <v>1.3529855195230704</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="3"/>
         <v>57.576104656354232</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:10">
       <c r="E14">
         <v>13</v>
       </c>
       <c r="F14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30549778061019772</v>
       </c>
       <c r="G14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3567645388659404</v>
       </c>
       <c r="H14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.503733479577889</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:10">
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30423365816806386</v>
       </c>
       <c r="G15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3605526645621211</v>
       </c>
       <c r="H15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.431304598855846</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:10">
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30296853144205904</v>
       </c>
       <c r="G16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3643499295668695</v>
       </c>
       <c r="H16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.35881817690656</v>
       </c>
     </row>
@@ -9968,15 +10023,15 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30170240328952902</v>
       </c>
       <c r="G17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3681563669946524</v>
       </c>
       <c r="H17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.286274377443895</v>
       </c>
     </row>
@@ -9985,15 +10040,15 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.30043527658518809</v>
       </c>
       <c r="G18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3719720101201087</v>
       </c>
       <c r="H18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.213673365176838</v>
       </c>
     </row>
@@ -10002,15 +10057,15 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29916715422111262</v>
       </c>
       <c r="G19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3757968923790187</v>
       </c>
       <c r="H19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.141015305809162</v>
       </c>
     </row>
@@ -10019,15 +10074,15 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29789803910673512</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3796310473692803</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57.068300366039061</v>
       </c>
     </row>
@@ -10036,15 +10091,15 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29662793416883687</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3834745088518923</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.99552871355877</v>
       </c>
     </row>
@@ -10053,15 +10108,15 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29535684235154025</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3873273107519475</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.922700517054068</v>
       </c>
     </row>
@@ -10070,15 +10125,15 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29408476661630023</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3911894871596291</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.849815946203812</v>
       </c>
     </row>
@@ -10087,15 +10142,15 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29281170994189581</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.395061072331216</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.776875171679471</v>
       </c>
     </row>
@@ -10104,15 +10159,15 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2915376753244196</v>
       </c>
       <c r="G25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3989421006900968</v>
       </c>
       <c r="H25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.703878365144526</v>
       </c>
     </row>
@@ -10121,15 +10176,15 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.29026266577726817</v>
       </c>
       <c r="G26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4028326068277888</v>
       </c>
       <c r="H26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.630825699253862</v>
       </c>
     </row>
@@ -10138,15 +10193,15 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28898668433113084</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4067326255049661</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.557717347653195</v>
       </c>
     </row>
@@ -10155,15 +10210,15 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28770973403397798</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4106421916524967</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.484553484978356</v>
       </c>
     </row>
@@ -10172,15 +10227,15 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28643181795104872</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4145613403724817</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.411334286854618</v>
       </c>
     </row>
@@ -10189,15 +10244,15 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28515293916483808</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.418490106939309</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.338059929895941</v>
       </c>
     </row>
@@ -10206,15 +10261,15 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28387310077508338</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4224285268007109</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.264730591704172</v>
       </c>
     </row>
@@ -10223,15 +10278,15 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28259230589875001</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4263766355788281</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.191346450868288</v>
       </c>
     </row>
@@ -10240,15 +10295,15 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28131055767001611</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4303344690712869</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.11790768696347</v>
       </c>
     </row>
@@ -10257,15 +10312,15 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.28002785924025758</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4343020632522796</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56.044414480550245</v>
       </c>
     </row>
@@ -10274,15 +10329,15 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27874421377803121</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4382794542736534</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.97086701317356</v>
       </c>
     </row>
@@ -10291,15 +10346,15 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27745962446905809</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4422666784660112</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.89726546736177</v>
       </c>
     </row>
@@ -10308,15 +10363,15 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27617409451620578</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4462637723398142</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.823610026625687</v>
       </c>
     </row>
@@ -10325,15 +10380,15 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27488762713947024</v>
       </c>
       <c r="G38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4502707725864996</v>
       </c>
       <c r="H38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.74990087545747</v>
       </c>
     </row>
@@ -10342,15 +10397,15 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27360022557595642</v>
       </c>
       <c r="G39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4542877160796013</v>
       </c>
       <c r="H39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.676138199329586</v>
       </c>
     </row>
@@ -10359,15 +10414,15 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.27231189307985904</v>
       </c>
       <c r="G40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4583146398758819</v>
       </c>
       <c r="H40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.602322184693648</v>
       </c>
     </row>
@@ -10376,15 +10431,15 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.271022632922442</v>
       </c>
       <c r="G41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4623515812164714</v>
       </c>
       <c r="H41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.528453018979285</v>
       </c>
     </row>
@@ -10393,15 +10448,15 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26973244839201727</v>
       </c>
       <c r="G42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4663985775280162</v>
       </c>
       <c r="H42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.454530890592878</v>
       </c>
     </row>
@@ -10410,15 +10465,15 @@
         <v>42</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26844134279392345</v>
       </c>
       <c r="G43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4704556664238351</v>
       </c>
       <c r="H43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.380555988916392</v>
       </c>
     </row>
@@ -10427,15 +10482,15 @@
         <v>43</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26714931945050296</v>
       </c>
       <c r="G44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4745228857050856</v>
       </c>
       <c r="H44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.306528504306009</v>
       </c>
     </row>
@@ -10444,15 +10499,15 @@
         <v>44</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26585638170107923</v>
       </c>
       <c r="G45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.478600273361935</v>
       </c>
       <c r="H45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.232448628090886</v>
       </c>
     </row>
@@ -10461,15 +10516,15 @@
         <v>45</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26456253290193277</v>
       </c>
       <c r="G46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4826878675747472</v>
       </c>
       <c r="H46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.158316552571726</v>
       </c>
     </row>
@@ -10478,15 +10533,15 @@
         <v>46</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26326777642627686</v>
       </c>
       <c r="G47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4867857067152717</v>
       </c>
       <c r="H47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.084132471019409</v>
       </c>
     </row>
@@ -10495,15 +10550,15 @@
         <v>47</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2619721156642319</v>
       </c>
       <c r="G48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4908938293478453</v>
       </c>
       <c r="H48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55.00989657767353</v>
       </c>
     </row>
@@ -10512,15 +10567,15 @@
         <v>48</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.26067555402280002</v>
       </c>
       <c r="G49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4950122742306025</v>
       </c>
       <c r="H49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.935609067740927</v>
       </c>
     </row>
@@ -10529,15 +10584,15 @@
         <v>49</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2593780949258383</v>
       </c>
       <c r="G50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.4991410803166918</v>
       </c>
       <c r="H50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.861270137394165</v>
       </c>
     </row>
@@ -10546,15 +10601,15 @@
         <v>50</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25807974181403132</v>
       </c>
       <c r="G51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5032802867555073</v>
       </c>
       <c r="H51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.78687998376995</v>
       </c>
     </row>
@@ -10563,15 +10618,15 @@
         <v>51</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25678049814486342</v>
       </c>
       <c r="G52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5074299328939236</v>
       </c>
       <c r="H52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.71243880496754</v>
       </c>
     </row>
@@ -10580,15 +10635,15 @@
         <v>52</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25548036739258995</v>
       </c>
       <c r="G53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5115900582775437</v>
       </c>
       <c r="H53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.637946800047096</v>
       </c>
     </row>
@@ -10597,15 +10652,15 @@
         <v>53</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25417935304820755</v>
       </c>
       <c r="G54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5157607026519546</v>
       </c>
       <c r="H54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.563404169028011</v>
       </c>
     </row>
@@ -10614,15 +10669,15 @@
         <v>54</v>
       </c>
       <c r="F55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25287745861942468</v>
       </c>
       <c r="G55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5199419059639931</v>
       </c>
       <c r="H55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.488811112887156</v>
       </c>
     </row>
@@ -10631,15 +10686,15 @@
         <v>55</v>
       </c>
       <c r="F56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25157468763063023</v>
       </c>
       <c r="G56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5241337083630218</v>
       </c>
       <c r="H56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.414167833557151</v>
       </c>
     </row>
@@ -10648,15 +10703,15 @@
         <v>56</v>
       </c>
       <c r="F57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25027104362286212</v>
       </c>
       <c r="G57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5283361502022146</v>
       </c>
       <c r="H57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.339474533924516</v>
       </c>
     </row>
@@ -10665,15 +10720,15 @@
         <v>57</v>
       </c>
       <c r="F58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24896653015377532</v>
       </c>
       <c r="G58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5325492720398486</v>
       </c>
       <c r="H58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.264731417827875</v>
       </c>
     </row>
@@ -10682,15 +10737,15 @@
         <v>58</v>
       </c>
       <c r="F59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24766115079760861</v>
       </c>
       <c r="G59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5367731146406138</v>
       </c>
       <c r="H59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.189938690056017</v>
       </c>
     </row>
@@ -10699,15 +10754,15 @@
         <v>59</v>
       </c>
       <c r="F60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2463549091451511</v>
       </c>
       <c r="G60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5410077189769231</v>
       </c>
       <c r="H60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.115096556346003</v>
       </c>
     </row>
@@ -10716,15 +10771,15 @@
         <v>60</v>
       </c>
       <c r="F61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2450478088037078</v>
       </c>
       <c r="G61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5452531262302407</v>
       </c>
       <c r="H61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54.040205223381193</v>
       </c>
     </row>
@@ -10733,15 +10788,15 @@
         <v>61</v>
       </c>
       <c r="F62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24373985339706453</v>
       </c>
       <c r="G62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5495093777924143</v>
       </c>
       <c r="H62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.965264898789215</v>
       </c>
     </row>
@@ -10750,15 +10805,15 @@
         <v>62</v>
       </c>
       <c r="F63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2424310465654522</v>
       </c>
       <c r="G63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.553776515267022</v>
       </c>
       <c r="H63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.890275791139942</v>
       </c>
     </row>
@@ -10767,15 +10822,15 @@
         <v>63</v>
       </c>
       <c r="F64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.24112139196551013</v>
       </c>
       <c r="G64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5580545804707284</v>
       </c>
       <c r="H64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.815238109943365</v>
       </c>
     </row>
@@ -10784,15 +10839,15 @@
         <v>64</v>
       </c>
       <c r="F65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23981089327024901</v>
       </c>
       <c r="G65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5623436154346477</v>
       </c>
       <c r="H65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.740152065647507</v>
       </c>
     </row>
@@ -10801,15 +10856,15 @@
         <v>65</v>
       </c>
       <c r="F66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23849955416901278</v>
       </c>
       <c r="G66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5666436624057243</v>
       </c>
       <c r="H66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.665017869636188</v>
       </c>
     </row>
@@ -10818,15 +10873,15 @@
         <v>66</v>
       </c>
       <c r="F67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.23718737836744019</v>
       </c>
       <c r="G67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5709547638481163</v>
       </c>
       <c r="H67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.589835734226881</v>
       </c>
     </row>
@@ -10835,15 +10890,15 @@
         <v>67</v>
       </c>
       <c r="F68">
-        <f t="shared" ref="F68:F131" si="4">ATAN((($B$5-$E68)*TAN($D$3/2))/$B$5)</f>
+        <f t="shared" ref="F68:F131" si="5">ATAN((($B$5-$E68)*TAN($D$3/2))/$B$5)</f>
         <v>0.23587436958742514</v>
       </c>
       <c r="G68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.5752769624445948</v>
       </c>
       <c r="H68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53.514605872668398</v>
       </c>
     </row>
@@ -10852,15 +10907,15 @@
         <v>68</v>
       </c>
       <c r="F69">
+        <f t="shared" si="5"/>
+        <v>0.23456053156707682</v>
+      </c>
+      <c r="G69">
+        <f t="shared" ref="G69:G132" si="6">$B$2/(TAN($D$4+$F69))</f>
+        <v>1.5796103010979525</v>
+      </c>
+      <c r="H69">
         <f t="shared" si="4"/>
-        <v>0.23456053156707682</v>
-      </c>
-      <c r="G69">
-        <f t="shared" ref="G69:G132" si="5">$B$2/(TAN($D$4+$F69))</f>
-        <v>1.5796103010979525</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="3"/>
         <v>53.439328499138618</v>
       </c>
     </row>
@@ -10869,15 +10924,15 @@
         <v>69</v>
       </c>
       <c r="F70">
+        <f t="shared" si="5"/>
+        <v>0.23324586806067871</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="6"/>
+        <v>1.5839548229324241</v>
+      </c>
+      <c r="H70">
         <f t="shared" si="4"/>
-        <v>0.23324586806067871</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="5"/>
-        <v>1.5839548229324241</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="3"/>
         <v>53.364003828742135</v>
       </c>
     </row>
@@ -10886,15 +10941,15 @@
         <v>70</v>
       </c>
       <c r="F71">
+        <f t="shared" si="5"/>
+        <v>0.23193038283864709</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="6"/>
+        <v>1.5883105712951155</v>
+      </c>
+      <c r="H71">
         <f t="shared" si="4"/>
-        <v>0.23193038283864709</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="5"/>
-        <v>1.5883105712951155</v>
-      </c>
-      <c r="H71">
-        <f t="shared" si="3"/>
         <v>53.288632077507891</v>
       </c>
     </row>
@@ -10903,15 +10958,15 @@
         <v>71</v>
       </c>
       <c r="F72">
+        <f t="shared" si="5"/>
+        <v>0.2306140796874889</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="6"/>
+        <v>1.5926775897574452</v>
+      </c>
+      <c r="H72">
         <f t="shared" si="4"/>
-        <v>0.2306140796874889</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="5"/>
-        <v>1.5926775897574452</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="3"/>
         <v>53.213213462386761</v>
       </c>
     </row>
@@ -10920,15 +10975,15 @@
         <v>72</v>
       </c>
       <c r="F73">
+        <f t="shared" si="5"/>
+        <v>0.22929696240975858</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="6"/>
+        <v>1.5970559221165992</v>
+      </c>
+      <c r="H73">
         <f t="shared" si="4"/>
-        <v>0.22929696240975858</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="5"/>
-        <v>1.5970559221165992</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="3"/>
         <v>53.137748201249053</v>
       </c>
     </row>
@@ -10937,15 +10992,15 @@
         <v>73</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22797903482401444</v>
       </c>
       <c r="G74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6014456123969927</v>
       </c>
       <c r="H74">
-        <f t="shared" ref="H74:H137" si="6">DEGREES(ATAN($B$2/$G74))</f>
+        <f t="shared" ref="H74:H137" si="7">DEGREES(ATAN($B$2/$G74))</f>
         <v>53.062236512882045</v>
       </c>
     </row>
@@ -10954,15 +11009,15 @@
         <v>74</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22666030076477431</v>
       </c>
       <c r="G75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6058467048517471</v>
       </c>
       <c r="H75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.986678616987433</v>
       </c>
     </row>
@@ -10971,15 +11026,15 @@
         <v>75</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22534076408247017</v>
       </c>
       <c r="G76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.610259243964177</v>
       </c>
       <c r="H76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.911074734178712</v>
       </c>
     </row>
@@ -10988,15 +11043,15 @@
         <v>76</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22402042864340252</v>
       </c>
       <c r="G77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6146832744492889</v>
       </c>
       <c r="H77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.835425085978585</v>
       </c>
     </row>
@@ -11005,15 +11060,15 @@
         <v>77</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22269929832969368</v>
       </c>
       <c r="G78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.619118841255291</v>
       </c>
       <c r="H78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.759729894816275</v>
       </c>
     </row>
@@ -11022,15 +11077,15 @@
         <v>78</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.2213773770392404</v>
       </c>
       <c r="G79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.623565989565116</v>
       </c>
       <c r="H79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.683989384024812</v>
       </c>
     </row>
@@ -11039,15 +11094,15 @@
         <v>79</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22005466868566601</v>
       </c>
       <c r="G80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6280247647979555</v>
       </c>
       <c r="H80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.608203777838298</v>
       </c>
     </row>
@@ -11056,15 +11111,15 @@
         <v>80</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21873117719827145</v>
       </c>
       <c r="G81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6324952126108052</v>
       </c>
       <c r="H81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.5323733013891</v>
       </c>
     </row>
@@ -11073,15 +11128,15 @@
         <v>81</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21740690652198585</v>
       </c>
       <c r="G82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6369773789000257</v>
       </c>
       <c r="H82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.456498180704997</v>
       </c>
     </row>
@@ -11090,15 +11145,15 @@
         <v>82</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21608186061731657</v>
       </c>
       <c r="G83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6414713098029088</v>
       </c>
       <c r="H83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.380578642706361</v>
       </c>
     </row>
@@ -11107,15 +11162,15 @@
         <v>83</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21475604346029781</v>
       </c>
       <c r="G84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6459770516992656</v>
       </c>
       <c r="H84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.304614915203153</v>
       </c>
     </row>
@@ -11124,15 +11179,15 @@
         <v>84</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21342945904243937</v>
       </c>
       <c r="G85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.650494651213019</v>
       </c>
       <c r="H85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.228607226892038</v>
       </c>
     </row>
@@ -11141,15 +11196,15 @@
         <v>85</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21210211137067406</v>
       </c>
       <c r="G86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6550241552138121</v>
       </c>
       <c r="H86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.152555807353366</v>
       </c>
     </row>
@@ -11158,15 +11213,15 @@
         <v>86</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.21077400446730465</v>
       </c>
       <c r="G87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6595656108186303</v>
       </c>
       <c r="H87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.076460887048114</v>
       </c>
     </row>
@@ -11175,15 +11230,15 @@
         <v>87</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20944514236995018</v>
       </c>
       <c r="G88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6641190653934343</v>
       </c>
       <c r="H88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>52.0003226973148</v>
       </c>
     </row>
@@ -11192,15 +11247,15 @@
         <v>88</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20811552913149114</v>
       </c>
       <c r="G89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6686845665548067</v>
       </c>
       <c r="H89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.924141470366372</v>
       </c>
     </row>
@@ -11209,15 +11264,15 @@
         <v>89</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20678516882001466</v>
       </c>
       <c r="G90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6732621621716117</v>
       </c>
       <c r="H90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.847917439287066</v>
       </c>
     </row>
@@ -11226,15 +11281,15 @@
         <v>90</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20545406551875808</v>
       </c>
       <c r="G91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6778519003666688</v>
       </c>
       <c r="H91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.771650838029132</v>
       </c>
     </row>
@@ -11243,15 +11298,15 @@
         <v>91</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20412222332605257</v>
       </c>
       <c r="G92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6824538295184392</v>
       </c>
       <c r="H92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.695341901409655</v>
       </c>
     </row>
@@ -11260,15 +11315,15 @@
         <v>92</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20278964635526558</v>
       </c>
       <c r="G93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6870679982627244</v>
       </c>
       <c r="H93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.618990865107229</v>
       </c>
     </row>
@@ -11277,15 +11332,15 @@
         <v>93</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20145633873474281</v>
       </c>
       <c r="G94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6916944554943798</v>
       </c>
       <c r="H94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.542597965658651</v>
       </c>
     </row>
@@ -11294,15 +11349,15 @@
         <v>94</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.20012230460774927</v>
       </c>
       <c r="G95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.6963332503690438</v>
       </c>
       <c r="H95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.466163440455503</v>
       </c>
     </row>
@@ -11311,15 +11366,15 @@
         <v>95</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19878754813240979</v>
       </c>
       <c r="G96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7009844323048764</v>
       </c>
       <c r="H96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.38968752774079</v>
       </c>
     </row>
@@ -11328,15 +11383,15 @@
         <v>96</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19745207348164881</v>
       </c>
       <c r="G97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7056480509843153</v>
       </c>
       <c r="H97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.313170466605477</v>
       </c>
     </row>
@@ -11345,15 +11400,15 @@
         <v>97</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19611588484312931</v>
       </c>
       <c r="G98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7103241563558442</v>
       </c>
       <c r="H98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.236612496984982</v>
       </c>
     </row>
@@ -11362,15 +11417,15 @@
         <v>98</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19477898641919114</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7150127986357764</v>
       </c>
       <c r="H99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.160013859655628</v>
       </c>
     </row>
@@ -11379,15 +11434,15 @@
         <v>99</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19344138242678866</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7197140283100518</v>
       </c>
       <c r="H100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.083374796231119</v>
       </c>
     </row>
@@ -11396,15 +11451,15 @@
         <v>100</v>
       </c>
       <c r="F101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19210307709742752</v>
       </c>
       <c r="G101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7244278961360504</v>
       </c>
       <c r="H101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>51.006695549158863</v>
       </c>
     </row>
@@ -11413,15 +11468,15 @@
         <v>101</v>
       </c>
       <c r="F102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.19076407467710099</v>
       </c>
       <c r="G102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7291544531444183</v>
       </c>
       <c r="H102">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.929976361716349</v>
       </c>
     </row>
@@ -11430,15 +11485,15 @@
         <v>102</v>
       </c>
       <c r="F103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18942437942622539</v>
       </c>
       <c r="G103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7338937506409076</v>
       </c>
       <c r="H103">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.853217478007458</v>
       </c>
     </row>
@@ -11447,15 +11502,15 @@
         <v>103</v>
       </c>
       <c r="F104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18808399561957476</v>
       </c>
       <c r="G104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7386458402082352</v>
       </c>
       <c r="H104">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.776419142958694</v>
       </c>
     </row>
@@ -11464,15 +11519,15 @@
         <v>104</v>
       </c>
       <c r="F105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18674292754621502</v>
       </c>
       <c r="G105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7434107737079532</v>
       </c>
       <c r="H105">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.69958160231544</v>
       </c>
     </row>
@@ -11481,15 +11536,15 @@
         <v>105</v>
       </c>
       <c r="F106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18540117950943738</v>
       </c>
       <c r="G106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7481886032823348</v>
       </c>
       <c r="H106">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.622705102638115</v>
       </c>
     </row>
@@ -11498,15 +11553,15 @@
         <v>106</v>
       </c>
       <c r="F107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1840587558266909</v>
       </c>
       <c r="G107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7529793813562771</v>
       </c>
       <c r="H107">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.545789891298341</v>
       </c>
     </row>
@@ -11515,15 +11570,15 @@
         <v>107</v>
       </c>
       <c r="F108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18271566082951443</v>
       </c>
       <c r="G108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7577831606392205</v>
       </c>
       <c r="H108">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.46883621647499</v>
       </c>
     </row>
@@ -11532,15 +11587,15 @@
         <v>108</v>
       </c>
       <c r="F109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.181371898863468</v>
       </c>
       <c r="G109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7625999941270771</v>
       </c>
       <c r="H109">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.391844327150324</v>
       </c>
     </row>
@@ -11549,15 +11604,15 @@
         <v>109</v>
       </c>
       <c r="F110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.18002747428806329</v>
       </c>
       <c r="G110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7674299351041829</v>
       </c>
       <c r="H110">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.314814473105969</v>
       </c>
     </row>
@@ -11566,15 +11621,15 @@
         <v>110</v>
       </c>
       <c r="F111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1786823914766936</v>
       </c>
       <c r="G111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7722730371452626</v>
       </c>
       <c r="H111">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.2377469049189</v>
       </c>
     </row>
@@ -11583,15 +11638,15 @@
         <v>111</v>
       </c>
       <c r="F112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17733665481656291</v>
       </c>
       <c r="G112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.77712935411741</v>
       </c>
       <c r="H112">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.160641873957374</v>
       </c>
     </row>
@@ -11600,15 +11655,15 @@
         <v>112</v>
       </c>
       <c r="F113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17599026870861442</v>
       </c>
       <c r="G113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7819989401820842</v>
       </c>
       <c r="H113">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.083499632376885</v>
       </c>
     </row>
@@ -11617,15 +11672,15 @@
         <v>113</v>
       </c>
       <c r="F114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1746432375674585</v>
       </c>
       <c r="G114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7868818497971246</v>
       </c>
       <c r="H114">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>50.006320433115953</v>
       </c>
     </row>
@@ -11634,15 +11689,15 @@
         <v>114</v>
       </c>
       <c r="F115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17329556582129957</v>
       </c>
       <c r="G115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7917781377187785</v>
       </c>
       <c r="H115">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.929104529892022</v>
       </c>
     </row>
@@ -11651,15 +11706,15 @@
         <v>115</v>
       </c>
       <c r="F116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.17194725791186263</v>
       </c>
       <c r="G116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.7966878590037527</v>
       </c>
       <c r="H116">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.851852177197181</v>
       </c>
     </row>
@@ -11668,15 +11723,15 @@
         <v>116</v>
       </c>
       <c r="F117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1705983182943191</v>
       </c>
       <c r="G117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8016110690112719</v>
       </c>
       <c r="H117">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.77456363029394</v>
       </c>
     </row>
@@ -11685,15 +11740,15 @@
         <v>117</v>
       </c>
       <c r="F118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16924875143721183</v>
       </c>
       <c r="G118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8065478234051606</v>
       </c>
       <c r="H118">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.697239145210965</v>
       </c>
     </row>
@@ -11702,15 +11757,15 @@
         <v>118</v>
       </c>
       <c r="F119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16789856182237939</v>
       </c>
       <c r="G119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8114981781559447</v>
       </c>
       <c r="H119">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.619878978738669</v>
       </c>
     </row>
@@ -11719,15 +11774,15 @@
         <v>119</v>
       </c>
       <c r="F120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16654775394488</v>
       </c>
       <c r="G120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8164621895429625</v>
       </c>
       <c r="H120">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.542483388424927</v>
       </c>
     </row>
@@ -11736,15 +11791,15 @@
         <v>120</v>
       </c>
       <c r="F121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16519633231291436</v>
       </c>
       <c r="G121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.821439914156499</v>
       </c>
       <c r="H121">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.465052632570611</v>
       </c>
     </row>
@@ -11753,15 +11808,15 @@
         <v>121</v>
       </c>
       <c r="F122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16384430144774831</v>
       </c>
       <c r="G122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8264314088999354</v>
       </c>
       <c r="H122">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.387586970225179</v>
       </c>
     </row>
@@ -11770,15 +11825,15 @@
         <v>122</v>
       </c>
       <c r="F123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16249166588363417</v>
       </c>
       <c r="G123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8314367309919204</v>
       </c>
       <c r="H123">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.310086661182147</v>
       </c>
     </row>
@@ -11787,15 +11842,15 @@
         <v>123</v>
       </c>
       <c r="F124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.16113843016773213</v>
       </c>
       <c r="G124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.836455937968553</v>
       </c>
       <c r="H124">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.232551965974594</v>
       </c>
     </row>
@@ -11804,15 +11859,15 @@
         <v>124</v>
       </c>
       <c r="F125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15978459886003041</v>
       </c>
       <c r="G125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8414890876855889</v>
       </c>
       <c r="H125">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.154983145870602</v>
       </c>
     </row>
@@ -11821,15 +11876,15 @@
         <v>125</v>
       </c>
       <c r="F126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1584301765332651</v>
       </c>
       <c r="G126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8465362383206634</v>
       </c>
       <c r="H126">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>49.077380462868668</v>
       </c>
     </row>
@@ -11838,15 +11893,15 @@
         <v>126</v>
       </c>
       <c r="F127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15707516777283917</v>
       </c>
       <c r="G127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8515974483755329</v>
       </c>
       <c r="H127">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.999744179693003</v>
       </c>
     </row>
@@ -11855,15 +11910,15 @@
         <v>127</v>
       </c>
       <c r="F128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.1557195771767409</v>
       </c>
       <c r="G128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8566727766783346</v>
       </c>
       <c r="H128">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.922074559788953</v>
       </c>
     </row>
@@ -11872,15 +11927,15 @@
         <v>128</v>
       </c>
       <c r="F129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15436340935546169</v>
       </c>
       <c r="G129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8617622823858677</v>
       </c>
       <c r="H129">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.844371867318202</v>
       </c>
     </row>
@@ -11889,15 +11944,15 @@
         <v>129</v>
       </c>
       <c r="F130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15300666893191311</v>
       </c>
       <c r="G130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8668660249858886</v>
       </c>
       <c r="H130">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.766636367154071</v>
       </c>
     </row>
@@ -11906,15 +11961,15 @@
         <v>130</v>
       </c>
       <c r="F131">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.15164936054134334</v>
       </c>
       <c r="G131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8719840642994312</v>
       </c>
       <c r="H131">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.688868324876736</v>
       </c>
     </row>
@@ -11923,15 +11978,15 @@
         <v>131</v>
       </c>
       <c r="F132">
-        <f t="shared" ref="F132:F195" si="7">ATAN((($B$5-$E132)*TAN($D$3/2))/$B$5)</f>
+        <f t="shared" ref="F132:F195" si="8">ATAN((($B$5-$E132)*TAN($D$3/2))/$B$5)</f>
         <v>0.15029148883125312</v>
       </c>
       <c r="G132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1.8771164604831447</v>
       </c>
       <c r="H132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>48.611068006768349</v>
       </c>
     </row>
@@ -11940,15 +11995,15 @@
         <v>132</v>
       </c>
       <c r="F133">
+        <f t="shared" si="8"/>
+        <v>0.14893305846131086</v>
+      </c>
+      <c r="G133">
+        <f t="shared" ref="G133:G196" si="9">$B$2/(TAN($D$4+$F133))</f>
+        <v>1.8822632740316469</v>
+      </c>
+      <c r="H133">
         <f t="shared" si="7"/>
-        <v>0.14893305846131086</v>
-      </c>
-      <c r="G133">
-        <f t="shared" ref="G133:G196" si="8">$B$2/(TAN($D$4+$F133))</f>
-        <v>1.8822632740316469</v>
-      </c>
-      <c r="H133">
-        <f t="shared" si="6"/>
         <v>48.533235679808264</v>
       </c>
     </row>
@@ -11957,15 +12012,15 @@
         <v>133</v>
       </c>
       <c r="F134">
+        <f t="shared" si="8"/>
+        <v>0.14757407410326712</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="9"/>
+        <v>1.8874245657799058</v>
+      </c>
+      <c r="H134">
         <f t="shared" si="7"/>
-        <v>0.14757407410326712</v>
-      </c>
-      <c r="G134">
-        <f t="shared" si="8"/>
-        <v>1.8874245657799058</v>
-      </c>
-      <c r="H134">
-        <f t="shared" si="6"/>
         <v>48.455371611668063</v>
       </c>
     </row>
@@ -11974,15 +12029,15 @@
         <v>134</v>
       </c>
       <c r="F135">
+        <f t="shared" si="8"/>
+        <v>0.14621454044086868</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="9"/>
+        <v>1.8926003969056315</v>
+      </c>
+      <c r="H135">
         <f t="shared" si="7"/>
-        <v>0.14621454044086868</v>
-      </c>
-      <c r="G135">
-        <f t="shared" si="8"/>
-        <v>1.8926003969056315</v>
-      </c>
-      <c r="H135">
-        <f t="shared" si="6"/>
         <v>48.37747607070667</v>
       </c>
     </row>
@@ -11991,15 +12046,15 @@
         <v>135</v>
       </c>
       <c r="F136">
+        <f t="shared" si="8"/>
+        <v>0.14485446216977174</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="9"/>
+        <v>1.8977908289316983</v>
+      </c>
+      <c r="H136">
         <f t="shared" si="7"/>
-        <v>0.14485446216977174</v>
-      </c>
-      <c r="G136">
-        <f t="shared" si="8"/>
-        <v>1.8977908289316983</v>
-      </c>
-      <c r="H136">
-        <f t="shared" si="6"/>
         <v>48.299549325965366</v>
       </c>
     </row>
@@ -12008,15 +12063,15 @@
         <v>136</v>
       </c>
       <c r="F137">
+        <f t="shared" si="8"/>
+        <v>0.14349384399745468</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="9"/>
+        <v>1.9029959237285783</v>
+      </c>
+      <c r="H137">
         <f t="shared" si="7"/>
-        <v>0.14349384399745468</v>
-      </c>
-      <c r="G137">
-        <f t="shared" si="8"/>
-        <v>1.9029959237285783</v>
-      </c>
-      <c r="H137">
-        <f t="shared" si="6"/>
         <v>48.221591647162796</v>
       </c>
     </row>
@@ -12025,15 +12080,15 @@
         <v>137</v>
       </c>
       <c r="F138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14213269064312994</v>
       </c>
       <c r="G138">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9082157435168021</v>
       </c>
       <c r="H138">
-        <f t="shared" ref="H138:H201" si="9">DEGREES(ATAN($B$2/$G138))</f>
+        <f t="shared" ref="H138:H201" si="10">DEGREES(ATAN($B$2/$G138))</f>
         <v>48.143603304689911</v>
       </c>
     </row>
@@ -12042,15 +12097,15 @@
         <v>138</v>
       </c>
       <c r="F139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.14077100683765556</v>
       </c>
       <c r="G139">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9134503508694374</v>
       </c>
       <c r="H139">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>48.065584569604916</v>
       </c>
     </row>
@@ -12059,15 +12114,15 @@
         <v>139</v>
       </c>
       <c r="F140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13940879732344597</v>
       </c>
       <c r="G140">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9186998087145892</v>
       </c>
       <c r="H140">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.987535713628141</v>
       </c>
     </row>
@@ -12076,15 +12131,15 @@
         <v>140</v>
       </c>
       <c r="F141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13804606685438223</v>
       </c>
       <c r="G141">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9239641803379228</v>
       </c>
       <c r="H141">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.909457009136908</v>
       </c>
     </row>
@@ -12093,15 +12148,15 @@
         <v>141</v>
       </c>
       <c r="F142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1366828201957215</v>
       </c>
       <c r="G142">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9292435293852037</v>
       </c>
       <c r="H142">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.831348729160332</v>
       </c>
     </row>
@@ -12110,15 +12165,15 @@
         <v>142</v>
       </c>
       <c r="F143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13531906212400618</v>
       </c>
       <c r="G143">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.934537919864866</v>
       </c>
       <c r="H143">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.753211147374152</v>
       </c>
     </row>
@@ -12127,15 +12182,15 @@
         <v>143</v>
       </c>
       <c r="F144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13395479742697217</v>
       </c>
       <c r="G144">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9398474161505985</v>
       </c>
       <c r="H144">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.675044538095399</v>
       </c>
     </row>
@@ -12144,15 +12199,15 @@
         <v>144</v>
       </c>
       <c r="F145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13259003090345675</v>
       </c>
       <c r="G145">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9451720829839509</v>
       </c>
       <c r="H145">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.596849176277232</v>
       </c>
     </row>
@@ -12161,15 +12216,15 @@
         <v>145</v>
       </c>
       <c r="F146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.13122476736330574</v>
       </c>
       <c r="G146">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9505119854769701</v>
       </c>
       <c r="H146">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.518625337503479</v>
       </c>
     </row>
@@ -12178,15 +12233,15 @@
         <v>146</v>
       </c>
       <c r="F147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12985901162728</v>
       </c>
       <c r="G147">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9558671891148505</v>
       </c>
       <c r="H147">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.440373297983427</v>
       </c>
     </row>
@@ -12195,15 +12250,15 @@
         <v>147</v>
       </c>
       <c r="F148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12849276852696168</v>
       </c>
       <c r="G148">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9612377597586115</v>
       </c>
       <c r="H148">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.362093334546316</v>
       </c>
     </row>
@@ -12212,15 +12267,15 @@
         <v>148</v>
       </c>
       <c r="F149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12712604290465959</v>
       </c>
       <c r="G149">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9666237636477999</v>
       </c>
       <c r="H149">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.283785724636019</v>
       </c>
     </row>
@@ -12229,15 +12284,15 @@
         <v>149</v>
       </c>
       <c r="F150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12575883961331386</v>
       </c>
       <c r="G150">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9720252674032095</v>
       </c>
       <c r="H150">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.205450746305516</v>
       </c>
     </row>
@@ -12246,15 +12301,15 @@
         <v>150</v>
       </c>
       <c r="F151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12439116351640052</v>
       </c>
       <c r="G151">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9774423380296313</v>
       </c>
       <c r="H151">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.127088678211457</v>
       </c>
     </row>
@@ -12263,15 +12318,15 @@
         <v>151</v>
       </c>
       <c r="F152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12302301948783503</v>
       </c>
       <c r="G152">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9828750429186222</v>
       </c>
       <c r="H152">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>47.04869979960862</v>
       </c>
     </row>
@@ -12280,15 +12335,15 @@
         <v>152</v>
       </c>
       <c r="F153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12165441241187562</v>
       </c>
       <c r="G153">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9883234498512998</v>
       </c>
       <c r="H153">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.97028439034441</v>
       </c>
     </row>
@@ -12297,15 +12352,15 @@
         <v>153</v>
       </c>
       <c r="F154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.12028534718302568</v>
       </c>
       <c r="G154">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.9937876270011621</v>
       </c>
       <c r="H154">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.891842730853192</v>
       </c>
     </row>
@@ -12314,15 +12369,15 @@
         <v>154</v>
       </c>
       <c r="F155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11891582870593605</v>
       </c>
       <c r="G155">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.99926764293693</v>
       </c>
       <c r="H155">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.813375102150779</v>
       </c>
     </row>
@@ -12331,15 +12386,15 @@
         <v>155</v>
       </c>
       <c r="F156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11754586189530626</v>
       </c>
       <c r="G156">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0047635666254178</v>
       </c>
       <c r="H156">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.734881785828691</v>
       </c>
     </row>
@@ -12348,15 +12403,15 @@
         <v>156</v>
       </c>
       <c r="F157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11617545167578572</v>
       </c>
       <c r="G157">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0102754674344223</v>
       </c>
       <c r="H157">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.65636306404857</v>
       </c>
     </row>
@@ -12365,15 +12420,15 @@
         <v>157</v>
       </c>
       <c r="F158">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11480460298187398</v>
       </c>
       <c r="G158">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0158034151356454</v>
       </c>
       <c r="H158">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.577819219536408</v>
       </c>
     </row>
@@ -12382,15 +12437,15 @@
         <v>158</v>
       </c>
       <c r="F159">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11343332075782069</v>
       </c>
       <c r="G159">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0213474799076354</v>
       </c>
       <c r="H159">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.499250535576834</v>
       </c>
     </row>
@@ -12399,15 +12454,15 @@
         <v>159</v>
       </c>
       <c r="F160">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1120616099575249</v>
       </c>
       <c r="G160">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0269077323387568</v>
       </c>
       <c r="H160">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.420657296007377</v>
       </c>
     </row>
@@ -12416,15 +12471,15 @@
         <v>160</v>
       </c>
       <c r="F161">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.11068947554443387</v>
       </c>
       <c r="G161">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0324842434301904</v>
       </c>
       <c r="H161">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.342039785212599</v>
       </c>
     </row>
@@ -12433,15 +12488,15 @@
         <v>161</v>
       </c>
       <c r="F162">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1093169224914414</v>
       </c>
       <c r="G162">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0380770845989487</v>
       </c>
       <c r="H162">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.263398288118339</v>
       </c>
     </row>
@@ -12450,15 +12505,15 @@
         <v>162</v>
       </c>
       <c r="F163">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.1079439557807856</v>
       </c>
       <c r="G163">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0436863276809301</v>
       </c>
       <c r="H163">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.184733090185802</v>
       </c>
     </row>
@@ -12467,15 +12522,15 @@
         <v>163</v>
       </c>
       <c r="F164">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10657058040394611</v>
       </c>
       <c r="G164">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0493120449339921</v>
       </c>
       <c r="H164">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.106044477405703</v>
       </c>
     </row>
@@ -12484,15 +12539,15 @@
         <v>164</v>
       </c>
       <c r="F165">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10519680136154094</v>
       </c>
       <c r="G165">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0549543090410536</v>
       </c>
       <c r="H165">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>46.027332736292372</v>
       </c>
     </row>
@@ -12501,15 +12556,15 @@
         <v>165</v>
       </c>
       <c r="F166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10382262366322267</v>
       </c>
       <c r="G166">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0606131931132281</v>
       </c>
       <c r="H166">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.948598153877732</v>
       </c>
     </row>
@@ -12518,15 +12573,15 @@
         <v>166</v>
       </c>
       <c r="F167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10244805232757417</v>
       </c>
       <c r="G167">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0662887706929771</v>
       </c>
       <c r="H167">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.869841017705404</v>
       </c>
     </row>
@@ -12535,15 +12590,15 @@
         <v>167</v>
       </c>
       <c r="F168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.10107309238200396</v>
       </c>
       <c r="G168">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0719811157572998</v>
       </c>
       <c r="H168">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.791061615824695</v>
       </c>
     </row>
@@ -12552,15 +12607,15 @@
         <v>168</v>
       </c>
       <c r="F169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.9697748862640864E-2</v>
       </c>
       <c r="G169">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0776903027209457</v>
       </c>
       <c r="H169">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.712260236784523</v>
       </c>
     </row>
@@ -12569,15 +12624,15 @@
         <v>169</v>
       </c>
       <c r="F170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.8322026814228455E-2</v>
       </c>
       <c r="G170">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0834164064396568</v>
       </c>
       <c r="H170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.633437169627399</v>
       </c>
     </row>
@@ -12586,15 +12641,15 @@
         <v>170</v>
       </c>
       <c r="F171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.6945931290018744E-2</v>
       </c>
       <c r="G171">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.0891595022134402</v>
       </c>
       <c r="H171">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.554592703883337</v>
       </c>
     </row>
@@ -12603,15 +12658,15 @@
         <v>171</v>
       </c>
       <c r="F172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.5569467351665605E-2</v>
       </c>
       <c r="G172">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.094919665789869</v>
       </c>
       <c r="H172">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.475727129563751</v>
       </c>
     </row>
@@ -12620,15 +12675,15 @@
         <v>172</v>
       </c>
       <c r="F173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.4192640069117567E-2</v>
       </c>
       <c r="G173">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1006969733674112</v>
       </c>
       <c r="H173">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.39684073715528</v>
       </c>
     </row>
@@ -12637,15 +12692,15 @@
         <v>173</v>
       </c>
       <c r="F174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.2815454520510376E-2</v>
       </c>
       <c r="G174">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1064915015987902</v>
       </c>
       <c r="H174">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.317933817613678</v>
       </c>
     </row>
@@ -12654,15 +12709,15 @@
         <v>174</v>
       </c>
       <c r="F175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.1437915792058788E-2</v>
       </c>
       <c r="G175">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1123033275943763</v>
       </c>
       <c r="H175">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.239006662357582</v>
       </c>
     </row>
@@ -12671,15 +12726,15 @@
         <v>175</v>
       </c>
       <c r="F176">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>9.0060028977948209E-2</v>
       </c>
       <c r="G176">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1181325289256052</v>
       </c>
       <c r="H176">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.160059563262323</v>
       </c>
     </row>
@@ -12688,15 +12743,15 @@
         <v>176</v>
       </c>
       <c r="F177">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.8681799180225729E-2</v>
       </c>
       <c r="G177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1239791836284305</v>
       </c>
       <c r="H177">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.081092812653651</v>
       </c>
     </row>
@@ -12705,15 +12760,15 @@
         <v>177</v>
       </c>
       <c r="F178">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.7303231508690723E-2</v>
       </c>
       <c r="G178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1298433702068058</v>
       </c>
       <c r="H178">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.002106703301521</v>
       </c>
     </row>
@@ -12722,15 +12777,15 @@
         <v>178</v>
       </c>
       <c r="F179">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.5924331080785094E-2</v>
       </c>
       <c r="G179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1357251676361977</v>
       </c>
       <c r="H179">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.923101528413753</v>
       </c>
     </row>
@@ -12739,15 +12794,15 @@
         <v>179</v>
       </c>
       <c r="F180">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.4545103021482992E-2</v>
       </c>
       <c r="G180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1416246553671323</v>
       </c>
       <c r="H180">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.844077581629719</v>
       </c>
     </row>
@@ -12756,15 +12811,15 @@
         <v>180</v>
       </c>
       <c r="F181">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.316555246318022E-2</v>
       </c>
       <c r="G181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1475419133287708</v>
       </c>
       <c r="H181">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.765035157014047</v>
       </c>
     </row>
@@ -12773,15 +12828,15 @@
         <v>181</v>
       </c>
       <c r="F182">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.178568454558309E-2</v>
       </c>
       <c r="G182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1534770219325208</v>
       </c>
       <c r="H182">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.685974549050236</v>
       </c>
     </row>
@@ -12790,15 +12845,15 @@
         <v>182</v>
       </c>
       <c r="F183">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>8.0405504415597018E-2</v>
       </c>
       <c r="G183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1594300620756797</v>
       </c>
       <c r="H183">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.606896052634212</v>
       </c>
     </row>
@@ -12807,15 +12862,15 @@
         <v>183</v>
       </c>
       <c r="F184">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.9025017227214625E-2</v>
       </c>
       <c r="G184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.165401115145106</v>
       </c>
       <c r="H184">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.52779996306802</v>
       </c>
     </row>
@@ -12824,15 +12879,15 @@
         <v>184</v>
       </c>
       <c r="F185">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.7644228141403399E-2</v>
       </c>
       <c r="G185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1713902630209345</v>
       </c>
       <c r="H185">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.448686576053305</v>
       </c>
     </row>
@@ -12841,15 +12896,15 @@
         <v>185</v>
       </c>
       <c r="F186">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.6263142325993127E-2</v>
       </c>
       <c r="G186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1773975880803129</v>
       </c>
       <c r="H186">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.369556187684921</v>
       </c>
     </row>
@@ -12858,15 +12913,15 @@
         <v>186</v>
       </c>
       <c r="F187">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.4881764955562716E-2</v>
       </c>
       <c r="G187">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1834231732011826</v>
       </c>
       <c r="H187">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.290409094444378</v>
       </c>
     </row>
@@ -12875,15 +12930,15 @@
         <v>187</v>
       </c>
       <c r="F188">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.3500101211326802E-2</v>
       </c>
       <c r="G188">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1894671017660903</v>
       </c>
       <c r="H188">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.211245593193404</v>
       </c>
     </row>
@@ -12892,15 +12947,15 @@
         <v>188</v>
       </c>
       <c r="F189">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.2118156281021958E-2</v>
       </c>
       <c r="G189">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.1955294576660296</v>
       </c>
       <c r="H189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.132065981167443</v>
       </c>
     </row>
@@ -12909,15 +12964,15 @@
         <v>189</v>
       </c>
       <c r="F190">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>7.0735935358792537E-2</v>
       </c>
       <c r="G190">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2016103253043275</v>
       </c>
       <c r="H190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>44.052870555969022</v>
       </c>
     </row>
@@ -12926,15 +12981,15 @@
         <v>190</v>
       </c>
       <c r="F191">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.9353443645075979E-2</v>
       </c>
       <c r="G191">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2077097896005609</v>
       </c>
       <c r="H191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.973659615561253</v>
       </c>
     </row>
@@ -12943,15 +12998,15 @@
         <v>191</v>
       </c>
       <c r="F192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.7970686346488091E-2</v>
       </c>
       <c r="G192">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.213827935994507</v>
       </c>
       <c r="H192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.894433458261247</v>
       </c>
     </row>
@@ -12960,15 +13015,15 @@
         <v>192</v>
       </c>
       <c r="F193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.6587668675707645E-2</v>
       </c>
       <c r="G193">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2199648504501326</v>
       </c>
       <c r="H193">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.815192382733521</v>
       </c>
     </row>
@@ -12977,15 +13032,15 @@
         <v>193</v>
       </c>
       <c r="F194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.5204395851360925E-2</v>
       </c>
       <c r="G194">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2261206194596248</v>
       </c>
       <c r="H194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.735936687983319</v>
       </c>
     </row>
@@ -12994,15 +13049,15 @@
         <v>194</v>
       </c>
       <c r="F195">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.3820873097905628E-2</v>
       </c>
       <c r="G195">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2322953300474495</v>
       </c>
       <c r="H195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.65666667335001</v>
       </c>
     </row>
@@ -13011,15 +13066,15 @@
         <v>195</v>
       </c>
       <c r="F196">
-        <f t="shared" ref="F196:F259" si="10">ATAN((($B$5-$E196)*TAN($D$3/2))/$B$5)</f>
+        <f t="shared" ref="F196:F259" si="11">ATAN((($B$5-$E196)*TAN($D$3/2))/$B$5)</f>
         <v>6.2437105645514711E-2</v>
       </c>
       <c r="G196">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2.2384890697744551</v>
       </c>
       <c r="H196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>43.577382638500438</v>
       </c>
     </row>
@@ -13028,15 +13083,15 @@
         <v>196</v>
       </c>
       <c r="F197">
+        <f t="shared" si="11"/>
+        <v>6.1053098729959787E-2</v>
+      </c>
+      <c r="G197">
+        <f t="shared" ref="G197:G260" si="12">$B$2/(TAN($D$4+$F197))</f>
+        <v>2.2447019267420103</v>
+      </c>
+      <c r="H197">
         <f t="shared" si="10"/>
-        <v>6.1053098729959787E-2</v>
-      </c>
-      <c r="G197">
-        <f t="shared" ref="G197:G260" si="11">$B$2/(TAN($D$4+$F197))</f>
-        <v>2.2447019267420103</v>
-      </c>
-      <c r="H197">
-        <f t="shared" si="9"/>
         <v>43.498084883422223</v>
       </c>
     </row>
@@ -13045,15 +13100,15 @@
         <v>197</v>
       </c>
       <c r="F198">
+        <f t="shared" si="11"/>
+        <v>5.9668857592494205E-2</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="12"/>
+        <v>2.2509339895961809</v>
+      </c>
+      <c r="H198">
         <f t="shared" si="10"/>
-        <v>5.9668857592494205E-2</v>
-      </c>
-      <c r="G198">
-        <f t="shared" si="11"/>
-        <v>2.2509339895961809</v>
-      </c>
-      <c r="H198">
-        <f t="shared" si="9"/>
         <v>43.418773708417064</v>
       </c>
     </row>
@@ -13062,15 +13117,15 @@
         <v>198</v>
       </c>
       <c r="F199">
+        <f t="shared" si="11"/>
+        <v>5.8284387479735807E-2</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="12"/>
+        <v>2.2571853475319474</v>
+      </c>
+      <c r="H199">
         <f t="shared" si="10"/>
-        <v>5.8284387479735807E-2</v>
-      </c>
-      <c r="G199">
-        <f t="shared" si="11"/>
-        <v>2.2571853475319474</v>
-      </c>
-      <c r="H199">
-        <f t="shared" si="9"/>
         <v>43.339449414093998</v>
       </c>
     </row>
@@ -13079,15 +13134,15 @@
         <v>199</v>
       </c>
       <c r="F200">
+        <f t="shared" si="11"/>
+        <v>5.6899693643549416E-2</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="12"/>
+        <v>2.2634560902974608</v>
+      </c>
+      <c r="H200">
         <f t="shared" si="10"/>
-        <v>5.6899693643549416E-2</v>
-      </c>
-      <c r="G200">
-        <f t="shared" si="11"/>
-        <v>2.2634560902974608</v>
-      </c>
-      <c r="H200">
-        <f t="shared" si="9"/>
         <v>43.260112301362739</v>
       </c>
     </row>
@@ -13096,15 +13151,15 @@
         <v>200</v>
       </c>
       <c r="F201">
+        <f t="shared" si="11"/>
+        <v>5.5514781340929041E-2</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="12"/>
+        <v>2.2697463081983331</v>
+      </c>
+      <c r="H201">
         <f t="shared" si="10"/>
-        <v>5.5514781340929041E-2</v>
-      </c>
-      <c r="G201">
-        <f t="shared" si="11"/>
-        <v>2.2697463081983331</v>
-      </c>
-      <c r="H201">
-        <f t="shared" si="9"/>
         <v>43.180762671426848</v>
       </c>
     </row>
@@ -13113,15 +13168,15 @@
         <v>201</v>
       </c>
       <c r="F202">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.4129655833879693E-2</v>
       </c>
       <c r="G202">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2760560921019781</v>
       </c>
       <c r="H202">
-        <f t="shared" ref="H202:H265" si="12">DEGREES(ATAN($B$2/$G202))</f>
+        <f t="shared" ref="H202:H265" si="13">DEGREES(ATAN($B$2/$G202))</f>
         <v>43.101400825776999</v>
       </c>
     </row>
@@ -13130,15 +13185,15 @@
         <v>202</v>
       </c>
       <c r="F203">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.2744322389299055E-2</v>
       </c>
       <c r="G203">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.282385533441984</v>
       </c>
       <c r="H203">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>43.022027066184208</v>
       </c>
     </row>
@@ -13147,15 +13202,15 @@
         <v>203</v>
       </c>
       <c r="F204">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.1358786278858731E-2</v>
       </c>
       <c r="G204">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.2887347242225302</v>
       </c>
       <c r="H204">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.942641694693002</v>
       </c>
     </row>
@@ -13164,15 +13219,15 @@
         <v>204</v>
       </c>
       <c r="F205">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.9973052778885349E-2</v>
       </c>
       <c r="G205">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.295103757022845</v>
       </c>
       <c r="H205">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.863245013614637</v>
       </c>
     </row>
@@ -13181,15 +13236,15 @@
         <v>205</v>
       </c>
       <c r="F206">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.8587127170241273E-2</v>
       </c>
       <c r="G206">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3014927250017059</v>
       </c>
       <c r="H206">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.783837325520231</v>
       </c>
     </row>
@@ -13198,15 +13253,15 @@
         <v>206</v>
       </c>
       <c r="F207">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.7201014738205177E-2</v>
       </c>
       <c r="G207">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3079017219019815</v>
       </c>
       <c r="H207">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.704418933233953</v>
       </c>
     </row>
@@ -13215,15 +13270,15 @@
         <v>207</v>
       </c>
       <c r="F208">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.5814720772352296E-2</v>
       </c>
       <c r="G208">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3143308420552171</v>
       </c>
       <c r="H208">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.624990139826124</v>
       </c>
     </row>
@@ -13232,15 +13287,15 @@
         <v>208</v>
       </c>
       <c r="F209">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.4428250566434395E-2</v>
       </c>
       <c r="G209">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3207801803862615</v>
       </c>
       <c r="H209">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.545551248606401</v>
       </c>
     </row>
@@ -13249,15 +13304,15 @@
         <v>209</v>
       </c>
       <c r="F210">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.3041609418259637E-2</v>
       </c>
       <c r="G210">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3272498324179396</v>
       </c>
       <c r="H210">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.466102563116813</v>
       </c>
     </row>
@@ -13266,15 +13321,15 @@
         <v>210</v>
       </c>
       <c r="F211">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.1654802629572038E-2</v>
       </c>
       <c r="G211">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.333739894275769</v>
       </c>
       <c r="H211">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.386644387124917</v>
       </c>
     </row>
@@ -13283,15 +13338,15 @@
         <v>211</v>
       </c>
       <c r="F212">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.0267835505930848E-2</v>
       </c>
       <c r="G212">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3402504626927194</v>
       </c>
       <c r="H212">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.307177024616877</v>
       </c>
     </row>
@@ -13300,15 +13355,15 @@
         <v>212</v>
       </c>
       <c r="F213">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.8880713356589616E-2</v>
       </c>
       <c r="G213">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.34678163501402</v>
       </c>
       <c r="H213">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.22770077979051</v>
       </c>
     </row>
@@ -13317,15 +13372,15 @@
         <v>213</v>
       </c>
       <c r="F214">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.7493441494375127E-2</v>
       </c>
       <c r="G214">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.35333350920201</v>
       </c>
       <c r="H214">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.148215957048372</v>
       </c>
     </row>
@@ -13334,15 +13389,15 @@
         <v>214</v>
       </c>
       <c r="F215">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.610602523556599E-2</v>
       </c>
       <c r="G215">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3599061838410393</v>
       </c>
       <c r="H215">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>42.068722860990775</v>
       </c>
     </row>
@@ -13351,15 +13406,15 @@
         <v>215</v>
       </c>
       <c r="F216">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.4718469899771238E-2</v>
       </c>
       <c r="G216">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3664997581424077</v>
       </c>
       <c r="H216">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.989221796408877</v>
       </c>
     </row>
@@ -13368,15 +13423,15 @@
         <v>216</v>
       </c>
       <c r="F217">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.3330780809808537E-2</v>
       </c>
       <c r="G217">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3731143319493619</v>
       </c>
       <c r="H217">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.909713068277668</v>
       </c>
     </row>
@@ -13385,15 +13440,15 @@
         <v>217</v>
       </c>
       <c r="F218">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.1942963291582346E-2</v>
       </c>
       <c r="G218">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3797500057421339</v>
       </c>
       <c r="H218">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.830196981748983</v>
       </c>
     </row>
@@ -13402,15 +13457,15 @@
         <v>218</v>
       </c>
       <c r="F219">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.0555022673961776E-2</v>
       </c>
       <c r="G219">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3864068806430265</v>
       </c>
       <c r="H219">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.750673842144543</v>
       </c>
     </row>
@@ -13419,15 +13474,15 @@
         <v>219</v>
       </c>
       <c r="F220">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.9166964288658441E-2</v>
       </c>
       <c r="G220">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3930850584215539</v>
       </c>
       <c r="H220">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.671143954948917</v>
       </c>
     </row>
@@ -13436,15 +13491,15 @@
         <v>220</v>
       </c>
       <c r="F221">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.7778793470103987E-2</v>
       </c>
       <c r="G221">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3997846414996236</v>
       </c>
       <c r="H221">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.591607625802531</v>
       </c>
     </row>
@@ -13453,15 +13508,15 @@
         <v>221</v>
       </c>
       <c r="F222">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.6390515555327548E-2</v>
       </c>
       <c r="G222">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4065057329567772</v>
       </c>
       <c r="H222">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.512065160494615</v>
       </c>
     </row>
@@ -13470,15 +13525,15 @@
         <v>222</v>
       </c>
       <c r="F223">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.5002135883833054E-2</v>
       </c>
       <c r="G223">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4132484365354734</v>
       </c>
       <c r="H223">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.43251686495622</v>
       </c>
     </row>
@@ -13487,15 +13542,15 @@
         <v>223</v>
       </c>
       <c r="F224">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.3613659797476344E-2</v>
       </c>
       <c r="G224">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4200128566464274</v>
       </c>
       <c r="H224">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.352963045253134</v>
       </c>
     </row>
@@ -13504,15 +13559,15 @@
         <v>224</v>
       </c>
       <c r="F225">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.2225092640342205E-2</v>
       </c>
       <c r="G225">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4267990983739987</v>
       </c>
       <c r="H225">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.273404007578876</v>
       </c>
     </row>
@@ -13521,15 +13576,15 @@
         <v>225</v>
       </c>
       <c r="F226">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.0836439758621227E-2</v>
       </c>
       <c r="G226">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4336072674816358</v>
       </c>
       <c r="H226">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.193840058247588</v>
       </c>
     </row>
@@ -13538,15 +13593,15 @@
         <v>226</v>
       </c>
       <c r="F227">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.9447706500486581E-2</v>
       </c>
       <c r="G227">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4404374704173688</v>
       </c>
       <c r="H227">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.114271503687007</v>
       </c>
     </row>
@@ -13555,15 +13610,15 @@
         <v>227</v>
       </c>
       <c r="F228">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.8058898215970665E-2</v>
       </c>
       <c r="G228">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4472898143193547</v>
       </c>
       <c r="H228">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>41.034698650431444</v>
       </c>
     </row>
@@ -13572,15 +13627,15 @@
         <v>228</v>
       </c>
       <c r="F229">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.6670020256841628E-2</v>
       </c>
       <c r="G229">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4541644070214845</v>
       </c>
       <c r="H229">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.955121805114615</v>
       </c>
     </row>
@@ -13589,15 +13644,15 @@
         <v>229</v>
       </c>
       <c r="F230">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.5281077976479823E-2</v>
       </c>
       <c r="G230">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4610613570590365</v>
       </c>
       <c r="H230">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.875541274462606</v>
       </c>
     </row>
@@ -13606,15 +13661,15 @@
         <v>230</v>
       </c>
       <c r="F231">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3892076729754128E-2</v>
       </c>
       <c r="G231">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4679807736743888</v>
       </c>
       <c r="H231">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.79595736528681</v>
       </c>
     </row>
@@ -13623,15 +13678,15 @@
         <v>231</v>
       </c>
       <c r="F232">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.2503021872898227E-2</v>
       </c>
       <c r="G232">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4749227668227869</v>
       </c>
       <c r="H232">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.716370384476825</v>
       </c>
     </row>
@@ -13640,15 +13695,15 @@
         <v>232</v>
       </c>
       <c r="F233">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.1113918763386786E-2</v>
       </c>
       <c r="G233">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4818874471781691</v>
       </c>
       <c r="H233">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.636780638993315</v>
       </c>
     </row>
@@ -13657,15 +13712,15 @@
         <v>233</v>
       </c>
       <c r="F234">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.7247727598115466E-3</v>
       </c>
       <c r="G234">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4888749261390455</v>
       </c>
       <c r="H234">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.557188435860994</v>
       </c>
     </row>
@@ -13674,15 +13729,15 @@
         <v>234</v>
       </c>
       <c r="F235">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>8.335589221757379E-3</v>
       </c>
       <c r="G235">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.4958853158344407</v>
       </c>
       <c r="H235">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.477594082161431</v>
       </c>
     </row>
@@ -13691,15 +13746,15 @@
         <v>235</v>
       </c>
       <c r="F236">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>6.9463735096782653E-3</v>
       </c>
       <c r="G236">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5029187291298896</v>
       </c>
       <c r="H236">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.397997885026051</v>
       </c>
     </row>
@@ -13708,15 +13763,15 @@
         <v>236</v>
       </c>
       <c r="F237">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>5.5571309847732286E-3</v>
       </c>
       <c r="G237">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5099752796334962</v>
       </c>
       <c r="H237">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.318400151628879</v>
       </c>
     </row>
@@ -13725,15 +13780,15 @@
         <v>237</v>
       </c>
       <c r="F238">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4.167867008862236E-3</v>
       </c>
       <c r="G238">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5170550817020461</v>
       </c>
       <c r="H238">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.238801189179618</v>
       </c>
     </row>
@@ -13742,15 +13797,15 @@
         <v>238</v>
       </c>
       <c r="F239">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2.7785869442620448E-3</v>
       </c>
       <c r="G239">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.52415825044719</v>
       </c>
       <c r="H239">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.159201304916373</v>
       </c>
     </row>
@@ -13759,15 +13814,15 @@
         <v>239</v>
       </c>
       <c r="F240">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1.3892961536620318E-3</v>
       </c>
       <c r="G240">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5312849017416799</v>
       </c>
       <c r="H240">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40.07960080609859</v>
       </c>
     </row>
@@ -13776,15 +13831,15 @@
         <v>240</v>
       </c>
       <c r="F241">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G241">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5384351522256674</v>
       </c>
       <c r="H241">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>40</v>
       </c>
     </row>
@@ -13793,15 +13848,15 @@
         <v>241</v>
       </c>
       <c r="F242">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.3892961536620318E-3</v>
       </c>
       <c r="G242">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5456091193130717</v>
       </c>
       <c r="H242">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.92039919390141</v>
       </c>
     </row>
@@ -13810,15 +13865,15 @@
         <v>242</v>
       </c>
       <c r="F243">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.7785869442620448E-3</v>
       </c>
       <c r="G243">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.552806921198004</v>
       </c>
       <c r="H243">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.840798695083635</v>
       </c>
     </row>
@@ -13827,15 +13882,15 @@
         <v>243</v>
       </c>
       <c r="F244">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-4.167867008862236E-3</v>
       </c>
       <c r="G244">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5600286768612577</v>
       </c>
       <c r="H244">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.761198810820382</v>
       </c>
     </row>
@@ -13844,15 +13899,15 @@
         <v>244</v>
       </c>
       <c r="F245">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-5.5571309847732286E-3</v>
       </c>
       <c r="G245">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5672745060768669</v>
       </c>
       <c r="H245">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.681599848371114</v>
       </c>
     </row>
@@ -13861,15 +13916,15 @@
         <v>245</v>
       </c>
       <c r="F246">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-6.9463735096782653E-3</v>
       </c>
       <c r="G246">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5745445294187266</v>
       </c>
       <c r="H246">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.602002114973949</v>
       </c>
     </row>
@@ -13878,15 +13933,15 @@
         <v>246</v>
       </c>
       <c r="F247">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-8.335589221757379E-3</v>
       </c>
       <c r="G247">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5818388682672784</v>
       </c>
       <c r="H247">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.522405917838562</v>
       </c>
     </row>
@@ -13895,15 +13950,15 @@
         <v>247</v>
       </c>
       <c r="F248">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-9.7247727598115466E-3</v>
       </c>
       <c r="G248">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5891576448162721</v>
       </c>
       <c r="H248">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.442811564139006</v>
       </c>
     </row>
@@ -13912,15 +13967,15 @@
         <v>248</v>
       </c>
       <c r="F249">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.1113918763386786E-2</v>
       </c>
       <c r="G249">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5965009820795828</v>
       </c>
       <c r="H249">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.363219361006685</v>
       </c>
     </row>
@@ -13929,15 +13984,15 @@
         <v>249</v>
       </c>
       <c r="F250">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.2503021872898227E-2</v>
       </c>
       <c r="G250">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6038690038981063</v>
       </c>
       <c r="H250">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.283629615523175</v>
       </c>
     </row>
@@ -13946,15 +14001,15 @@
         <v>250</v>
       </c>
       <c r="F251">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.3892076729754128E-2</v>
       </c>
       <c r="G251">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6112618349467192</v>
       </c>
       <c r="H251">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.204042634713183</v>
       </c>
     </row>
@@ -13963,15 +14018,15 @@
         <v>251</v>
       </c>
       <c r="F252">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.5281077976479823E-2</v>
       </c>
       <c r="G252">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6186796007413129</v>
       </c>
       <c r="H252">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.124458725537394</v>
       </c>
     </row>
@@ -13980,15 +14035,15 @@
         <v>252</v>
       </c>
       <c r="F253">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.6670020256841628E-2</v>
       </c>
       <c r="G253">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6261224276458952</v>
       </c>
       <c r="H253">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>39.044878194885385</v>
       </c>
     </row>
@@ -13997,15 +14052,15 @@
         <v>253</v>
       </c>
       <c r="F254">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.8058898215970665E-2</v>
       </c>
       <c r="G254">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6335904428797674</v>
       </c>
       <c r="H254">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38.965301349568549</v>
       </c>
     </row>
@@ -14014,15 +14069,15 @@
         <v>254</v>
       </c>
       <c r="F255">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-1.9447706500486581E-2</v>
       </c>
       <c r="G255">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6410837745247715</v>
       </c>
       <c r="H255">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38.885728496312986</v>
       </c>
     </row>
@@ -14031,15 +14086,15 @@
         <v>255</v>
       </c>
       <c r="F256">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.0836439758621227E-2</v>
       </c>
       <c r="G256">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6486025515326146</v>
       </c>
       <c r="H256">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38.806159941752412</v>
       </c>
     </row>
@@ -14048,15 +14103,15 @@
         <v>256</v>
       </c>
       <c r="F257">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.2225092640342205E-2</v>
       </c>
       <c r="G257">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6561469037322629</v>
       </c>
       <c r="H257">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38.726595992421117</v>
       </c>
     </row>
@@ -14065,15 +14120,15 @@
         <v>257</v>
       </c>
       <c r="F258">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.3613659797476344E-2</v>
       </c>
       <c r="G258">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.6637169618374168</v>
       </c>
       <c r="H258">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38.647036954746859</v>
       </c>
     </row>
@@ -14082,15 +14137,15 @@
         <v>258</v>
       </c>
       <c r="F259">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>-2.5002135883833054E-2</v>
       </c>
       <c r="G259">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.671312857454061</v>
       </c>
       <c r="H259">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38.567483135043773</v>
       </c>
     </row>
@@ -14099,15 +14154,15 @@
         <v>259</v>
       </c>
       <c r="F260">
-        <f t="shared" ref="F260:F323" si="13">ATAN((($B$5-$E260)*TAN($D$3/2))/$B$5)</f>
+        <f t="shared" ref="F260:F323" si="14">ATAN((($B$5-$E260)*TAN($D$3/2))/$B$5)</f>
         <v>-2.6390515555327548E-2</v>
       </c>
       <c r="G260">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.678934723088088</v>
       </c>
       <c r="H260">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>38.487934839505378</v>
       </c>
     </row>
@@ -14116,15 +14171,15 @@
         <v>260</v>
       </c>
       <c r="F261">
+        <f t="shared" si="14"/>
+        <v>-2.7778793470103987E-2</v>
+      </c>
+      <c r="G261">
+        <f t="shared" ref="G261:G324" si="15">$B$2/(TAN($D$4+$F261))</f>
+        <v>2.686582692153006</v>
+      </c>
+      <c r="H261">
         <f t="shared" si="13"/>
-        <v>-2.7778793470103987E-2</v>
-      </c>
-      <c r="G261">
-        <f t="shared" ref="G261:G324" si="14">$B$2/(TAN($D$4+$F261))</f>
-        <v>2.686582692153006</v>
-      </c>
-      <c r="H261">
-        <f t="shared" si="12"/>
         <v>38.408392374197469</v>
       </c>
     </row>
@@ -14133,15 +14188,15 @@
         <v>261</v>
       </c>
       <c r="F262">
+        <f t="shared" si="14"/>
+        <v>-2.9166964288658441E-2</v>
+      </c>
+      <c r="G262">
+        <f t="shared" si="15"/>
+        <v>2.6942568989777214</v>
+      </c>
+      <c r="H262">
         <f t="shared" si="13"/>
-        <v>-2.9166964288658441E-2</v>
-      </c>
-      <c r="G262">
-        <f t="shared" si="14"/>
-        <v>2.6942568989777214</v>
-      </c>
-      <c r="H262">
-        <f t="shared" si="12"/>
         <v>38.328856045051083</v>
       </c>
     </row>
@@ -14150,15 +14205,15 @@
         <v>262</v>
       </c>
       <c r="F263">
+        <f t="shared" si="14"/>
+        <v>-3.0555022673961776E-2</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="15"/>
+        <v>2.7019574788144061</v>
+      </c>
+      <c r="H263">
         <f t="shared" si="13"/>
-        <v>-3.0555022673961776E-2</v>
-      </c>
-      <c r="G263">
-        <f t="shared" si="14"/>
-        <v>2.7019574788144061</v>
-      </c>
-      <c r="H263">
-        <f t="shared" si="12"/>
         <v>38.24932615785545</v>
       </c>
     </row>
@@ -14167,15 +14222,15 @@
         <v>263</v>
       </c>
       <c r="F264">
+        <f t="shared" si="14"/>
+        <v>-3.1942963291582346E-2</v>
+      </c>
+      <c r="G264">
+        <f t="shared" si="15"/>
+        <v>2.7096845678464381</v>
+      </c>
+      <c r="H264">
         <f t="shared" si="13"/>
-        <v>-3.1942963291582346E-2</v>
-      </c>
-      <c r="G264">
-        <f t="shared" si="14"/>
-        <v>2.7096845678464381</v>
-      </c>
-      <c r="H264">
-        <f t="shared" si="12"/>
         <v>38.169803018251017</v>
       </c>
     </row>
@@ -14184,15 +14239,15 @@
         <v>264</v>
       </c>
       <c r="F265">
+        <f t="shared" si="14"/>
+        <v>-3.3330780809808537E-2</v>
+      </c>
+      <c r="G265">
+        <f t="shared" si="15"/>
+        <v>2.7174383031964364</v>
+      </c>
+      <c r="H265">
         <f t="shared" si="13"/>
-        <v>-3.3330780809808537E-2</v>
-      </c>
-      <c r="G265">
-        <f t="shared" si="14"/>
-        <v>2.7174383031964364</v>
-      </c>
-      <c r="H265">
-        <f t="shared" si="12"/>
         <v>38.090286931722332</v>
       </c>
     </row>
@@ -14201,15 +14256,15 @@
         <v>265</v>
       </c>
       <c r="F266">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3.4718469899771238E-2</v>
       </c>
       <c r="G266">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7252188229343659</v>
       </c>
       <c r="H266">
-        <f t="shared" ref="H266:H329" si="15">DEGREES(ATAN($B$2/$G266))</f>
+        <f t="shared" ref="H266:H329" si="16">DEGREES(ATAN($B$2/$G266))</f>
         <v>38.010778203591123</v>
       </c>
     </row>
@@ -14218,15 +14273,15 @@
         <v>266</v>
       </c>
       <c r="F267">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3.610602523556599E-2</v>
       </c>
       <c r="G267">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7330262660857372</v>
       </c>
       <c r="H267">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.931277139009225</v>
       </c>
     </row>
@@ -14235,15 +14290,15 @@
         <v>267</v>
       </c>
       <c r="F268">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3.7493441494375127E-2</v>
       </c>
       <c r="G268">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.740860772639885</v>
       </c>
       <c r="H268">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.851784042951628</v>
       </c>
     </row>
@@ -14252,15 +14307,15 @@
         <v>268</v>
       </c>
       <c r="F269">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-3.8880713356589616E-2</v>
       </c>
       <c r="G269">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.748722483558335</v>
       </c>
       <c r="H269">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.772299220209483</v>
       </c>
     </row>
@@ -14269,15 +14324,15 @@
         <v>269</v>
       </c>
       <c r="F270">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.0267835505930848E-2</v>
       </c>
       <c r="G270">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7566115407832603</v>
       </c>
       <c r="H270">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.692822975383116</v>
       </c>
     </row>
@@ -14286,15 +14341,15 @@
         <v>270</v>
       </c>
       <c r="F271">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.1654802629572038E-2</v>
       </c>
       <c r="G271">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7645280872460214</v>
       </c>
       <c r="H271">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.613355612875083</v>
       </c>
     </row>
@@ -14303,15 +14358,15 @@
         <v>271</v>
       </c>
       <c r="F272">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.3041609418259637E-2</v>
       </c>
       <c r="G272">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7724722668758002</v>
       </c>
       <c r="H272">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.533897436883187</v>
       </c>
     </row>
@@ -14320,15 +14375,15 @@
         <v>272</v>
       </c>
       <c r="F273">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.4428250566434395E-2</v>
       </c>
       <c r="G273">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7804442246083192</v>
       </c>
       <c r="H273">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.454448751393606</v>
       </c>
     </row>
@@ -14337,15 +14392,15 @@
         <v>273</v>
       </c>
       <c r="F274">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.5814720772352296E-2</v>
       </c>
       <c r="G274">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7884441063946621</v>
       </c>
       <c r="H274">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.375009860173861</v>
       </c>
     </row>
@@ -14354,15 +14409,15 @@
         <v>274</v>
       </c>
       <c r="F275">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.7201014738205177E-2</v>
       </c>
       <c r="G275">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.7964720592101733</v>
       </c>
       <c r="H275">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.295581066766047</v>
       </c>
     </row>
@@ -14371,15 +14426,15 @@
         <v>275</v>
       </c>
       <c r="F276">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.8587127170241273E-2</v>
       </c>
       <c r="G276">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8045282310634656</v>
       </c>
       <c r="H276">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.216162674479762</v>
       </c>
     </row>
@@ -14388,15 +14443,15 @@
         <v>276</v>
       </c>
       <c r="F277">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-4.9973052778885349E-2</v>
       </c>
       <c r="G277">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8126127710055111</v>
       </c>
       <c r="H277">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.136754986385363</v>
       </c>
     </row>
@@ -14405,15 +14460,15 @@
         <v>277</v>
       </c>
       <c r="F278">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.1358786278858731E-2</v>
       </c>
       <c r="G278">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8207258291388366</v>
       </c>
       <c r="H278">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>37.057358305306991</v>
       </c>
     </row>
@@ -14422,15 +14477,15 @@
         <v>278</v>
       </c>
       <c r="F279">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.2744322389299055E-2</v>
       </c>
       <c r="G279">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8288675566268124</v>
       </c>
       <c r="H279">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.977972933815792</v>
       </c>
     </row>
@@ -14439,15 +14494,15 @@
         <v>279</v>
       </c>
       <c r="F280">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.4129655833879693E-2</v>
       </c>
       <c r="G280">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8370381057030407</v>
       </c>
       <c r="H280">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.898599174222994</v>
       </c>
     </row>
@@ -14456,15 +14511,15 @@
         <v>280</v>
       </c>
       <c r="F281">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.5514781340929041E-2</v>
       </c>
       <c r="G281">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8452376296808426</v>
       </c>
       <c r="H281">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.819237328573152</v>
       </c>
     </row>
@@ -14473,15 +14528,15 @@
         <v>281</v>
       </c>
       <c r="F282">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.6899693643549416E-2</v>
       </c>
       <c r="G282">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8534662829628519</v>
       </c>
       <c r="H282">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.739887698637261</v>
       </c>
     </row>
@@ -14490,15 +14545,15 @@
         <v>282</v>
       </c>
       <c r="F283">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.8284387479735807E-2</v>
       </c>
       <c r="G283">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8617242210507015</v>
       </c>
       <c r="H283">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.660550585905995</v>
       </c>
     </row>
@@ -14507,15 +14562,15 @@
         <v>283</v>
       </c>
       <c r="F284">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-5.9668857592494205E-2</v>
       </c>
       <c r="G284">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8700116005548209</v>
       </c>
       <c r="H284">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.581226291582944</v>
       </c>
     </row>
@@ -14524,15 +14579,15 @@
         <v>284</v>
       </c>
       <c r="F285">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6.1053098729959787E-2</v>
       </c>
       <c r="G285">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8783285792043394</v>
       </c>
       <c r="H285">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.501915116577777</v>
       </c>
     </row>
@@ -14541,15 +14596,15 @@
         <v>285</v>
       </c>
       <c r="F286">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6.2437105645514711E-2</v>
       </c>
       <c r="G286">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.8866753158570884</v>
       </c>
       <c r="H286">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.422617361499562</v>
       </c>
     </row>
@@ -14558,15 +14613,15 @@
         <v>286</v>
       </c>
       <c r="F287">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6.3820873097905628E-2</v>
       </c>
       <c r="G287">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.895051970509718</v>
       </c>
       <c r="H287">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.34333332664999</v>
       </c>
     </row>
@@ -14575,15 +14630,15 @@
         <v>287</v>
       </c>
       <c r="F288">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6.5204395851360925E-2</v>
       </c>
       <c r="G288">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9034587043079205</v>
       </c>
       <c r="H288">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.264063312016681</v>
       </c>
     </row>
@@ -14592,15 +14647,15 @@
         <v>288</v>
       </c>
       <c r="F289">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6.6587668675707645E-2</v>
       </c>
       <c r="G289">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9118956795567623</v>
       </c>
       <c r="H289">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.184807617266479</v>
       </c>
     </row>
@@ -14609,15 +14664,15 @@
         <v>289</v>
       </c>
       <c r="F290">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6.7970686346488091E-2</v>
       </c>
       <c r="G290">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9203630597311321</v>
       </c>
       <c r="H290">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.105566541738746</v>
       </c>
     </row>
@@ -14626,15 +14681,15 @@
         <v>290</v>
       </c>
       <c r="F291">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-6.9353443645075979E-2</v>
       </c>
       <c r="G291">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9288610094862966</v>
       </c>
       <c r="H291">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>36.026340384438747</v>
       </c>
     </row>
@@ -14643,15 +14698,15 @@
         <v>291</v>
       </c>
       <c r="F292">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-7.0735935358792537E-2</v>
       </c>
       <c r="G292">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9373896946685738</v>
       </c>
       <c r="H292">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.947129444030978</v>
       </c>
     </row>
@@ -14660,15 +14715,15 @@
         <v>292</v>
       </c>
       <c r="F293">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-7.2118156281021958E-2</v>
       </c>
       <c r="G293">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9459492823261244</v>
       </c>
       <c r="H293">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.867934018832557</v>
       </c>
     </row>
@@ -14677,15 +14732,15 @@
         <v>293</v>
       </c>
       <c r="F294">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-7.3500101211326802E-2</v>
       </c>
       <c r="G294">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9545399407198549</v>
       </c>
       <c r="H294">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.788754406806582</v>
       </c>
     </row>
@@ -14694,15 +14749,15 @@
         <v>294</v>
       </c>
       <c r="F295">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-7.4881764955562716E-2</v>
       </c>
       <c r="G295">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9631618393344463</v>
       </c>
       <c r="H295">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.709590905555622</v>
       </c>
     </row>
@@ -14711,15 +14766,15 @@
         <v>295</v>
       </c>
       <c r="F296">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-7.6263142325993127E-2</v>
       </c>
       <c r="G296">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9718151488894962</v>
       </c>
       <c r="H296">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.630443812315086</v>
       </c>
     </row>
@@ -14728,15 +14783,15 @@
         <v>296</v>
       </c>
       <c r="F297">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-7.7644228141403399E-2</v>
       </c>
       <c r="G297">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9805000413507923</v>
       </c>
       <c r="H297">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.551313423946688</v>
       </c>
     </row>
@@ -14745,15 +14800,15 @@
         <v>297</v>
       </c>
       <c r="F298">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-7.9025017227214625E-2</v>
       </c>
       <c r="G298">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9892166899417001</v>
       </c>
       <c r="H298">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.472200036931973</v>
       </c>
     </row>
@@ -14762,15 +14817,15 @@
         <v>298</v>
       </c>
       <c r="F299">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8.0405504415597018E-2</v>
       </c>
       <c r="G299">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>2.9979652691546779</v>
       </c>
       <c r="H299">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.393103947365788</v>
       </c>
     </row>
@@ -14779,15 +14834,15 @@
         <v>299</v>
       </c>
       <c r="F300">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8.178568454558309E-2</v>
       </c>
       <c r="G300">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0067459547629269</v>
       </c>
       <c r="H300">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.314025450949764</v>
       </c>
     </row>
@@ -14796,15 +14851,15 @@
         <v>300</v>
       </c>
       <c r="F301">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8.316555246318022E-2</v>
       </c>
       <c r="G301">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0155589238321583</v>
       </c>
       <c r="H301">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.234964842985946</v>
       </c>
     </row>
@@ -14813,15 +14868,15 @@
         <v>301</v>
       </c>
       <c r="F302">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8.4545103021482992E-2</v>
       </c>
       <c r="G302">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0244043547324941</v>
       </c>
       <c r="H302">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.155922418370281</v>
       </c>
     </row>
@@ -14830,15 +14885,15 @@
         <v>302</v>
       </c>
       <c r="F303">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8.5924331080785094E-2</v>
       </c>
       <c r="G303">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0332824271505081</v>
       </c>
       <c r="H303">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>35.076898471586247</v>
       </c>
     </row>
@@ -14847,15 +14902,15 @@
         <v>303</v>
       </c>
       <c r="F304">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8.7303231508690723E-2</v>
       </c>
       <c r="G304">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0421933221013844</v>
       </c>
       <c r="H304">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.997893296698479</v>
       </c>
     </row>
@@ -14864,15 +14919,15 @@
         <v>304</v>
       </c>
       <c r="F305">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-8.8681799180225729E-2</v>
       </c>
       <c r="G305">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0511372219412274</v>
       </c>
       <c r="H305">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.918907187346342</v>
       </c>
     </row>
@@ -14881,15 +14936,15 @@
         <v>305</v>
       </c>
       <c r="F306">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-9.0060028977948209E-2</v>
       </c>
       <c r="G306">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0601143103794972</v>
       </c>
       <c r="H306">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.839940436737677</v>
       </c>
     </row>
@@ -14898,15 +14953,15 @@
         <v>306</v>
       </c>
       <c r="F307">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-9.1437915792058788E-2</v>
       </c>
       <c r="G307">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0691247724915875</v>
       </c>
       <c r="H307">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.760993337642411</v>
       </c>
     </row>
@@ -14915,15 +14970,15 @@
         <v>307</v>
       </c>
       <c r="F308">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-9.2815454520510376E-2</v>
       </c>
       <c r="G308">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0781687947315475</v>
       </c>
       <c r="H308">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.682066182386322</v>
       </c>
     </row>
@@ -14932,15 +14987,15 @@
         <v>308</v>
       </c>
       <c r="F309">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-9.4192640069117567E-2</v>
       </c>
       <c r="G309">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.0872465649449414</v>
       </c>
       <c r="H309">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.60315926284472</v>
       </c>
     </row>
@@ -14949,15 +15004,15 @@
         <v>309</v>
       </c>
       <c r="F310">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-9.5569467351665605E-2</v>
       </c>
       <c r="G310">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.096358272381853</v>
       </c>
       <c r="H310">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.524272870436249</v>
       </c>
     </row>
@@ -14966,15 +15021,15 @@
         <v>310</v>
       </c>
       <c r="F311">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-9.6945931290018744E-2</v>
       </c>
       <c r="G311">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.105504107710038</v>
       </c>
       <c r="H311">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.445407296116656</v>
       </c>
     </row>
@@ -14983,15 +15038,15 @@
         <v>311</v>
       </c>
       <c r="F312">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-9.8322026814228455E-2</v>
       </c>
       <c r="G312">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1146842630282245</v>
       </c>
       <c r="H312">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.366562830372601</v>
       </c>
     </row>
@@ -15000,15 +15055,15 @@
         <v>312</v>
       </c>
       <c r="F313">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-9.9697748862640864E-2</v>
       </c>
       <c r="G313">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1238989318795616</v>
       </c>
       <c r="H313">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.287739763215477</v>
       </c>
     </row>
@@ -15017,15 +15072,15 @@
         <v>313</v>
       </c>
       <c r="F314">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.10107309238200396</v>
       </c>
       <c r="G314">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1331483092652208</v>
       </c>
       <c r="H314">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.208938384175305</v>
       </c>
     </row>
@@ -15034,15 +15089,15 @@
         <v>314</v>
       </c>
       <c r="F315">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.10244805232757417</v>
       </c>
       <c r="G315">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1424325916581539</v>
       </c>
       <c r="H315">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.130158982294589</v>
       </c>
     </row>
@@ -15051,15 +15106,15 @@
         <v>315</v>
       </c>
       <c r="F316">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.10382262366322267</v>
       </c>
       <c r="G316">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1517519770170002</v>
       </c>
       <c r="H316">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>34.051401846122268</v>
       </c>
     </row>
@@ -15068,15 +15123,15 @@
         <v>316</v>
       </c>
       <c r="F317">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.10519680136154094</v>
       </c>
       <c r="G317">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1611066648001596</v>
       </c>
       <c r="H317">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.972667263707628</v>
       </c>
     </row>
@@ -15085,15 +15140,15 @@
         <v>317</v>
       </c>
       <c r="F318">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.10657058040394611</v>
       </c>
       <c r="G318">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1704968559800228</v>
       </c>
       <c r="H318">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.893955522594297</v>
       </c>
     </row>
@@ -15102,15 +15157,15 @@
         <v>318</v>
       </c>
       <c r="F319">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.1079439557807856</v>
       </c>
       <c r="G319">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1799227530573626</v>
       </c>
       <c r="H319">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.815266909814198</v>
       </c>
     </row>
@@ -15119,15 +15174,15 @@
         <v>319</v>
       </c>
       <c r="F320">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.1093169224914414</v>
       </c>
       <c r="G320">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1893845600758888</v>
       </c>
       <c r="H320">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.736601711881661</v>
       </c>
     </row>
@@ -15136,15 +15191,15 @@
         <v>320</v>
       </c>
       <c r="F321">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.11068947554443387</v>
       </c>
       <c r="G321">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.1988824826369755</v>
       </c>
       <c r="H321">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.657960214787401</v>
       </c>
     </row>
@@ -15153,15 +15208,15 @@
         <v>321</v>
       </c>
       <c r="F322">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.1120616099575249</v>
       </c>
       <c r="G322">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2084167279145483</v>
       </c>
       <c r="H322">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.579342703992623</v>
       </c>
     </row>
@@ -15170,15 +15225,15 @@
         <v>322</v>
       </c>
       <c r="F323">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>-0.11343332075782069</v>
       </c>
       <c r="G323">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2179875046701545</v>
       </c>
       <c r="H323">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.500749464423166</v>
       </c>
     </row>
@@ -15187,15 +15242,15 @@
         <v>323</v>
       </c>
       <c r="F324">
-        <f t="shared" ref="F324:F387" si="16">ATAN((($B$5-$E324)*TAN($D$3/2))/$B$5)</f>
+        <f t="shared" ref="F324:F387" si="17">ATAN((($B$5-$E324)*TAN($D$3/2))/$B$5)</f>
         <v>-0.11480460298187398</v>
       </c>
       <c r="G324">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>3.2275950232681945</v>
       </c>
       <c r="H324">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>33.422180780463592</v>
       </c>
     </row>
@@ -15204,15 +15259,15 @@
         <v>324</v>
       </c>
       <c r="F325">
+        <f t="shared" si="17"/>
+        <v>-0.11617545167578572</v>
+      </c>
+      <c r="G325">
+        <f t="shared" ref="G325:G388" si="18">$B$2/(TAN($D$4+$F325))</f>
+        <v>3.2372394956913353</v>
+      </c>
+      <c r="H325">
         <f t="shared" si="16"/>
-        <v>-0.11617545167578572</v>
-      </c>
-      <c r="G325">
-        <f t="shared" ref="G325:G388" si="17">$B$2/(TAN($D$4+$F325))</f>
-        <v>3.2372394956913353</v>
-      </c>
-      <c r="H325">
-        <f t="shared" si="15"/>
         <v>33.34363693595143</v>
       </c>
     </row>
@@ -15221,15 +15276,15 @@
         <v>325</v>
       </c>
       <c r="F326">
+        <f t="shared" si="17"/>
+        <v>-0.11754586189530626</v>
+      </c>
+      <c r="G326">
+        <f t="shared" si="18"/>
+        <v>3.246921135556105</v>
+      </c>
+      <c r="H326">
         <f t="shared" si="16"/>
-        <v>-0.11754586189530626</v>
-      </c>
-      <c r="G326">
-        <f t="shared" si="17"/>
-        <v>3.246921135556105</v>
-      </c>
-      <c r="H326">
-        <f t="shared" si="15"/>
         <v>33.265118214171309</v>
       </c>
     </row>
@@ -15238,15 +15293,15 @@
         <v>326</v>
       </c>
       <c r="F327">
+        <f t="shared" si="17"/>
+        <v>-0.11891582870593605</v>
+      </c>
+      <c r="G327">
+        <f t="shared" si="18"/>
+        <v>3.2566401581286621</v>
+      </c>
+      <c r="H327">
         <f t="shared" si="16"/>
-        <v>-0.11891582870593605</v>
-      </c>
-      <c r="G327">
-        <f t="shared" si="17"/>
-        <v>3.2566401581286621</v>
-      </c>
-      <c r="H327">
-        <f t="shared" si="15"/>
         <v>33.186624897849221</v>
       </c>
     </row>
@@ -15255,15 +15310,15 @@
         <v>327</v>
       </c>
       <c r="F328">
+        <f t="shared" si="17"/>
+        <v>-0.12028534718302568</v>
+      </c>
+      <c r="G328">
+        <f t="shared" si="18"/>
+        <v>3.2663967803407479</v>
+      </c>
+      <c r="H328">
         <f t="shared" si="16"/>
-        <v>-0.12028534718302568</v>
-      </c>
-      <c r="G328">
-        <f t="shared" si="17"/>
-        <v>3.2663967803407479</v>
-      </c>
-      <c r="H328">
-        <f t="shared" si="15"/>
         <v>33.108157269146801</v>
       </c>
     </row>
@@ -15272,15 +15327,15 @@
         <v>328</v>
       </c>
       <c r="F329">
+        <f t="shared" si="17"/>
+        <v>-0.12165441241187562</v>
+      </c>
+      <c r="G329">
+        <f t="shared" si="18"/>
+        <v>3.2761912208058321</v>
+      </c>
+      <c r="H329">
         <f t="shared" si="16"/>
-        <v>-0.12165441241187562</v>
-      </c>
-      <c r="G329">
-        <f t="shared" si="17"/>
-        <v>3.2761912208058321</v>
-      </c>
-      <c r="H329">
-        <f t="shared" si="15"/>
         <v>33.02971560965559</v>
       </c>
     </row>
@@ -15289,15 +15344,15 @@
         <v>329</v>
       </c>
       <c r="F330">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.12302301948783503</v>
       </c>
       <c r="G330">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.286023699835436</v>
       </c>
       <c r="H330">
-        <f t="shared" ref="H330:H393" si="18">DEGREES(ATAN($B$2/$G330))</f>
+        <f t="shared" ref="H330:H393" si="19">DEGREES(ATAN($B$2/$G330))</f>
         <v>32.951300200391373</v>
       </c>
     </row>
@@ -15306,15 +15361,15 @@
         <v>330</v>
       </c>
       <c r="F331">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.12439116351640052</v>
       </c>
       <c r="G331">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.2958944394556537</v>
       </c>
       <c r="H331">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.872911321788543</v>
       </c>
     </row>
@@ -15323,15 +15378,15 @@
         <v>331</v>
       </c>
       <c r="F332">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.12575883961331386</v>
       </c>
       <c r="G332">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3058036634238648</v>
       </c>
       <c r="H332">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.794549253694484</v>
       </c>
     </row>
@@ -15340,15 +15395,15 @@
         <v>332</v>
       </c>
       <c r="F333">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.12712604290465959</v>
       </c>
       <c r="G333">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3157515972456393</v>
       </c>
       <c r="H333">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.716214275363981</v>
       </c>
     </row>
@@ -15357,15 +15412,15 @@
         <v>333</v>
       </c>
       <c r="F334">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.12849276852696168</v>
       </c>
       <c r="G334">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3257384681918492</v>
       </c>
       <c r="H334">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.637906665453677</v>
       </c>
     </row>
@@ -15374,15 +15429,15 @@
         <v>334</v>
       </c>
       <c r="F335">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.12985901162728</v>
       </c>
       <c r="G335">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.335764505315971</v>
       </c>
       <c r="H335">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.559626702016573</v>
       </c>
     </row>
@@ -15391,15 +15446,15 @@
         <v>335</v>
       </c>
       <c r="F336">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.13122476736330574</v>
       </c>
       <c r="G336">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3458299394715993</v>
       </c>
       <c r="H336">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.481374662496513</v>
       </c>
     </row>
@@ -15408,15 +15463,15 @@
         <v>336</v>
       </c>
       <c r="F337">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.13259003090345675</v>
       </c>
       <c r="G337">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3559350033301683</v>
       </c>
       <c r="H337">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.403150823722768</v>
       </c>
     </row>
@@ -15425,15 +15480,15 @@
         <v>337</v>
       </c>
       <c r="F338">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.13395479742697217</v>
       </c>
       <c r="G338">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3660799313988741</v>
       </c>
       <c r="H338">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.324955461904594</v>
       </c>
     </row>
@@ -15442,15 +15497,15 @@
         <v>338</v>
       </c>
       <c r="F339">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.13531906212400618</v>
       </c>
       <c r="G339">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3762649600388213</v>
       </c>
       <c r="H339">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.246788852625848</v>
       </c>
     </row>
@@ -15459,15 +15514,15 @@
         <v>339</v>
       </c>
       <c r="F340">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.1366828201957215</v>
       </c>
       <c r="G340">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3864903274833762</v>
       </c>
       <c r="H340">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.168651270839661</v>
       </c>
     </row>
@@ -15476,15 +15531,15 @@
         <v>340</v>
       </c>
       <c r="F341">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.13804606685438223</v>
       </c>
       <c r="G341">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.3967562738567434</v>
       </c>
       <c r="H341">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.090542990863092</v>
       </c>
     </row>
@@ -15493,15 +15548,15 @@
         <v>341</v>
       </c>
       <c r="F342">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.13940879732344597</v>
       </c>
       <c r="G342">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4070630411927607</v>
       </c>
       <c r="H342">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>32.012464286371852</v>
       </c>
     </row>
@@ -15510,15 +15565,15 @@
         <v>342</v>
       </c>
       <c r="F343">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.14077100683765556</v>
       </c>
       <c r="G343">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4174108734539224</v>
       </c>
       <c r="H343">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.934415430395084</v>
       </c>
     </row>
@@ -15527,15 +15582,15 @@
         <v>343</v>
       </c>
       <c r="F344">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.14213269064312994</v>
       </c>
       <c r="G344">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4278000165506275</v>
       </c>
       <c r="H344">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.856396695310085</v>
       </c>
     </row>
@@ -15544,15 +15599,15 @@
         <v>344</v>
       </c>
       <c r="F345">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.14349384399745468</v>
       </c>
       <c r="G345">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4382307183606575</v>
       </c>
       <c r="H345">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.778408352837204</v>
       </c>
     </row>
@@ -15561,15 +15616,15 @@
         <v>345</v>
       </c>
       <c r="F346">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.14485446216977174</v>
       </c>
       <c r="G346">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4487032287488959</v>
       </c>
       <c r="H346">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.700450674034634</v>
       </c>
     </row>
@@ -15578,15 +15633,15 @@
         <v>346</v>
       </c>
       <c r="F347">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.14621454044086868</v>
       </c>
       <c r="G347">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4592177995872744</v>
       </c>
       <c r="H347">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.62252392929333</v>
       </c>
     </row>
@@ -15595,15 +15650,15 @@
         <v>347</v>
       </c>
       <c r="F348">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.14757407410326712</v>
       </c>
       <c r="G348">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4697746847749684</v>
       </c>
       <c r="H348">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.544628388331937</v>
       </c>
     </row>
@@ -15612,15 +15667,15 @@
         <v>348</v>
       </c>
       <c r="F349">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.14893305846131086</v>
       </c>
       <c r="G349">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4803741402588346</v>
       </c>
       <c r="H349">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.466764320191732</v>
       </c>
     </row>
@@ -15629,15 +15684,15 @@
         <v>349</v>
       </c>
       <c r="F350">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.15029148883125312</v>
       </c>
       <c r="G350">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.4910164240540928</v>
       </c>
       <c r="H350">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.388931993231648</v>
       </c>
     </row>
@@ -15646,15 +15701,15 @@
         <v>350</v>
       </c>
       <c r="F351">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.15164936054134334</v>
       </c>
       <c r="G351">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5017017962652672</v>
       </c>
       <c r="H351">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.311131675123264</v>
       </c>
     </row>
@@ -15663,15 +15718,15 @@
         <v>351</v>
       </c>
       <c r="F352">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.15300666893191311</v>
       </c>
       <c r="G352">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5124305191073701</v>
       </c>
       <c r="H352">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.233363632845926</v>
       </c>
     </row>
@@ -15680,15 +15735,15 @@
         <v>352</v>
       </c>
       <c r="F353">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.15436340935546169</v>
       </c>
       <c r="G353">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5232028569273575</v>
       </c>
       <c r="H353">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.155628132681798</v>
       </c>
     </row>
@@ -15697,15 +15752,15 @@
         <v>353</v>
       </c>
       <c r="F354">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.1557195771767409</v>
       </c>
       <c r="G354">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5340190762258366</v>
       </c>
       <c r="H354">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.077925440211047</v>
       </c>
     </row>
@@ -15714,15 +15769,15 @@
         <v>354</v>
       </c>
       <c r="F355">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.15707516777283917</v>
       </c>
       <c r="G355">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5448794456790433</v>
       </c>
       <c r="H355">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>31.000255820306993</v>
       </c>
     </row>
@@ -15731,15 +15786,15 @@
         <v>355</v>
       </c>
       <c r="F356">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.1584301765332651</v>
       </c>
       <c r="G356">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5557842361610916</v>
       </c>
       <c r="H356">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.922619537131332</v>
       </c>
     </row>
@@ -15748,15 +15803,15 @@
         <v>356</v>
       </c>
       <c r="F357">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.15978459886003041</v>
       </c>
       <c r="G357">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5667337207664915</v>
       </c>
       <c r="H357">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.845016854129394</v>
       </c>
     </row>
@@ -15765,15 +15820,15 @@
         <v>357</v>
       </c>
       <c r="F358">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.16113843016773213</v>
       </c>
       <c r="G358">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5777281748329472</v>
       </c>
       <c r="H358">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.767448034025406</v>
       </c>
     </row>
@@ -15782,15 +15837,15 @@
         <v>358</v>
       </c>
       <c r="F359">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.16249166588363417</v>
       </c>
       <c r="G359">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5887678759644386</v>
       </c>
       <c r="H359">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.689913338817856</v>
       </c>
     </row>
@@ -15799,15 +15854,15 @@
         <v>359</v>
       </c>
       <c r="F360">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.16384430144774831</v>
       </c>
       <c r="G360">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.5998531040545818</v>
       </c>
       <c r="H360">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.612413029774817</v>
       </c>
     </row>
@@ -15816,15 +15871,15 @@
         <v>360</v>
       </c>
       <c r="F361">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.16519633231291436</v>
       </c>
       <c r="G361">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.610984141310289</v>
       </c>
       <c r="H361">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.534947367429385</v>
       </c>
     </row>
@@ -15833,15 +15888,15 @@
         <v>361</v>
       </c>
       <c r="F362">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.16654775394488</v>
       </c>
       <c r="G362">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.6221612722757137</v>
       </c>
       <c r="H362">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.45751661157507</v>
       </c>
     </row>
@@ -15850,15 +15905,15 @@
         <v>362</v>
       </c>
       <c r="F363">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.16789856182237939</v>
       </c>
       <c r="G363">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.6333847838564965</v>
       </c>
       <c r="H363">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.380121021261328</v>
       </c>
     </row>
@@ -15867,15 +15922,15 @@
         <v>363</v>
       </c>
       <c r="F364">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.16924875143721183</v>
       </c>
       <c r="G364">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.6446549653443183</v>
       </c>
       <c r="H364">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.302760854789035</v>
       </c>
     </row>
@@ -15884,15 +15939,15 @@
         <v>364</v>
       </c>
       <c r="F365">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.1705983182943191</v>
       </c>
       <c r="G365">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.6559721084417487</v>
       </c>
       <c r="H365">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.225436369706056</v>
       </c>
     </row>
@@ -15901,15 +15956,15 @@
         <v>365</v>
       </c>
       <c r="F366">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.17194725791186263</v>
       </c>
       <c r="G366">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.6673365072874242</v>
       </c>
       <c r="H366">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.148147822802819</v>
       </c>
     </row>
@@ -15918,15 +15973,15 @@
         <v>366</v>
       </c>
       <c r="F367">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.17329556582129957</v>
       </c>
       <c r="G367">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.67874845848152</v>
       </c>
       <c r="H367">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>30.070895470107974</v>
       </c>
     </row>
@@ -15935,15 +15990,15 @@
         <v>367</v>
       </c>
       <c r="F368">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.1746432375674585</v>
       </c>
       <c r="G368">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.6902082611115601</v>
       </c>
       <c r="H368">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.993679566884044</v>
       </c>
     </row>
@@ -15952,15 +16007,15 @@
         <v>368</v>
       </c>
       <c r="F369">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.17599026870861442</v>
       </c>
       <c r="G369">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.701716216778546</v>
       </c>
       <c r="H369">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.916500367623115</v>
       </c>
     </row>
@@ -15969,15 +16024,15 @@
         <v>369</v>
       </c>
       <c r="F370">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.17733665481656291</v>
       </c>
       <c r="G370">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7132726296234142</v>
       </c>
       <c r="H370">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.839358126042622</v>
       </c>
     </row>
@@ -15986,15 +16041,15 @@
         <v>370</v>
       </c>
       <c r="F371">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.1786823914766936</v>
       </c>
       <c r="G371">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.724877806353831</v>
       </c>
       <c r="H371">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.7622530950811</v>
       </c>
     </row>
@@ -16003,15 +16058,15 @@
         <v>371</v>
       </c>
       <c r="F372">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.18002747428806329</v>
       </c>
       <c r="G372">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7365320562713267</v>
       </c>
       <c r="H372">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.685185526894028</v>
       </c>
     </row>
@@ -16020,15 +16075,15 @@
         <v>372</v>
       </c>
       <c r="F373">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.181371898863468</v>
       </c>
       <c r="G373">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7482356912987727</v>
       </c>
       <c r="H373">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.608155672849673</v>
       </c>
     </row>
@@ -16037,15 +16092,15 @@
         <v>373</v>
       </c>
       <c r="F374">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.18271566082951443</v>
       </c>
       <c r="G374">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7599890260082143</v>
       </c>
       <c r="H374">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.53116378352501</v>
       </c>
     </row>
@@ -16054,15 +16109,15 @@
         <v>374</v>
       </c>
       <c r="F375">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.1840587558266909</v>
       </c>
       <c r="G375">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7717923776490503</v>
       </c>
       <c r="H375">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.454210108701659</v>
       </c>
     </row>
@@ -16071,15 +16126,15 @@
         <v>375</v>
       </c>
       <c r="F376">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.18540117950943738</v>
       </c>
       <c r="G376">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7836460661765776</v>
       </c>
       <c r="H376">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.377294897361882</v>
       </c>
     </row>
@@ -16088,15 +16143,15 @@
         <v>376</v>
       </c>
       <c r="F377">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.18674292754621502</v>
       </c>
       <c r="G377">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.7955504142809118</v>
       </c>
       <c r="H377">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.300418397684556</v>
       </c>
     </row>
@@ -16105,15 +16160,15 @@
         <v>377</v>
       </c>
       <c r="F378">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.18808399561957476</v>
       </c>
       <c r="G378">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8075057474162555</v>
       </c>
       <c r="H378">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.223580857041302</v>
       </c>
     </row>
@@ -16122,15 +16177,15 @@
         <v>378</v>
       </c>
       <c r="F379">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.18942437942622539</v>
       </c>
       <c r="G379">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8195123938305642</v>
       </c>
       <c r="H379">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.146782521992542</v>
       </c>
     </row>
@@ -16139,15 +16194,15 @@
         <v>379</v>
       </c>
       <c r="F380">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.19076407467710099</v>
       </c>
       <c r="G380">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8315706845955919</v>
       </c>
       <c r="H380">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>29.070023638283651</v>
       </c>
     </row>
@@ -16156,15 +16211,15 @@
         <v>380</v>
       </c>
       <c r="F381">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.19210307709742752</v>
       </c>
       <c r="G381">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8436809536373153</v>
       </c>
       <c r="H381">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.993304450841134</v>
       </c>
     </row>
@@ -16173,15 +16228,15 @@
         <v>381</v>
       </c>
       <c r="F382">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.19344138242678866</v>
       </c>
       <c r="G382">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.855843537766761</v>
       </c>
       <c r="H382">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.916625203768877</v>
       </c>
     </row>
@@ -16190,15 +16245,15 @@
         <v>382</v>
       </c>
       <c r="F383">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.19477898641919114</v>
       </c>
       <c r="G383">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8680587767112322</v>
       </c>
       <c r="H383">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.839986140344369</v>
       </c>
     </row>
@@ -16207,15 +16262,15 @@
         <v>383</v>
       </c>
       <c r="F384">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.19611588484312931</v>
       </c>
       <c r="G384">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8803270131459398</v>
       </c>
       <c r="H384">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.763387503015014</v>
       </c>
     </row>
@@ -16224,15 +16279,15 @@
         <v>384</v>
       </c>
       <c r="F385">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.19745207348164881</v>
       </c>
       <c r="G385">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.8926485927260428</v>
       </c>
       <c r="H385">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.686829533394519</v>
       </c>
     </row>
@@ -16241,15 +16296,15 @@
         <v>385</v>
       </c>
       <c r="F386">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.19878754813240979</v>
       </c>
       <c r="G386">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.9050238641191184</v>
       </c>
       <c r="H386">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.610312472259206</v>
       </c>
     </row>
@@ -16258,15 +16313,15 @@
         <v>386</v>
       </c>
       <c r="F387">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-0.20012230460774927</v>
       </c>
       <c r="G387">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.9174531790380436</v>
       </c>
       <c r="H387">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.533836559544497</v>
       </c>
     </row>
@@ -16275,15 +16330,15 @@
         <v>387</v>
       </c>
       <c r="F388">
-        <f t="shared" ref="F388:F451" si="19">ATAN((($B$5-$E388)*TAN($D$3/2))/$B$5)</f>
+        <f t="shared" ref="F388:F451" si="20">ATAN((($B$5-$E388)*TAN($D$3/2))/$B$5)</f>
         <v>-0.20145633873474281</v>
       </c>
       <c r="G388">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.9299368922743212</v>
       </c>
       <c r="H388">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>28.457402034341349</v>
       </c>
     </row>
@@ -16292,15 +16347,15 @@
         <v>388</v>
       </c>
       <c r="F389">
+        <f t="shared" si="20"/>
+        <v>-0.20278964635526558</v>
+      </c>
+      <c r="G389">
+        <f t="shared" ref="G389:G452" si="21">$B$2/(TAN($D$4+$F389))</f>
+        <v>3.9424753617318347</v>
+      </c>
+      <c r="H389">
         <f t="shared" si="19"/>
-        <v>-0.20278964635526558</v>
-      </c>
-      <c r="G389">
-        <f t="shared" ref="G389:G452" si="20">$B$2/(TAN($D$4+$F389))</f>
-        <v>3.9424753617318347</v>
-      </c>
-      <c r="H389">
-        <f t="shared" si="18"/>
         <v>28.381009134892764</v>
       </c>
     </row>
@@ -16309,15 +16364,15 @@
         <v>389</v>
       </c>
       <c r="F390">
+        <f t="shared" si="20"/>
+        <v>-0.20412222332605257</v>
+      </c>
+      <c r="G390">
+        <f t="shared" si="21"/>
+        <v>3.9550689484610535</v>
+      </c>
+      <c r="H390">
         <f t="shared" si="19"/>
-        <v>-0.20412222332605257</v>
-      </c>
-      <c r="G390">
-        <f t="shared" si="20"/>
-        <v>3.9550689484610535</v>
-      </c>
-      <c r="H390">
-        <f t="shared" si="18"/>
         <v>28.304658098590341</v>
       </c>
     </row>
@@ -16326,15 +16381,15 @@
         <v>390</v>
       </c>
       <c r="F391">
+        <f t="shared" si="20"/>
+        <v>-0.20545406551875808</v>
+      </c>
+      <c r="G391">
+        <f t="shared" si="21"/>
+        <v>3.9677180166936896</v>
+      </c>
+      <c r="H391">
         <f t="shared" si="19"/>
-        <v>-0.20545406551875808</v>
-      </c>
-      <c r="G391">
-        <f t="shared" si="20"/>
-        <v>3.9677180166936896</v>
-      </c>
-      <c r="H391">
-        <f t="shared" si="18"/>
         <v>28.228349161970865</v>
       </c>
     </row>
@@ -16343,15 +16398,15 @@
         <v>391</v>
       </c>
       <c r="F392">
+        <f t="shared" si="20"/>
+        <v>-0.20678516882001466</v>
+      </c>
+      <c r="G392">
+        <f t="shared" si="21"/>
+        <v>3.9804229338778101</v>
+      </c>
+      <c r="H392">
         <f t="shared" si="19"/>
-        <v>-0.20678516882001466</v>
-      </c>
-      <c r="G392">
-        <f t="shared" si="20"/>
-        <v>3.9804229338778101</v>
-      </c>
-      <c r="H392">
-        <f t="shared" si="18"/>
         <v>28.152082560712934</v>
       </c>
     </row>
@@ -16360,15 +16415,15 @@
         <v>392</v>
       </c>
       <c r="F393">
+        <f t="shared" si="20"/>
+        <v>-0.20811552913149114</v>
+      </c>
+      <c r="G393">
+        <f t="shared" si="21"/>
+        <v>3.9931840707134225</v>
+      </c>
+      <c r="H393">
         <f t="shared" si="19"/>
-        <v>-0.20811552913149114</v>
-      </c>
-      <c r="G393">
-        <f t="shared" si="20"/>
-        <v>3.9931840707134225</v>
-      </c>
-      <c r="H393">
-        <f t="shared" si="18"/>
         <v>28.075858529633621</v>
       </c>
     </row>
@@ -16377,15 +16432,15 @@
         <v>393</v>
       </c>
       <c r="F394">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.20944514236995018</v>
       </c>
       <c r="G394">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.0060018011885266</v>
       </c>
       <c r="H394">
-        <f t="shared" ref="H394:H457" si="21">DEGREES(ATAN($B$2/$G394))</f>
+        <f t="shared" ref="H394:H457" si="22">DEGREES(ATAN($B$2/$G394))</f>
         <v>27.9996773026852</v>
       </c>
     </row>
@@ -16394,15 +16449,15 @@
         <v>394</v>
       </c>
       <c r="F395">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.21077400446730465</v>
       </c>
       <c r="G395">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.0188765026156474</v>
       </c>
       <c r="H395">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.923539112951882</v>
       </c>
     </row>
@@ -16411,15 +16466,15 @@
         <v>395</v>
       </c>
       <c r="F396">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.21210211137067406</v>
       </c>
       <c r="G396">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.0318085556688663</v>
       </c>
       <c r="H396">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.847444192646631</v>
       </c>
     </row>
@@ -16428,15 +16483,15 @@
         <v>396</v>
       </c>
       <c r="F397">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.21342945904243937</v>
       </c>
       <c r="G397">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.0447983444213325</v>
       </c>
       <c r="H397">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.771392773107959</v>
       </c>
     </row>
@@ -16445,15 +16500,15 @@
         <v>397</v>
       </c>
       <c r="F398">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.21475604346029781</v>
       </c>
       <c r="G398">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.0578462563832902</v>
       </c>
       <c r="H398">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.695385084796854</v>
       </c>
     </row>
@@ -16462,15 +16517,15 @@
         <v>398</v>
       </c>
       <c r="F399">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.21608186061731657</v>
       </c>
       <c r="G399">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.0709526825406135</v>
       </c>
       <c r="H399">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.619421357293643</v>
       </c>
     </row>
@@ -16479,15 +16534,15 @@
         <v>399</v>
       </c>
       <c r="F400">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.21740690652198585</v>
       </c>
       <c r="G400">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.084118017393858</v>
       </c>
       <c r="H400">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.543501819294999</v>
       </c>
     </row>
@@ -16496,15 +16551,15 @@
         <v>400</v>
       </c>
       <c r="F401">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.21873117719827145</v>
       </c>
       <c r="G401">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.0973426589978459</v>
       </c>
       <c r="H401">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.4676266986109</v>
       </c>
     </row>
@@ -16513,15 +16568,15 @@
         <v>401</v>
       </c>
       <c r="F402">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.22005466868566601</v>
       </c>
       <c r="G402">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.1106270090017816</v>
       </c>
       <c r="H402">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.391796222161702</v>
       </c>
     </row>
@@ -16530,15 +16585,15 @@
         <v>402</v>
       </c>
       <c r="F403">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.2213773770392404</v>
       </c>
       <c r="G403">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.1239714726899175</v>
       </c>
       <c r="H403">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.316010615975191</v>
       </c>
     </row>
@@ -16547,15 +16602,15 @@
         <v>403</v>
       </c>
       <c r="F404">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.22269929832969368</v>
       </c>
       <c r="G404">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.1373764590227671</v>
       </c>
       <c r="H404">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.240270105183725</v>
       </c>
     </row>
@@ -16564,15 +16619,15 @@
         <v>404</v>
       </c>
       <c r="F405">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.22402042864340252</v>
       </c>
       <c r="G405">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.1508423806788857</v>
       </c>
       <c r="H405">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.164574914021415</v>
       </c>
     </row>
@@ -16581,15 +16636,15 @@
         <v>405</v>
       </c>
       <c r="F406">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.22534076408247017</v>
       </c>
       <c r="G406">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.1643696540972153</v>
       </c>
       <c r="H406">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.088925265821288</v>
       </c>
     </row>
@@ -16598,15 +16653,15 @@
         <v>406</v>
       </c>
       <c r="F407">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.22666030076477431</v>
       </c>
       <c r="G407">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.1779586995200209</v>
       </c>
       <c r="H407">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>27.013321383012563</v>
       </c>
     </row>
@@ -16615,15 +16670,15 @@
         <v>407</v>
       </c>
       <c r="F408">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.22797903482401444</v>
       </c>
       <c r="G408">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.1916099410364023</v>
       </c>
       <c r="H408">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.937763487117952</v>
       </c>
     </row>
@@ -16632,15 +16687,15 @@
         <v>408</v>
       </c>
       <c r="F409">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.22929696240975858</v>
       </c>
       <c r="G409">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.2053238066264171</v>
       </c>
       <c r="H409">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.862251798750947</v>
       </c>
     </row>
@@ -16649,15 +16704,15 @@
         <v>409</v>
       </c>
       <c r="F410">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.2306140796874889</v>
       </c>
       <c r="G410">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.2191007282058033</v>
       </c>
       <c r="H410">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.786786537613239</v>
       </c>
     </row>
@@ -16666,15 +16721,15 @@
         <v>410</v>
       </c>
       <c r="F411">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.23193038283864709</v>
       </c>
       <c r="G411">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.2329411416713247</v>
       </c>
       <c r="H411">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.711367922492105</v>
       </c>
     </row>
@@ -16683,15 +16738,15 @@
         <v>411</v>
       </c>
       <c r="F412">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.23324586806067871</v>
       </c>
       <c r="G412">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.2468454869467465</v>
       </c>
       <c r="H412">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.635996171257865</v>
       </c>
     </row>
@@ -16700,15 +16755,15 @@
         <v>412</v>
       </c>
       <c r="F413">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.23456053156707682</v>
       </c>
       <c r="G413">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.2608142080294442</v>
       </c>
       <c r="H413">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.560671500861382</v>
       </c>
     </row>
@@ -16717,15 +16772,15 @@
         <v>413</v>
       </c>
       <c r="F414">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.23587436958742514</v>
       </c>
       <c r="G414">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.2748477530376654</v>
       </c>
       <c r="H414">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.485394127331595</v>
       </c>
     </row>
@@ -16734,15 +16789,15 @@
         <v>414</v>
       </c>
       <c r="F415">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.23718737836744019</v>
       </c>
       <c r="G415">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.2889465742584472</v>
       </c>
       <c r="H415">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.410164265773115</v>
       </c>
     </row>
@@ -16751,15 +16806,15 @@
         <v>415</v>
       </c>
       <c r="F416">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.23849955416901278</v>
       </c>
       <c r="G416">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.3031111281962104</v>
       </c>
       <c r="H416">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.334982130363809</v>
       </c>
     </row>
@@ -16768,15 +16823,15 @@
         <v>416</v>
       </c>
       <c r="F417">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.23981089327024901</v>
       </c>
       <c r="G417">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.317341875622029</v>
       </c>
       <c r="H417">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.259847934352496</v>
       </c>
     </row>
@@ -16785,15 +16840,15 @@
         <v>417</v>
       </c>
       <c r="F418">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.24112139196551013</v>
       </c>
       <c r="G418">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.3316392816235938</v>
       </c>
       <c r="H418">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.184761890056631</v>
       </c>
     </row>
@@ -16802,15 +16857,15 @@
         <v>418</v>
       </c>
       <c r="F419">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.2424310465654522</v>
       </c>
       <c r="G419">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.3460038156558802</v>
       </c>
       <c r="H419">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.109724208860055</v>
       </c>
     </row>
@@ -16819,15 +16874,15 @@
         <v>419</v>
       </c>
       <c r="F420">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.24373985339706453</v>
       </c>
       <c r="G420">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.3604359515925291</v>
       </c>
       <c r="H420">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>26.034735101210781</v>
       </c>
     </row>
@@ -16836,15 +16891,15 @@
         <v>420</v>
       </c>
       <c r="F421">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.2450478088037078</v>
       </c>
       <c r="G421">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.3749361677779648</v>
       </c>
       <c r="H421">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.9597947766188</v>
       </c>
     </row>
@@ -16853,15 +16908,15 @@
         <v>421</v>
       </c>
       <c r="F422">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.2463549091451511</v>
       </c>
       <c r="G422">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.3895049470802308</v>
       </c>
       <c r="H422">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.884903443653993</v>
       </c>
     </row>
@@ -16870,15 +16925,15 @@
         <v>422</v>
       </c>
       <c r="F423">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.24766115079760861</v>
       </c>
       <c r="G423">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.404142776944604</v>
       </c>
       <c r="H423">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.810061309943983</v>
       </c>
     </row>
@@ -16887,15 +16942,15 @@
         <v>423</v>
       </c>
       <c r="F424">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.24896653015377532</v>
       </c>
       <c r="G424">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.4188501494479517</v>
       </c>
       <c r="H424">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.735268582172125</v>
       </c>
     </row>
@@ -16904,15 +16959,15 @@
         <v>424</v>
       </c>
       <c r="F425">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.25027104362286212</v>
       </c>
       <c r="G425">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.4336275613538749</v>
       </c>
       <c r="H425">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.660525466075484</v>
       </c>
     </row>
@@ -16921,15 +16976,15 @@
         <v>425</v>
       </c>
       <c r="F426">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.25157468763063023</v>
       </c>
       <c r="G426">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.4484755141686403</v>
       </c>
       <c r="H426">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.585832166442852</v>
       </c>
     </row>
@@ -16938,15 +16993,15 @@
         <v>426</v>
       </c>
       <c r="F427">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.25287745861942468</v>
       </c>
       <c r="G427">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.4633945141979128</v>
       </c>
       <c r="H427">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.511188887112848</v>
       </c>
     </row>
@@ -16955,15 +17010,15 @@
         <v>427</v>
       </c>
       <c r="F428">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.25417935304820755</v>
       </c>
       <c r="G428">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.4783850726043068</v>
       </c>
       <c r="H428">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.436595830971992</v>
       </c>
     </row>
@@ -16972,15 +17027,15 @@
         <v>428</v>
       </c>
       <c r="F429">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.25548036739258995</v>
       </c>
       <c r="G429">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.4934477054657664</v>
       </c>
       <c r="H429">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.3620531999529</v>
       </c>
     </row>
@@ -16989,15 +17044,15 @@
         <v>429</v>
       </c>
       <c r="F430">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.25678049814486342</v>
       </c>
       <c r="G430">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5085829338347869</v>
       </c>
       <c r="H430">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.28756119503246</v>
       </c>
     </row>
@@ -17006,15 +17061,15 @@
         <v>430</v>
       </c>
       <c r="F431">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.25807974181403132</v>
       </c>
       <c r="G431">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5237912837985039</v>
       </c>
       <c r="H431">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.213120016230047</v>
       </c>
     </row>
@@ -17023,15 +17078,15 @@
         <v>431</v>
       </c>
       <c r="F432">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.2593780949258383</v>
       </c>
       <c r="G432">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5390732865396455</v>
       </c>
       <c r="H432">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.138729862605828</v>
       </c>
     </row>
@@ -17040,15 +17095,15 @@
         <v>432</v>
       </c>
       <c r="F433">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.26067555402280002</v>
       </c>
       <c r="G433">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5544294783983723</v>
       </c>
       <c r="H433">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>25.064390932259069</v>
       </c>
     </row>
@@ -17057,15 +17112,15 @@
         <v>433</v>
       </c>
       <c r="F434">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.2619721156642319</v>
       </c>
       <c r="G434">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5698604009350339</v>
       </c>
       <c r="H434">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.99010342232647</v>
       </c>
     </row>
@@ -17074,15 +17129,15 @@
         <v>434</v>
       </c>
       <c r="F435">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.26326777642627686</v>
       </c>
       <c r="G435">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.5853666009938223</v>
       </c>
       <c r="H435">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.915867528980584</v>
       </c>
     </row>
@@ -17091,15 +17146,15 @@
         <v>435</v>
       </c>
       <c r="F436">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.26456253290193277</v>
       </c>
       <c r="G436">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.6009486307673759</v>
       </c>
       <c r="H436">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.84168344742827</v>
       </c>
     </row>
@@ -17108,15 +17163,15 @@
         <v>436</v>
       </c>
       <c r="F437">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.26585638170107923</v>
       </c>
       <c r="G437">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.6166070478623338</v>
       </c>
       <c r="H437">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.767551371909107</v>
       </c>
     </row>
@@ -17125,15 +17180,15 @@
         <v>437</v>
       </c>
       <c r="F438">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.26714931945050296</v>
       </c>
       <c r="G438">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.632342415365839</v>
       </c>
       <c r="H438">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.693471495693984</v>
       </c>
     </row>
@@ -17142,15 +17197,15 @@
         <v>438</v>
       </c>
       <c r="F439">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.26844134279392345</v>
       </c>
       <c r="G439">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.6481553019130448</v>
       </c>
       <c r="H439">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.619444011083608</v>
       </c>
     </row>
@@ -17159,15 +17214,15 @@
         <v>439</v>
       </c>
       <c r="F440">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.26973244839201727</v>
       </c>
       <c r="G440">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.6640462817556116</v>
       </c>
       <c r="H440">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.545469109407126</v>
       </c>
     </row>
@@ -17176,15 +17231,15 @@
         <v>440</v>
       </c>
       <c r="F441">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.271022632922442</v>
       </c>
       <c r="G441">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.6800159348312276</v>
       </c>
       <c r="H441">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.471546981020712</v>
       </c>
     </row>
@@ -17193,15 +17248,15 @@
         <v>441</v>
       </c>
       <c r="F442">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.27231189307985904</v>
       </c>
       <c r="G442">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.6960648468341439</v>
       </c>
       <c r="H442">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.397677815306352</v>
       </c>
     </row>
@@ -17210,15 +17265,15 @@
         <v>442</v>
       </c>
       <c r="F443">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.27360022557595642</v>
       </c>
       <c r="G443">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.712193609286798</v>
       </c>
       <c r="H443">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.323861800670414</v>
       </c>
     </row>
@@ -17227,15 +17282,15 @@
         <v>443</v>
       </c>
       <c r="F444">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.27488762713947024</v>
       </c>
       <c r="G444">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7284028196124739</v>
       </c>
       <c r="H444">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.25009912454253</v>
       </c>
     </row>
@@ -17244,15 +17299,15 @@
         <v>444</v>
       </c>
       <c r="F445">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.27617409451620578</v>
       </c>
       <c r="G445">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7446930812090748</v>
       </c>
       <c r="H445">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.176389973374313</v>
       </c>
     </row>
@@ -17261,15 +17316,15 @@
         <v>445</v>
       </c>
       <c r="F446">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.27745962446905809</v>
       </c>
       <c r="G446">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7610650035239983</v>
       </c>
       <c r="H446">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.102734532638227</v>
       </c>
     </row>
@@ -17278,15 +17333,15 @@
         <v>446</v>
       </c>
       <c r="F447">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.27874421377803121</v>
       </c>
       <c r="G447">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7775192021301347</v>
       </c>
       <c r="H447">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>24.02913298682644</v>
       </c>
     </row>
@@ -17295,15 +17350,15 @@
         <v>447</v>
       </c>
       <c r="F448">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.28002785924025758</v>
       </c>
       <c r="G448">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.7940562988030235</v>
       </c>
       <c r="H448">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23.955585519449748</v>
       </c>
     </row>
@@ -17312,15 +17367,15 @@
         <v>448</v>
       </c>
       <c r="F449">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.28131055767001611</v>
       </c>
       <c r="G449">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.8106769215991756</v>
       </c>
       <c r="H449">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23.882092313036527</v>
       </c>
     </row>
@@ -17329,15 +17384,15 @@
         <v>449</v>
       </c>
       <c r="F450">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.28259230589875001</v>
       </c>
       <c r="G450">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.8273817049355809</v>
       </c>
       <c r="H450">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23.808653549131705</v>
       </c>
     </row>
@@ -17346,15 +17401,15 @@
         <v>450</v>
       </c>
       <c r="F451">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-0.28387310077508338</v>
       </c>
       <c r="G451">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.8441712896704301</v>
       </c>
       <c r="H451">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23.735269408295824</v>
       </c>
     </row>
@@ -17363,15 +17418,15 @@
         <v>451</v>
       </c>
       <c r="F452">
-        <f t="shared" ref="F452:F481" si="22">ATAN((($B$5-$E452)*TAN($D$3/2))/$B$5)</f>
+        <f t="shared" ref="F452:F481" si="23">ATAN((($B$5-$E452)*TAN($D$3/2))/$B$5)</f>
         <v>-0.28515293916483808</v>
       </c>
       <c r="G452">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>4.8610463231850769</v>
       </c>
       <c r="H452">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>23.661940070104059</v>
       </c>
     </row>
@@ -17380,15 +17435,15 @@
         <v>452</v>
       </c>
       <c r="F453">
+        <f t="shared" si="23"/>
+        <v>-0.28643181795104872</v>
+      </c>
+      <c r="G453">
+        <f t="shared" ref="G453:G481" si="24">$B$2/(TAN($D$4+$F453))</f>
+        <v>4.878007459467236</v>
+      </c>
+      <c r="H453">
         <f t="shared" si="22"/>
-        <v>-0.28643181795104872</v>
-      </c>
-      <c r="G453">
-        <f t="shared" ref="G453:G481" si="23">$B$2/(TAN($D$4+$F453))</f>
-        <v>4.878007459467236</v>
-      </c>
-      <c r="H453">
-        <f t="shared" si="21"/>
         <v>23.588665713145378</v>
       </c>
     </row>
@@ -17397,15 +17452,15 @@
         <v>453</v>
       </c>
       <c r="F454">
+        <f t="shared" si="23"/>
+        <v>-0.28770973403397798</v>
+      </c>
+      <c r="G454">
+        <f t="shared" si="24"/>
+        <v>4.8950553591954735</v>
+      </c>
+      <c r="H454">
         <f t="shared" si="22"/>
-        <v>-0.28770973403397798</v>
-      </c>
-      <c r="G454">
-        <f t="shared" si="23"/>
-        <v>4.8950553591954735</v>
-      </c>
-      <c r="H454">
-        <f t="shared" si="21"/>
         <v>23.51544651502164</v>
       </c>
     </row>
@@ -17414,15 +17469,15 @@
         <v>454</v>
       </c>
       <c r="F455">
+        <f t="shared" si="23"/>
+        <v>-0.28898668433113084</v>
+      </c>
+      <c r="G455">
+        <f t="shared" si="24"/>
+        <v>4.9121906898249996</v>
+      </c>
+      <c r="H455">
         <f t="shared" si="22"/>
-        <v>-0.28898668433113084</v>
-      </c>
-      <c r="G455">
-        <f t="shared" si="23"/>
-        <v>4.9121906898249996</v>
-      </c>
-      <c r="H455">
-        <f t="shared" si="21"/>
         <v>23.442282652346801</v>
       </c>
     </row>
@@ -17431,15 +17486,15 @@
         <v>455</v>
       </c>
       <c r="F456">
+        <f t="shared" si="23"/>
+        <v>-0.29026266577726817</v>
+      </c>
+      <c r="G456">
+        <f t="shared" si="24"/>
+        <v>4.9294141256747661</v>
+      </c>
+      <c r="H456">
         <f t="shared" si="22"/>
-        <v>-0.29026266577726817</v>
-      </c>
-      <c r="G456">
-        <f t="shared" si="23"/>
-        <v>4.9294141256747661</v>
-      </c>
-      <c r="H456">
-        <f t="shared" si="21"/>
         <v>23.369174300746135</v>
       </c>
     </row>
@@ -17448,15 +17503,15 @@
         <v>456</v>
       </c>
       <c r="F457">
+        <f t="shared" si="23"/>
+        <v>-0.2915376753244196</v>
+      </c>
+      <c r="G457">
+        <f t="shared" si="24"/>
+        <v>4.9467263480159307</v>
+      </c>
+      <c r="H457">
         <f t="shared" si="22"/>
-        <v>-0.2915376753244196</v>
-      </c>
-      <c r="G457">
-        <f t="shared" si="23"/>
-        <v>4.9467263480159307</v>
-      </c>
-      <c r="H457">
-        <f t="shared" si="21"/>
         <v>23.296121634855471</v>
       </c>
     </row>
@@ -17465,15 +17520,15 @@
         <v>457</v>
       </c>
       <c r="F458">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.29281170994189581</v>
       </c>
       <c r="G458">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.9641280451616794</v>
       </c>
       <c r="H458">
-        <f t="shared" ref="H458:H481" si="24">DEGREES(ATAN($B$2/$G458))</f>
+        <f t="shared" ref="H458:H481" si="25">DEGREES(ATAN($B$2/$G458))</f>
         <v>23.223124828320522</v>
       </c>
     </row>
@@ -17482,15 +17537,15 @@
         <v>458</v>
       </c>
       <c r="F459">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.29408476661630023</v>
       </c>
       <c r="G459">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.9816199125584575</v>
       </c>
       <c r="H459">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23.150184053796188</v>
       </c>
     </row>
@@ -17499,15 +17554,15 @@
         <v>459</v>
       </c>
       <c r="F460">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.29535684235154025</v>
       </c>
       <c r="G460">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4.9992026528786093</v>
       </c>
       <c r="H460">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23.077299482945936</v>
       </c>
     </row>
@@ -17516,15 +17571,15 @@
         <v>460</v>
       </c>
       <c r="F461">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.29662793416883687</v>
       </c>
       <c r="G461">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.0168769761144727</v>
       </c>
       <c r="H461">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>23.004471286441223</v>
       </c>
     </row>
@@ -17533,15 +17588,15 @@
         <v>461</v>
       </c>
       <c r="F462">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.29789803910673512</v>
       </c>
       <c r="G462">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.0346435996739505</v>
       </c>
       <c r="H462">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.931699633960928</v>
       </c>
     </row>
@@ -17550,15 +17605,15 @@
         <v>462</v>
       </c>
       <c r="F463">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.29916715422111262</v>
       </c>
       <c r="G463">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.0525032484775725</v>
       </c>
       <c r="H463">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.858984694190834</v>
       </c>
     </row>
@@ -17567,15 +17622,15 @@
         <v>463</v>
       </c>
       <c r="F464">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.30043527658518809</v>
       </c>
       <c r="G464">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.070456655057102</v>
       </c>
       <c r="H464">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.786326634823158</v>
       </c>
     </row>
@@ -17584,15 +17639,15 @@
         <v>464</v>
       </c>
       <c r="F465">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.30170240328952902</v>
       </c>
       <c r="G465">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.0885045596556822</v>
       </c>
       <c r="H465">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.713725622556098</v>
       </c>
     </row>
@@ -17601,15 +17656,15 @@
         <v>465</v>
       </c>
       <c r="F466">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.30296853144205904</v>
       </c>
       <c r="G466">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.1066477103295815</v>
       </c>
       <c r="H466">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.641181823093437</v>
       </c>
     </row>
@@ -17618,15 +17673,15 @@
         <v>466</v>
       </c>
       <c r="F467">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.30423365816806386</v>
       </c>
       <c r="G467">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.1248868630515458</v>
       </c>
       <c r="H467">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.568695401144151</v>
       </c>
     </row>
@@ -17635,15 +17690,15 @@
         <v>467</v>
       </c>
       <c r="F468">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.30549778061019772</v>
       </c>
       <c r="G468">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.1432227818158038</v>
       </c>
       <c r="H468">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.496266520422115</v>
       </c>
     </row>
@@ -17652,15 +17707,15 @@
         <v>468</v>
       </c>
       <c r="F469">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.30676089592848793</v>
       </c>
       <c r="G469">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.1616562387447322</v>
       </c>
       <c r="H469">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.423895343645761</v>
       </c>
     </row>
@@ -17669,15 +17724,15 @@
         <v>469</v>
       </c>
       <c r="F470">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.30802300130033994</v>
       </c>
       <c r="G470">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.1801880141972534</v>
       </c>
       <c r="H470">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.351582032537852</v>
       </c>
     </row>
@@ -17686,15 +17741,15 @@
         <v>470</v>
       </c>
       <c r="F471">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.30928409392054107</v>
       </c>
       <c r="G471">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.1988188968789446</v>
       </c>
       <c r="H471">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.279326747825234</v>
       </c>
     </row>
@@ -17703,15 +17758,15 @@
         <v>471</v>
       </c>
       <c r="F472">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.31054417100126369</v>
       </c>
       <c r="G472">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.2175496839539353</v>
       </c>
       <c r="H472">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.207129649238663</v>
       </c>
     </row>
@@ -17720,15 +17775,15 @@
         <v>472</v>
       </c>
       <c r="F473">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.31180322977206815</v>
       </c>
       <c r="G473">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.2363811811586087</v>
       </c>
       <c r="H473">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.134990895512637</v>
       </c>
     </row>
@@ -17737,15 +17792,15 @@
         <v>473</v>
       </c>
       <c r="F474">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.31306126747990476</v>
       </c>
       <c r="G474">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.2553142029171358</v>
       </c>
       <c r="H474">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>22.062910644385287</v>
       </c>
     </row>
@@ -17754,15 +17809,15 @@
         <v>474</v>
       </c>
       <c r="F475">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.31431828138911505</v>
       </c>
       <c r="G475">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.2743495724588811</v>
       </c>
       <c r="H475">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>21.990889052598295</v>
       </c>
     </row>
@@ -17771,15 +17826,15 @@
         <v>475</v>
       </c>
       <c r="F476">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.31557426878143297</v>
       </c>
       <c r="G476">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.2934881219377354</v>
       </c>
       <c r="H476">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>21.918926275896837</v>
       </c>
     </row>
@@ -17788,15 +17843,15 @@
         <v>476</v>
       </c>
       <c r="F477">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.31682922695598481</v>
       </c>
       <c r="G477">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.3127306925533686</v>
       </c>
       <c r="H477">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>21.847022469029575</v>
       </c>
     </row>
@@ -17805,15 +17860,15 @@
         <v>477</v>
       </c>
       <c r="F478">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.31808315322928887</v>
       </c>
       <c r="G478">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.3320781346744832</v>
       </c>
       <c r="H478">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>21.775177785748685</v>
       </c>
     </row>
@@ -17822,15 +17877,15 @@
         <v>478</v>
       </c>
       <c r="F479">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.31933604493525464</v>
       </c>
       <c r="G479">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.3515313079640849</v>
       </c>
       <c r="H479">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>21.703392378809902</v>
       </c>
     </row>
@@ -17839,15 +17894,15 @@
         <v>479</v>
       </c>
       <c r="F480">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.32058789942518107</v>
       </c>
       <c r="G480">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.3710910815068065</v>
       </c>
       <c r="H480">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>21.631666399972616</v>
       </c>
     </row>
@@ -17856,15 +17911,15 @@
         <v>480</v>
       </c>
       <c r="F481">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>-0.32183871406775438</v>
       </c>
       <c r="G481">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5.3907583339383383</v>
       </c>
       <c r="H481">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>21.56</v>
       </c>
     </row>

--- a/dev/4039.Stronghold.2016.Shooter.xlsx
+++ b/dev/4039.Stronghold.2016.Shooter.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="120" yWindow="120" windowWidth="28140" windowHeight="15460" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="SHOOTER" sheetId="1" r:id="rId1"/>
+    <sheet name="STATE MACHINE" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
@@ -278,7 +278,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>SHOOTER!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -306,7 +306,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$481</c:f>
+              <c:f>SHOOTER!$F$2:$F$481</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="480"/>
@@ -1755,7 +1755,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$481</c:f>
+              <c:f>SHOOTER!$I$2:$I$481</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="480"/>
@@ -3343,7 +3343,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$1</c:f>
+              <c:f>SHOOTER!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3357,7 +3357,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$481</c:f>
+              <c:f>SHOOTER!$H$2:$H$481</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="480"/>
@@ -4806,7 +4806,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$2:$I$481</c:f>
+              <c:f>SHOOTER!$I$2:$I$481</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="480"/>
@@ -6387,7 +6387,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$1</c:f>
+              <c:f>SHOOTER!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6401,7 +6401,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$481</c:f>
+              <c:f>SHOOTER!$F$2:$F$481</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="480"/>
@@ -7850,7 +7850,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$2:$H$481</c:f>
+              <c:f>SHOOTER!$H$2:$H$481</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="480"/>
@@ -9498,6 +9498,56 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>58420</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>35560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="Straight Connector 43"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="1"/>
+          <a:endCxn id="16" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2247900" y="3591560"/>
+          <a:ext cx="1798320" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle" w="lg"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -9960,14 +10010,14 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>292100</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>71120</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9976,7 +10026,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2260600" y="3060700"/>
+          <a:off x="2260600" y="2984500"/>
           <a:ext cx="1798320" cy="266700"/>
           <a:chOff x="2247900" y="3454400"/>
           <a:chExt cx="1798320" cy="266700"/>
@@ -10035,9 +10085,7 @@
           </a:solidFill>
           <a:ln w="9525" cmpd="sng">
             <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
+              <a:srgbClr val="1F497D"/>
             </a:solidFill>
           </a:ln>
         </xdr:spPr>
@@ -10072,117 +10120,65 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>58420</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="43" name="Group 42"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="TextBox 39"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="2247900" y="3848100"/>
-          <a:ext cx="1798320" cy="266700"/>
-          <a:chOff x="2247900" y="3467100"/>
-          <a:chExt cx="1798320" cy="266700"/>
+          <a:off x="2654300" y="3441700"/>
+          <a:ext cx="1054100" cy="266700"/>
         </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="39" name="Straight Connector 38"/>
-          <xdr:cNvCxnSpPr>
-            <a:stCxn id="16" idx="3"/>
-            <a:endCxn id="24" idx="1"/>
-          </xdr:cNvCxnSpPr>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2247900" y="3591560"/>
-            <a:ext cx="1798320" cy="0"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln>
-            <a:headEnd type="triangle"/>
-            <a:tailEnd type="none" w="lg"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="40" name="TextBox 39"/>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="2641600" y="3467100"/>
-            <a:ext cx="1054100" cy="266700"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
           <a:solidFill>
-            <a:schemeClr val="lt1"/>
+            <a:schemeClr val="tx2"/>
           </a:solidFill>
-          <a:ln w="9525" cmpd="sng">
-            <a:solidFill>
-              <a:schemeClr val="lt1">
-                <a:shade val="50000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="dk1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr lang="en-US" sz="1100"/>
-              <a:t>GP_DOWN</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>GP_DOWN</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -10478,7 +10474,7 @@
   <dimension ref="A1:M481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -22592,7 +22588,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/dev/4039.Stronghold.2016.Shooter.xlsx
+++ b/dev/4039.Stronghold.2016.Shooter.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="SHOOTER" sheetId="1" r:id="rId1"/>
     <sheet name="STATE MACHINE" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AIMING ANGLE" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Target Pos (pixels)</t>
   </si>
@@ -77,17 +78,32 @@
     <t>trim</t>
   </si>
   <si>
-    <t>10,4</t>
+    <t>PIXEL</t>
   </si>
   <si>
-    <t>9,2</t>
+    <t>HFOV</t>
+  </si>
+  <si>
+    <t>DFOV</t>
+  </si>
+  <si>
+    <t>angle</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>HFOV/2</t>
+  </si>
+  <si>
+    <t>VFOV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,6 +122,22 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -213,9 +245,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -231,9 +271,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="10">
+    <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -3225,11 +3273,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2079894088"/>
-        <c:axId val="2106909688"/>
+        <c:axId val="2030056280"/>
+        <c:axId val="2030068248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2079894088"/>
+        <c:axId val="2030056280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="480.0"/>
@@ -3260,12 +3308,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106909688"/>
+        <c:crossAx val="2030068248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2106909688"/>
+        <c:axId val="2030068248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3295,7 +3343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079894088"/>
+        <c:crossAx val="2030056280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6276,11 +6324,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2080017928"/>
-        <c:axId val="2080023352"/>
+        <c:axId val="2122540728"/>
+        <c:axId val="2122727256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2080017928"/>
+        <c:axId val="2122540728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6309,12 +6357,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080023352"/>
+        <c:crossAx val="2122727256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2080023352"/>
+        <c:axId val="2122727256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6344,7 +6392,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080017928"/>
+        <c:crossAx val="2122540728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9320,11 +9368,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2080050488"/>
-        <c:axId val="2080055928"/>
+        <c:axId val="2030059144"/>
+        <c:axId val="2122718760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2080050488"/>
+        <c:axId val="2030059144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="480.0"/>
@@ -9355,12 +9403,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080055928"/>
+        <c:crossAx val="2122718760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2080055928"/>
+        <c:axId val="2122718760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -9391,7 +9439,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080050488"/>
+        <c:crossAx val="2030059144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10488,7 +10536,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22624,8 +22672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -22639,16 +22687,16 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="13" t="s">
-        <v>18</v>
+      <c r="A2" s="13">
+        <v>124</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>19</v>
+      <c r="A3">
+        <v>110</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -22687,4 +22735,6189 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D681"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <v>68.5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <f>DEGREES(2*ATAN(4.5/(0.5*SQRT(9^2+16^2))*TAN(RADIANS(B1/2))))</f>
+        <v>36.918740726635072</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <f>DEGREES(ATAN((C2-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>-18.408742904316139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>340</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D66" si="0">DEGREES(ATAN((C3-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>-18.35808564977577</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4">
+        <v>51.5</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>-18.307398652652548</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <f>RADIANS(B2/2)</f>
+        <v>0.32217679068495292</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>-18.256681966151024</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="B6">
+        <f>RADIANS(B4/2)</f>
+        <v>0.44942228238853987</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>-18.205935643724182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-18.155159739073493</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-18.104354306148903</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-18.053519399148875</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-18.002655072520373</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-17.951761380958896</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-17.900838379408469</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-17.84988612306163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-17.798904667359444</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-17.747894067991474</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-17.696854380895779</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-17.645785662258895</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>-17.594687968515792</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>-17.543561356349873</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>-17.492405882692914</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>-17.441221604725062</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>-17.390008579874749</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>-17.338766865818688</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4">
+      <c r="C24">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>-17.287496520481788</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>-17.236197602037127</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4">
+      <c r="C26">
+        <v>25</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>-17.184870168905874</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4">
+      <c r="C27">
+        <v>26</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>-17.133514279757232</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4">
+      <c r="C28">
+        <v>27</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>-17.082129993508367</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4">
+      <c r="C29">
+        <v>28</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>-17.030717369324339</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4">
+      <c r="C30">
+        <v>29</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>-16.979276466618018</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4">
+      <c r="C31">
+        <v>30</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>-16.927807345049999</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32">
+        <v>31</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>-16.876310064528539</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>-16.824784685209426</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="C34">
+        <v>33</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>-16.773231267495923</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="C35">
+        <v>34</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>-16.721649872038629</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="C36">
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>-16.670040559735408</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="C37">
+        <v>36</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>-16.618403391731253</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="C38">
+        <v>37</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>-16.566738429418194</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="C39">
+        <v>38</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>-16.515045734435144</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="C40">
+        <v>39</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>-16.463325368667821</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="C41">
+        <v>40</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>-16.411577394248582</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="C42">
+        <v>41</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>-16.3598018735563</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="C43">
+        <v>42</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>-16.307998869216235</v>
+      </c>
+    </row>
+    <row r="44" spans="3:4">
+      <c r="C44">
+        <v>43</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>-16.256168444099885</v>
+      </c>
+    </row>
+    <row r="45" spans="3:4">
+      <c r="C45">
+        <v>44</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>-16.204310661324826</v>
+      </c>
+    </row>
+    <row r="46" spans="3:4">
+      <c r="C46">
+        <v>45</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>-16.152425584254573</v>
+      </c>
+    </row>
+    <row r="47" spans="3:4">
+      <c r="C47">
+        <v>46</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>-16.100513276498436</v>
+      </c>
+    </row>
+    <row r="48" spans="3:4">
+      <c r="C48">
+        <v>47</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>-16.048573801911314</v>
+      </c>
+    </row>
+    <row r="49" spans="3:4">
+      <c r="C49">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>-15.996607224593571</v>
+      </c>
+    </row>
+    <row r="50" spans="3:4">
+      <c r="C50">
+        <v>49</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>-15.944613608890856</v>
+      </c>
+    </row>
+    <row r="51" spans="3:4">
+      <c r="C51">
+        <v>50</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>-15.8925930193939</v>
+      </c>
+    </row>
+    <row r="52" spans="3:4">
+      <c r="C52">
+        <v>51</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>-15.840545520938369</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53">
+        <v>52</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>-15.788471178604647</v>
+      </c>
+    </row>
+    <row r="54" spans="3:4">
+      <c r="C54">
+        <v>53</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>-15.736370057717673</v>
+      </c>
+    </row>
+    <row r="55" spans="3:4">
+      <c r="C55">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>-15.684242223846729</v>
+      </c>
+    </row>
+    <row r="56" spans="3:4">
+      <c r="C56">
+        <v>55</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>-15.632087742805234</v>
+      </c>
+    </row>
+    <row r="57" spans="3:4">
+      <c r="C57">
+        <v>56</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>-15.579906680650554</v>
+      </c>
+    </row>
+    <row r="58" spans="3:4">
+      <c r="C58">
+        <v>57</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>-15.527699103683778</v>
+      </c>
+    </row>
+    <row r="59" spans="3:4">
+      <c r="C59">
+        <v>58</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>-15.475465078449512</v>
+      </c>
+    </row>
+    <row r="60" spans="3:4">
+      <c r="C60">
+        <v>59</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>-15.423204671735654</v>
+      </c>
+    </row>
+    <row r="61" spans="3:4">
+      <c r="C61">
+        <v>60</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>-15.370917950573158</v>
+      </c>
+    </row>
+    <row r="62" spans="3:4">
+      <c r="C62">
+        <v>61</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>-15.318604982235833</v>
+      </c>
+    </row>
+    <row r="63" spans="3:4">
+      <c r="C63">
+        <v>62</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>-15.266265834240066</v>
+      </c>
+    </row>
+    <row r="64" spans="3:4">
+      <c r="C64">
+        <v>63</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>-15.213900574344628</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4">
+      <c r="C65">
+        <v>64</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>-15.161509270550393</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4">
+      <c r="C66">
+        <v>65</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>-15.109091991100094</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4">
+      <c r="C67">
+        <v>66</v>
+      </c>
+      <c r="D67">
+        <f t="shared" ref="D67:D130" si="1">DEGREES(ATAN((C67-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>-15.056648804478094</v>
+      </c>
+    </row>
+    <row r="68" spans="3:4">
+      <c r="C68">
+        <v>67</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>-15.004179779410084</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4">
+      <c r="C69">
+        <v>68</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>-14.951684984862858</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4">
+      <c r="C70">
+        <v>69</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>-14.899164490044011</v>
+      </c>
+    </row>
+    <row r="71" spans="3:4">
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>-14.846618364401685</v>
+      </c>
+    </row>
+    <row r="72" spans="3:4">
+      <c r="C72">
+        <v>71</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>-14.794046677624282</v>
+      </c>
+    </row>
+    <row r="73" spans="3:4">
+      <c r="C73">
+        <v>72</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>-14.741449499640179</v>
+      </c>
+    </row>
+    <row r="74" spans="3:4">
+      <c r="C74">
+        <v>73</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>-14.688826900617432</v>
+      </c>
+    </row>
+    <row r="75" spans="3:4">
+      <c r="C75">
+        <v>74</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>-14.636178950963494</v>
+      </c>
+    </row>
+    <row r="76" spans="3:4">
+      <c r="C76">
+        <v>75</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="1"/>
+        <v>-14.583505721324899</v>
+      </c>
+    </row>
+    <row r="77" spans="3:4">
+      <c r="C77">
+        <v>76</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="1"/>
+        <v>-14.530807282586972</v>
+      </c>
+    </row>
+    <row r="78" spans="3:4">
+      <c r="C78">
+        <v>77</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="1"/>
+        <v>-14.478083705873511</v>
+      </c>
+    </row>
+    <row r="79" spans="3:4">
+      <c r="C79">
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="1"/>
+        <v>-14.425335062546468</v>
+      </c>
+    </row>
+    <row r="80" spans="3:4">
+      <c r="C80">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="1"/>
+        <v>-14.372561424205633</v>
+      </c>
+    </row>
+    <row r="81" spans="3:4">
+      <c r="C81">
+        <v>80</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="1"/>
+        <v>-14.319762862688311</v>
+      </c>
+    </row>
+    <row r="82" spans="3:4">
+      <c r="C82">
+        <v>81</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="1"/>
+        <v>-14.266939450068989</v>
+      </c>
+    </row>
+    <row r="83" spans="3:4">
+      <c r="C83">
+        <v>82</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="1"/>
+        <v>-14.214091258659002</v>
+      </c>
+    </row>
+    <row r="84" spans="3:4">
+      <c r="C84">
+        <v>83</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="1"/>
+        <v>-14.161218361006185</v>
+      </c>
+    </row>
+    <row r="85" spans="3:4">
+      <c r="C85">
+        <v>84</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="1"/>
+        <v>-14.10832082989454</v>
+      </c>
+    </row>
+    <row r="86" spans="3:4">
+      <c r="C86">
+        <v>85</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="1"/>
+        <v>-14.055398738343866</v>
+      </c>
+    </row>
+    <row r="87" spans="3:4">
+      <c r="C87">
+        <v>86</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="1"/>
+        <v>-14.002452159609431</v>
+      </c>
+    </row>
+    <row r="88" spans="3:4">
+      <c r="C88">
+        <v>87</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="1"/>
+        <v>-13.949481167181585</v>
+      </c>
+    </row>
+    <row r="89" spans="3:4">
+      <c r="C89">
+        <v>88</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="1"/>
+        <v>-13.896485834785402</v>
+      </c>
+    </row>
+    <row r="90" spans="3:4">
+      <c r="C90">
+        <v>89</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="1"/>
+        <v>-13.843466236380317</v>
+      </c>
+    </row>
+    <row r="91" spans="3:4">
+      <c r="C91">
+        <v>90</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="1"/>
+        <v>-13.79042244615974</v>
+      </c>
+    </row>
+    <row r="92" spans="3:4">
+      <c r="C92">
+        <v>91</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="1"/>
+        <v>-13.737354538550676</v>
+      </c>
+    </row>
+    <row r="93" spans="3:4">
+      <c r="C93">
+        <v>92</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="1"/>
+        <v>-13.684262588213343</v>
+      </c>
+    </row>
+    <row r="94" spans="3:4">
+      <c r="C94">
+        <v>93</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="1"/>
+        <v>-13.631146670040772</v>
+      </c>
+    </row>
+    <row r="95" spans="3:4">
+      <c r="C95">
+        <v>94</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="1"/>
+        <v>-13.578006859158425</v>
+      </c>
+    </row>
+    <row r="96" spans="3:4">
+      <c r="C96">
+        <v>95</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="1"/>
+        <v>-13.52484323092377</v>
+      </c>
+    </row>
+    <row r="97" spans="3:4">
+      <c r="C97">
+        <v>96</v>
+      </c>
+      <c r="D97">
+        <f t="shared" si="1"/>
+        <v>-13.471655860925898</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4">
+      <c r="C98">
+        <v>97</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="1"/>
+        <v>-13.418444824985093</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4">
+      <c r="C99">
+        <v>98</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="1"/>
+        <v>-13.365210199152425</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4">
+      <c r="C100">
+        <v>99</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="1"/>
+        <v>-13.311952059709323</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4">
+      <c r="C101">
+        <v>100</v>
+      </c>
+      <c r="D101">
+        <f t="shared" si="1"/>
+        <v>-13.258670483167149</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102">
+        <v>101</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="1"/>
+        <v>-13.205365546266762</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103">
+        <v>102</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="1"/>
+        <v>-13.152037325978078</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4">
+      <c r="C104">
+        <v>103</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="1"/>
+        <v>-13.098685899499639</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105">
+        <v>104</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="1"/>
+        <v>-13.045311344258156</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4">
+      <c r="C106">
+        <v>105</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="1"/>
+        <v>-12.991913737908048</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4">
+      <c r="C107">
+        <v>106</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="1"/>
+        <v>-12.938493158331001</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4">
+      <c r="C108">
+        <v>107</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="1"/>
+        <v>-12.885049683635492</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109">
+        <v>108</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="1"/>
+        <v>-12.831583392156318</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4">
+      <c r="C110">
+        <v>109</v>
+      </c>
+      <c r="D110">
+        <f t="shared" si="1"/>
+        <v>-12.77809436245413</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4">
+      <c r="C111">
+        <v>110</v>
+      </c>
+      <c r="D111">
+        <f t="shared" si="1"/>
+        <v>-12.724582673314954</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4">
+      <c r="C112">
+        <v>111</v>
+      </c>
+      <c r="D112">
+        <f t="shared" si="1"/>
+        <v>-12.671048403749698</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4">
+      <c r="C113">
+        <v>112</v>
+      </c>
+      <c r="D113">
+        <f t="shared" si="1"/>
+        <v>-12.617491632993669</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4">
+      <c r="C114">
+        <v>113</v>
+      </c>
+      <c r="D114">
+        <f t="shared" si="1"/>
+        <v>-12.563912440506082</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4">
+      <c r="C115">
+        <v>114</v>
+      </c>
+      <c r="D115">
+        <f t="shared" si="1"/>
+        <v>-12.510310905969545</v>
+      </c>
+    </row>
+    <row r="116" spans="3:4">
+      <c r="C116">
+        <v>115</v>
+      </c>
+      <c r="D116">
+        <f t="shared" si="1"/>
+        <v>-12.45668710928957</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4">
+      <c r="C117">
+        <v>116</v>
+      </c>
+      <c r="D117">
+        <f t="shared" si="1"/>
+        <v>-12.40304113059406</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4">
+      <c r="C118">
+        <v>117</v>
+      </c>
+      <c r="D118">
+        <f t="shared" si="1"/>
+        <v>-12.349373050232783</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4">
+      <c r="C119">
+        <v>118</v>
+      </c>
+      <c r="D119">
+        <f t="shared" si="1"/>
+        <v>-12.295682948776868</v>
+      </c>
+    </row>
+    <row r="120" spans="3:4">
+      <c r="C120">
+        <v>119</v>
+      </c>
+      <c r="D120">
+        <f t="shared" si="1"/>
+        <v>-12.241970907018262</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4">
+      <c r="C121">
+        <v>120</v>
+      </c>
+      <c r="D121">
+        <f t="shared" si="1"/>
+        <v>-12.188237005969208</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4">
+      <c r="C122">
+        <v>121</v>
+      </c>
+      <c r="D122">
+        <f t="shared" si="1"/>
+        <v>-12.134481326861719</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4">
+      <c r="C123">
+        <v>122</v>
+      </c>
+      <c r="D123">
+        <f t="shared" si="1"/>
+        <v>-12.080703951147019</v>
+      </c>
+    </row>
+    <row r="124" spans="3:4">
+      <c r="C124">
+        <v>123</v>
+      </c>
+      <c r="D124">
+        <f t="shared" si="1"/>
+        <v>-12.026904960495001</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4">
+      <c r="C125">
+        <v>124</v>
+      </c>
+      <c r="D125">
+        <f t="shared" si="1"/>
+        <v>-11.973084436793688</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4">
+      <c r="C126">
+        <v>125</v>
+      </c>
+      <c r="D126">
+        <f t="shared" si="1"/>
+        <v>-11.919242462148659</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4">
+      <c r="C127">
+        <v>126</v>
+      </c>
+      <c r="D127">
+        <f t="shared" si="1"/>
+        <v>-11.865379118882508</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4">
+      <c r="C128">
+        <v>127</v>
+      </c>
+      <c r="D128">
+        <f t="shared" si="1"/>
+        <v>-11.811494489534253</v>
+      </c>
+    </row>
+    <row r="129" spans="3:4">
+      <c r="C129">
+        <v>128</v>
+      </c>
+      <c r="D129">
+        <f t="shared" si="1"/>
+        <v>-11.757588656858786</v>
+      </c>
+    </row>
+    <row r="130" spans="3:4">
+      <c r="C130">
+        <v>129</v>
+      </c>
+      <c r="D130">
+        <f t="shared" si="1"/>
+        <v>-11.703661703826283</v>
+      </c>
+    </row>
+    <row r="131" spans="3:4">
+      <c r="C131">
+        <v>130</v>
+      </c>
+      <c r="D131">
+        <f t="shared" ref="D131:D194" si="2">DEGREES(ATAN((C131-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>-11.649713713621622</v>
+      </c>
+    </row>
+    <row r="132" spans="3:4">
+      <c r="C132">
+        <v>131</v>
+      </c>
+      <c r="D132">
+        <f t="shared" si="2"/>
+        <v>-11.595744769643808</v>
+      </c>
+    </row>
+    <row r="133" spans="3:4">
+      <c r="C133">
+        <v>132</v>
+      </c>
+      <c r="D133">
+        <f t="shared" si="2"/>
+        <v>-11.541754955505374</v>
+      </c>
+    </row>
+    <row r="134" spans="3:4">
+      <c r="C134">
+        <v>133</v>
+      </c>
+      <c r="D134">
+        <f t="shared" si="2"/>
+        <v>-11.487744355031762</v>
+      </c>
+    </row>
+    <row r="135" spans="3:4">
+      <c r="C135">
+        <v>134</v>
+      </c>
+      <c r="D135">
+        <f t="shared" si="2"/>
+        <v>-11.433713052260762</v>
+      </c>
+    </row>
+    <row r="136" spans="3:4">
+      <c r="C136">
+        <v>135</v>
+      </c>
+      <c r="D136">
+        <f t="shared" si="2"/>
+        <v>-11.379661131441875</v>
+      </c>
+    </row>
+    <row r="137" spans="3:4">
+      <c r="C137">
+        <v>136</v>
+      </c>
+      <c r="D137">
+        <f t="shared" si="2"/>
+        <v>-11.325588677035709</v>
+      </c>
+    </row>
+    <row r="138" spans="3:4">
+      <c r="C138">
+        <v>137</v>
+      </c>
+      <c r="D138">
+        <f t="shared" si="2"/>
+        <v>-11.271495773713358</v>
+      </c>
+    </row>
+    <row r="139" spans="3:4">
+      <c r="C139">
+        <v>138</v>
+      </c>
+      <c r="D139">
+        <f t="shared" si="2"/>
+        <v>-11.217382506355785</v>
+      </c>
+    </row>
+    <row r="140" spans="3:4">
+      <c r="C140">
+        <v>139</v>
+      </c>
+      <c r="D140">
+        <f t="shared" si="2"/>
+        <v>-11.163248960053188</v>
+      </c>
+    </row>
+    <row r="141" spans="3:4">
+      <c r="C141">
+        <v>140</v>
+      </c>
+      <c r="D141">
+        <f t="shared" si="2"/>
+        <v>-11.109095220104374</v>
+      </c>
+    </row>
+    <row r="142" spans="3:4">
+      <c r="C142">
+        <v>141</v>
+      </c>
+      <c r="D142">
+        <f t="shared" si="2"/>
+        <v>-11.054921372016111</v>
+      </c>
+    </row>
+    <row r="143" spans="3:4">
+      <c r="C143">
+        <v>142</v>
+      </c>
+      <c r="D143">
+        <f t="shared" si="2"/>
+        <v>-11.000727501502492</v>
+      </c>
+    </row>
+    <row r="144" spans="3:4">
+      <c r="C144">
+        <v>143</v>
+      </c>
+      <c r="D144">
+        <f t="shared" si="2"/>
+        <v>-10.946513694484288</v>
+      </c>
+    </row>
+    <row r="145" spans="3:4">
+      <c r="C145">
+        <v>144</v>
+      </c>
+      <c r="D145">
+        <f t="shared" si="2"/>
+        <v>-10.892280037088295</v>
+      </c>
+    </row>
+    <row r="146" spans="3:4">
+      <c r="C146">
+        <v>145</v>
+      </c>
+      <c r="D146">
+        <f t="shared" si="2"/>
+        <v>-10.838026615646664</v>
+      </c>
+    </row>
+    <row r="147" spans="3:4">
+      <c r="C147">
+        <v>146</v>
+      </c>
+      <c r="D147">
+        <f t="shared" si="2"/>
+        <v>-10.783753516696255</v>
+      </c>
+    </row>
+    <row r="148" spans="3:4">
+      <c r="C148">
+        <v>147</v>
+      </c>
+      <c r="D148">
+        <f t="shared" si="2"/>
+        <v>-10.729460826977956</v>
+      </c>
+    </row>
+    <row r="149" spans="3:4">
+      <c r="C149">
+        <v>148</v>
+      </c>
+      <c r="D149">
+        <f t="shared" si="2"/>
+        <v>-10.675148633436017</v>
+      </c>
+    </row>
+    <row r="150" spans="3:4">
+      <c r="C150">
+        <v>149</v>
+      </c>
+      <c r="D150">
+        <f t="shared" si="2"/>
+        <v>-10.620817023217372</v>
+      </c>
+    </row>
+    <row r="151" spans="3:4">
+      <c r="C151">
+        <v>150</v>
+      </c>
+      <c r="D151">
+        <f t="shared" si="2"/>
+        <v>-10.566466083670944</v>
+      </c>
+    </row>
+    <row r="152" spans="3:4">
+      <c r="C152">
+        <v>151</v>
+      </c>
+      <c r="D152">
+        <f t="shared" si="2"/>
+        <v>-10.512095902346974</v>
+      </c>
+    </row>
+    <row r="153" spans="3:4">
+      <c r="C153">
+        <v>152</v>
+      </c>
+      <c r="D153">
+        <f t="shared" si="2"/>
+        <v>-10.457706566996318</v>
+      </c>
+    </row>
+    <row r="154" spans="3:4">
+      <c r="C154">
+        <v>153</v>
+      </c>
+      <c r="D154">
+        <f t="shared" si="2"/>
+        <v>-10.403298165569744</v>
+      </c>
+    </row>
+    <row r="155" spans="3:4">
+      <c r="C155">
+        <v>154</v>
+      </c>
+      <c r="D155">
+        <f t="shared" si="2"/>
+        <v>-10.348870786217244</v>
+      </c>
+    </row>
+    <row r="156" spans="3:4">
+      <c r="C156">
+        <v>155</v>
+      </c>
+      <c r="D156">
+        <f t="shared" si="2"/>
+        <v>-10.294424517287311</v>
+      </c>
+    </row>
+    <row r="157" spans="3:4">
+      <c r="C157">
+        <v>156</v>
+      </c>
+      <c r="D157">
+        <f t="shared" si="2"/>
+        <v>-10.239959447326235</v>
+      </c>
+    </row>
+    <row r="158" spans="3:4">
+      <c r="C158">
+        <v>157</v>
+      </c>
+      <c r="D158">
+        <f t="shared" si="2"/>
+        <v>-10.185475665077382</v>
+      </c>
+    </row>
+    <row r="159" spans="3:4">
+      <c r="C159">
+        <v>158</v>
+      </c>
+      <c r="D159">
+        <f t="shared" si="2"/>
+        <v>-10.130973259480468</v>
+      </c>
+    </row>
+    <row r="160" spans="3:4">
+      <c r="C160">
+        <v>159</v>
+      </c>
+      <c r="D160">
+        <f t="shared" si="2"/>
+        <v>-10.076452319670837</v>
+      </c>
+    </row>
+    <row r="161" spans="3:4">
+      <c r="C161">
+        <v>160</v>
+      </c>
+      <c r="D161">
+        <f t="shared" si="2"/>
+        <v>-10.021912934978728</v>
+      </c>
+    </row>
+    <row r="162" spans="3:4">
+      <c r="C162">
+        <v>161</v>
+      </c>
+      <c r="D162">
+        <f t="shared" si="2"/>
+        <v>-9.9673551949285262</v>
+      </c>
+    </row>
+    <row r="163" spans="3:4">
+      <c r="C163">
+        <v>162</v>
+      </c>
+      <c r="D163">
+        <f t="shared" si="2"/>
+        <v>-9.912779189238039</v>
+      </c>
+    </row>
+    <row r="164" spans="3:4">
+      <c r="C164">
+        <v>163</v>
+      </c>
+      <c r="D164">
+        <f t="shared" si="2"/>
+        <v>-9.8581850078177364</v>
+      </c>
+    </row>
+    <row r="165" spans="3:4">
+      <c r="C165">
+        <v>164</v>
+      </c>
+      <c r="D165">
+        <f t="shared" si="2"/>
+        <v>-9.8035727407699991</v>
+      </c>
+    </row>
+    <row r="166" spans="3:4">
+      <c r="C166">
+        <v>165</v>
+      </c>
+      <c r="D166">
+        <f t="shared" si="2"/>
+        <v>-9.7489424783883667</v>
+      </c>
+    </row>
+    <row r="167" spans="3:4">
+      <c r="C167">
+        <v>166</v>
+      </c>
+      <c r="D167">
+        <f t="shared" si="2"/>
+        <v>-9.6942943111567708</v>
+      </c>
+    </row>
+    <row r="168" spans="3:4">
+      <c r="C168">
+        <v>167</v>
+      </c>
+      <c r="D168">
+        <f t="shared" si="2"/>
+        <v>-9.6396283297487688</v>
+      </c>
+    </row>
+    <row r="169" spans="3:4">
+      <c r="C169">
+        <v>168</v>
+      </c>
+      <c r="D169">
+        <f t="shared" si="2"/>
+        <v>-9.5849446250267789</v>
+      </c>
+    </row>
+    <row r="170" spans="3:4">
+      <c r="C170">
+        <v>169</v>
+      </c>
+      <c r="D170">
+        <f t="shared" si="2"/>
+        <v>-9.5302432880412979</v>
+      </c>
+    </row>
+    <row r="171" spans="3:4">
+      <c r="C171">
+        <v>170</v>
+      </c>
+      <c r="D171">
+        <f t="shared" si="2"/>
+        <v>-9.4755244100301166</v>
+      </c>
+    </row>
+    <row r="172" spans="3:4">
+      <c r="C172">
+        <v>171</v>
+      </c>
+      <c r="D172">
+        <f t="shared" si="2"/>
+        <v>-9.4207880824175412</v>
+      </c>
+    </row>
+    <row r="173" spans="3:4">
+      <c r="C173">
+        <v>172</v>
+      </c>
+      <c r="D173">
+        <f t="shared" si="2"/>
+        <v>-9.3660343968136015</v>
+      </c>
+    </row>
+    <row r="174" spans="3:4">
+      <c r="C174">
+        <v>173</v>
+      </c>
+      <c r="D174">
+        <f t="shared" si="2"/>
+        <v>-9.3112634450132532</v>
+      </c>
+    </row>
+    <row r="175" spans="3:4">
+      <c r="C175">
+        <v>174</v>
+      </c>
+      <c r="D175">
+        <f t="shared" si="2"/>
+        <v>-9.2564753189955731</v>
+      </c>
+    </row>
+    <row r="176" spans="3:4">
+      <c r="C176">
+        <v>175</v>
+      </c>
+      <c r="D176">
+        <f t="shared" si="2"/>
+        <v>-9.2016701109229704</v>
+      </c>
+    </row>
+    <row r="177" spans="3:4">
+      <c r="C177">
+        <v>176</v>
+      </c>
+      <c r="D177">
+        <f t="shared" si="2"/>
+        <v>-9.1468479131403591</v>
+      </c>
+    </row>
+    <row r="178" spans="3:4">
+      <c r="C178">
+        <v>177</v>
+      </c>
+      <c r="D178">
+        <f t="shared" si="2"/>
+        <v>-9.0920088181743495</v>
+      </c>
+    </row>
+    <row r="179" spans="3:4">
+      <c r="C179">
+        <v>178</v>
+      </c>
+      <c r="D179">
+        <f t="shared" si="2"/>
+        <v>-9.0371529187324366</v>
+      </c>
+    </row>
+    <row r="180" spans="3:4">
+      <c r="C180">
+        <v>179</v>
+      </c>
+      <c r="D180">
+        <f t="shared" si="2"/>
+        <v>-8.9822803077021689</v>
+      </c>
+    </row>
+    <row r="181" spans="3:4">
+      <c r="C181">
+        <v>180</v>
+      </c>
+      <c r="D181">
+        <f t="shared" si="2"/>
+        <v>-8.9273910781503165</v>
+      </c>
+    </row>
+    <row r="182" spans="3:4">
+      <c r="C182">
+        <v>181</v>
+      </c>
+      <c r="D182">
+        <f t="shared" si="2"/>
+        <v>-8.8724853233220546</v>
+      </c>
+    </row>
+    <row r="183" spans="3:4">
+      <c r="C183">
+        <v>182</v>
+      </c>
+      <c r="D183">
+        <f t="shared" si="2"/>
+        <v>-8.8175631366401053</v>
+      </c>
+    </row>
+    <row r="184" spans="3:4">
+      <c r="C184">
+        <v>183</v>
+      </c>
+      <c r="D184">
+        <f t="shared" si="2"/>
+        <v>-8.7626246117039113</v>
+      </c>
+    </row>
+    <row r="185" spans="3:4">
+      <c r="C185">
+        <v>184</v>
+      </c>
+      <c r="D185">
+        <f t="shared" si="2"/>
+        <v>-8.7076698422887802</v>
+      </c>
+    </row>
+    <row r="186" spans="3:4">
+      <c r="C186">
+        <v>185</v>
+      </c>
+      <c r="D186">
+        <f t="shared" si="2"/>
+        <v>-8.6526989223450368</v>
+      </c>
+    </row>
+    <row r="187" spans="3:4">
+      <c r="C187">
+        <v>186</v>
+      </c>
+      <c r="D187">
+        <f t="shared" si="2"/>
+        <v>-8.5977119459971725</v>
+      </c>
+    </row>
+    <row r="188" spans="3:4">
+      <c r="C188">
+        <v>187</v>
+      </c>
+      <c r="D188">
+        <f t="shared" si="2"/>
+        <v>-8.542709007542971</v>
+      </c>
+    </row>
+    <row r="189" spans="3:4">
+      <c r="C189">
+        <v>188</v>
+      </c>
+      <c r="D189">
+        <f t="shared" si="2"/>
+        <v>-8.4876902014526561</v>
+      </c>
+    </row>
+    <row r="190" spans="3:4">
+      <c r="C190">
+        <v>189</v>
+      </c>
+      <c r="D190">
+        <f t="shared" si="2"/>
+        <v>-8.4326556223680189</v>
+      </c>
+    </row>
+    <row r="191" spans="3:4">
+      <c r="C191">
+        <v>190</v>
+      </c>
+      <c r="D191">
+        <f t="shared" si="2"/>
+        <v>-8.377605365101541</v>
+      </c>
+    </row>
+    <row r="192" spans="3:4">
+      <c r="C192">
+        <v>191</v>
+      </c>
+      <c r="D192">
+        <f t="shared" si="2"/>
+        <v>-8.3225395246355163</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4">
+      <c r="C193">
+        <v>192</v>
+      </c>
+      <c r="D193">
+        <f t="shared" si="2"/>
+        <v>-8.2674581961211775</v>
+      </c>
+    </row>
+    <row r="194" spans="3:4">
+      <c r="C194">
+        <v>193</v>
+      </c>
+      <c r="D194">
+        <f t="shared" si="2"/>
+        <v>-8.2123614748777953</v>
+      </c>
+    </row>
+    <row r="195" spans="3:4">
+      <c r="C195">
+        <v>194</v>
+      </c>
+      <c r="D195">
+        <f t="shared" ref="D195:D258" si="3">DEGREES(ATAN((C195-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>-8.1572494563917921</v>
+      </c>
+    </row>
+    <row r="196" spans="3:4">
+      <c r="C196">
+        <v>195</v>
+      </c>
+      <c r="D196">
+        <f t="shared" si="3"/>
+        <v>-8.10212223631585</v>
+      </c>
+    </row>
+    <row r="197" spans="3:4">
+      <c r="C197">
+        <v>196</v>
+      </c>
+      <c r="D197">
+        <f t="shared" si="3"/>
+        <v>-8.0469799104680089</v>
+      </c>
+    </row>
+    <row r="198" spans="3:4">
+      <c r="C198">
+        <v>197</v>
+      </c>
+      <c r="D198">
+        <f t="shared" si="3"/>
+        <v>-7.9918225748307563</v>
+      </c>
+    </row>
+    <row r="199" spans="3:4">
+      <c r="C199">
+        <v>198</v>
+      </c>
+      <c r="D199">
+        <f t="shared" si="3"/>
+        <v>-7.9366503255501213</v>
+      </c>
+    </row>
+    <row r="200" spans="3:4">
+      <c r="C200">
+        <v>199</v>
+      </c>
+      <c r="D200">
+        <f t="shared" si="3"/>
+        <v>-7.88146325893476</v>
+      </c>
+    </row>
+    <row r="201" spans="3:4">
+      <c r="C201">
+        <v>200</v>
+      </c>
+      <c r="D201">
+        <f t="shared" si="3"/>
+        <v>-7.8262614714550471</v>
+      </c>
+    </row>
+    <row r="202" spans="3:4">
+      <c r="C202">
+        <v>201</v>
+      </c>
+      <c r="D202">
+        <f t="shared" si="3"/>
+        <v>-7.7710450597421383</v>
+      </c>
+    </row>
+    <row r="203" spans="3:4">
+      <c r="C203">
+        <v>202</v>
+      </c>
+      <c r="D203">
+        <f t="shared" si="3"/>
+        <v>-7.7158141205870541</v>
+      </c>
+    </row>
+    <row r="204" spans="3:4">
+      <c r="C204">
+        <v>203</v>
+      </c>
+      <c r="D204">
+        <f t="shared" si="3"/>
+        <v>-7.6605687509397464</v>
+      </c>
+    </row>
+    <row r="205" spans="3:4">
+      <c r="C205">
+        <v>204</v>
+      </c>
+      <c r="D205">
+        <f t="shared" si="3"/>
+        <v>-7.6053090479081638</v>
+      </c>
+    </row>
+    <row r="206" spans="3:4">
+      <c r="C206">
+        <v>205</v>
+      </c>
+      <c r="D206">
+        <f t="shared" si="3"/>
+        <v>-7.550035108757311</v>
+      </c>
+    </row>
+    <row r="207" spans="3:4">
+      <c r="C207">
+        <v>206</v>
+      </c>
+      <c r="D207">
+        <f t="shared" si="3"/>
+        <v>-7.4947470309083108</v>
+      </c>
+    </row>
+    <row r="208" spans="3:4">
+      <c r="C208">
+        <v>207</v>
+      </c>
+      <c r="D208">
+        <f t="shared" si="3"/>
+        <v>-7.4394449119374482</v>
+      </c>
+    </row>
+    <row r="209" spans="3:4">
+      <c r="C209">
+        <v>208</v>
+      </c>
+      <c r="D209">
+        <f t="shared" si="3"/>
+        <v>-7.3841288495752249</v>
+      </c>
+    </row>
+    <row r="210" spans="3:4">
+      <c r="C210">
+        <v>209</v>
+      </c>
+      <c r="D210">
+        <f t="shared" si="3"/>
+        <v>-7.3287989417054078</v>
+      </c>
+    </row>
+    <row r="211" spans="3:4">
+      <c r="C211">
+        <v>210</v>
+      </c>
+      <c r="D211">
+        <f t="shared" si="3"/>
+        <v>-7.2734552863640536</v>
+      </c>
+    </row>
+    <row r="212" spans="3:4">
+      <c r="C212">
+        <v>211</v>
+      </c>
+      <c r="D212">
+        <f t="shared" si="3"/>
+        <v>-7.2180979817385618</v>
+      </c>
+    </row>
+    <row r="213" spans="3:4">
+      <c r="C213">
+        <v>212</v>
+      </c>
+      <c r="D213">
+        <f t="shared" si="3"/>
+        <v>-7.1627271261666952</v>
+      </c>
+    </row>
+    <row r="214" spans="3:4">
+      <c r="C214">
+        <v>213</v>
+      </c>
+      <c r="D214">
+        <f t="shared" si="3"/>
+        <v>-7.1073428181356162</v>
+      </c>
+    </row>
+    <row r="215" spans="3:4">
+      <c r="C215">
+        <v>214</v>
+      </c>
+      <c r="D215">
+        <f t="shared" si="3"/>
+        <v>-7.0519451562809046</v>
+      </c>
+    </row>
+    <row r="216" spans="3:4">
+      <c r="C216">
+        <v>215</v>
+      </c>
+      <c r="D216">
+        <f t="shared" si="3"/>
+        <v>-6.9965342393855794</v>
+      </c>
+    </row>
+    <row r="217" spans="3:4">
+      <c r="C217">
+        <v>216</v>
+      </c>
+      <c r="D217">
+        <f t="shared" si="3"/>
+        <v>-6.9411101663791159</v>
+      </c>
+    </row>
+    <row r="218" spans="3:4">
+      <c r="C218">
+        <v>217</v>
+      </c>
+      <c r="D218">
+        <f t="shared" si="3"/>
+        <v>-6.8856730363364553</v>
+      </c>
+    </row>
+    <row r="219" spans="3:4">
+      <c r="C219">
+        <v>218</v>
+      </c>
+      <c r="D219">
+        <f t="shared" si="3"/>
+        <v>-6.8302229484770161</v>
+      </c>
+    </row>
+    <row r="220" spans="3:4">
+      <c r="C220">
+        <v>219</v>
+      </c>
+      <c r="D220">
+        <f t="shared" si="3"/>
+        <v>-6.7747600021636929</v>
+      </c>
+    </row>
+    <row r="221" spans="3:4">
+      <c r="C221">
+        <v>220</v>
+      </c>
+      <c r="D221">
+        <f t="shared" si="3"/>
+        <v>-6.719284296901864</v>
+      </c>
+    </row>
+    <row r="222" spans="3:4">
+      <c r="C222">
+        <v>221</v>
+      </c>
+      <c r="D222">
+        <f t="shared" si="3"/>
+        <v>-6.6637959323383837</v>
+      </c>
+    </row>
+    <row r="223" spans="3:4">
+      <c r="C223">
+        <v>222</v>
+      </c>
+      <c r="D223">
+        <f t="shared" si="3"/>
+        <v>-6.6082950082605683</v>
+      </c>
+    </row>
+    <row r="224" spans="3:4">
+      <c r="C224">
+        <v>223</v>
+      </c>
+      <c r="D224">
+        <f t="shared" si="3"/>
+        <v>-6.5527816245951973</v>
+      </c>
+    </row>
+    <row r="225" spans="3:4">
+      <c r="C225">
+        <v>224</v>
+      </c>
+      <c r="D225">
+        <f t="shared" si="3"/>
+        <v>-6.4972558814074928</v>
+      </c>
+    </row>
+    <row r="226" spans="3:4">
+      <c r="C226">
+        <v>225</v>
+      </c>
+      <c r="D226">
+        <f t="shared" si="3"/>
+        <v>-6.4417178789000955</v>
+      </c>
+    </row>
+    <row r="227" spans="3:4">
+      <c r="C227">
+        <v>226</v>
+      </c>
+      <c r="D227">
+        <f t="shared" si="3"/>
+        <v>-6.3861677174120501</v>
+      </c>
+    </row>
+    <row r="228" spans="3:4">
+      <c r="C228">
+        <v>227</v>
+      </c>
+      <c r="D228">
+        <f t="shared" si="3"/>
+        <v>-6.3306054974177739</v>
+      </c>
+    </row>
+    <row r="229" spans="3:4">
+      <c r="C229">
+        <v>228</v>
+      </c>
+      <c r="D229">
+        <f t="shared" si="3"/>
+        <v>-6.2750313195260299</v>
+      </c>
+    </row>
+    <row r="230" spans="3:4">
+      <c r="C230">
+        <v>229</v>
+      </c>
+      <c r="D230">
+        <f t="shared" si="3"/>
+        <v>-6.2194452844788897</v>
+      </c>
+    </row>
+    <row r="231" spans="3:4">
+      <c r="C231">
+        <v>230</v>
+      </c>
+      <c r="D231">
+        <f t="shared" si="3"/>
+        <v>-6.1638474931506959</v>
+      </c>
+    </row>
+    <row r="232" spans="3:4">
+      <c r="C232">
+        <v>231</v>
+      </c>
+      <c r="D232">
+        <f t="shared" si="3"/>
+        <v>-6.1082380465470294</v>
+      </c>
+    </row>
+    <row r="233" spans="3:4">
+      <c r="C233">
+        <v>232</v>
+      </c>
+      <c r="D233">
+        <f t="shared" si="3"/>
+        <v>-6.0526170458036512</v>
+      </c>
+    </row>
+    <row r="234" spans="3:4">
+      <c r="C234">
+        <v>233</v>
+      </c>
+      <c r="D234">
+        <f t="shared" si="3"/>
+        <v>-5.9969845921854645</v>
+      </c>
+    </row>
+    <row r="235" spans="3:4">
+      <c r="C235">
+        <v>234</v>
+      </c>
+      <c r="D235">
+        <f t="shared" si="3"/>
+        <v>-5.9413407870854602</v>
+      </c>
+    </row>
+    <row r="236" spans="3:4">
+      <c r="C236">
+        <v>235</v>
+      </c>
+      <c r="D236">
+        <f t="shared" si="3"/>
+        <v>-5.88568573202366</v>
+      </c>
+    </row>
+    <row r="237" spans="3:4">
+      <c r="C237">
+        <v>236</v>
+      </c>
+      <c r="D237">
+        <f t="shared" si="3"/>
+        <v>-5.8300195286460612</v>
+      </c>
+    </row>
+    <row r="238" spans="3:4">
+      <c r="C238">
+        <v>237</v>
+      </c>
+      <c r="D238">
+        <f t="shared" si="3"/>
+        <v>-5.7743422787235659</v>
+      </c>
+    </row>
+    <row r="239" spans="3:4">
+      <c r="C239">
+        <v>238</v>
+      </c>
+      <c r="D239">
+        <f t="shared" si="3"/>
+        <v>-5.7186540841509279</v>
+      </c>
+    </row>
+    <row r="240" spans="3:4">
+      <c r="C240">
+        <v>239</v>
+      </c>
+      <c r="D240">
+        <f t="shared" si="3"/>
+        <v>-5.6629550469456742</v>
+      </c>
+    </row>
+    <row r="241" spans="3:4">
+      <c r="C241">
+        <v>240</v>
+      </c>
+      <c r="D241">
+        <f t="shared" si="3"/>
+        <v>-5.6072452692470343</v>
+      </c>
+    </row>
+    <row r="242" spans="3:4">
+      <c r="C242">
+        <v>241</v>
+      </c>
+      <c r="D242">
+        <f t="shared" si="3"/>
+        <v>-5.5515248533148673</v>
+      </c>
+    </row>
+    <row r="243" spans="3:4">
+      <c r="C243">
+        <v>242</v>
+      </c>
+      <c r="D243">
+        <f t="shared" si="3"/>
+        <v>-5.4957939015285797</v>
+      </c>
+    </row>
+    <row r="244" spans="3:4">
+      <c r="C244">
+        <v>243</v>
+      </c>
+      <c r="D244">
+        <f t="shared" si="3"/>
+        <v>-5.4400525163860438</v>
+      </c>
+    </row>
+    <row r="245" spans="3:4">
+      <c r="C245">
+        <v>244</v>
+      </c>
+      <c r="D245">
+        <f t="shared" si="3"/>
+        <v>-5.3843008005025119</v>
+      </c>
+    </row>
+    <row r="246" spans="3:4">
+      <c r="C246">
+        <v>245</v>
+      </c>
+      <c r="D246">
+        <f t="shared" si="3"/>
+        <v>-5.3285388566095264</v>
+      </c>
+    </row>
+    <row r="247" spans="3:4">
+      <c r="C247">
+        <v>246</v>
+      </c>
+      <c r="D247">
+        <f t="shared" si="3"/>
+        <v>-5.27276678755383</v>
+      </c>
+    </row>
+    <row r="248" spans="3:4">
+      <c r="C248">
+        <v>247</v>
+      </c>
+      <c r="D248">
+        <f t="shared" si="3"/>
+        <v>-5.2169846962962652</v>
+      </c>
+    </row>
+    <row r="249" spans="3:4">
+      <c r="C249">
+        <v>248</v>
+      </c>
+      <c r="D249">
+        <f t="shared" si="3"/>
+        <v>-5.1611926859106827</v>
+      </c>
+    </row>
+    <row r="250" spans="3:4">
+      <c r="C250">
+        <v>249</v>
+      </c>
+      <c r="D250">
+        <f t="shared" si="3"/>
+        <v>-5.1053908595828323</v>
+      </c>
+    </row>
+    <row r="251" spans="3:4">
+      <c r="C251">
+        <v>250</v>
+      </c>
+      <c r="D251">
+        <f t="shared" si="3"/>
+        <v>-5.0495793206092632</v>
+      </c>
+    </row>
+    <row r="252" spans="3:4">
+      <c r="C252">
+        <v>251</v>
+      </c>
+      <c r="D252">
+        <f t="shared" si="3"/>
+        <v>-4.9937581723962108</v>
+      </c>
+    </row>
+    <row r="253" spans="3:4">
+      <c r="C253">
+        <v>252</v>
+      </c>
+      <c r="D253">
+        <f t="shared" si="3"/>
+        <v>-4.9379275184584923</v>
+      </c>
+    </row>
+    <row r="254" spans="3:4">
+      <c r="C254">
+        <v>253</v>
+      </c>
+      <c r="D254">
+        <f t="shared" si="3"/>
+        <v>-4.8820874624183874</v>
+      </c>
+    </row>
+    <row r="255" spans="3:4">
+      <c r="C255">
+        <v>254</v>
+      </c>
+      <c r="D255">
+        <f t="shared" si="3"/>
+        <v>-4.8262381080045218</v>
+      </c>
+    </row>
+    <row r="256" spans="3:4">
+      <c r="C256">
+        <v>255</v>
+      </c>
+      <c r="D256">
+        <f t="shared" si="3"/>
+        <v>-4.7703795590507498</v>
+      </c>
+    </row>
+    <row r="257" spans="3:4">
+      <c r="C257">
+        <v>256</v>
+      </c>
+      <c r="D257">
+        <f t="shared" si="3"/>
+        <v>-4.7145119194950267</v>
+      </c>
+    </row>
+    <row r="258" spans="3:4">
+      <c r="C258">
+        <v>257</v>
+      </c>
+      <c r="D258">
+        <f t="shared" si="3"/>
+        <v>-4.6586352933782864</v>
+      </c>
+    </row>
+    <row r="259" spans="3:4">
+      <c r="C259">
+        <v>258</v>
+      </c>
+      <c r="D259">
+        <f t="shared" ref="D259:D322" si="4">DEGREES(ATAN((C259-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>-4.6027497848433105</v>
+      </c>
+    </row>
+    <row r="260" spans="3:4">
+      <c r="C260">
+        <v>259</v>
+      </c>
+      <c r="D260">
+        <f t="shared" si="4"/>
+        <v>-4.5468554981336</v>
+      </c>
+    </row>
+    <row r="261" spans="3:4">
+      <c r="C261">
+        <v>260</v>
+      </c>
+      <c r="D261">
+        <f t="shared" si="4"/>
+        <v>-4.4909525375922348</v>
+      </c>
+    </row>
+    <row r="262" spans="3:4">
+      <c r="C262">
+        <v>261</v>
+      </c>
+      <c r="D262">
+        <f t="shared" si="4"/>
+        <v>-4.4350410076607423</v>
+      </c>
+    </row>
+    <row r="263" spans="3:4">
+      <c r="C263">
+        <v>262</v>
+      </c>
+      <c r="D263">
+        <f t="shared" si="4"/>
+        <v>-4.3791210128779516</v>
+      </c>
+    </row>
+    <row r="264" spans="3:4">
+      <c r="C264">
+        <v>263</v>
+      </c>
+      <c r="D264">
+        <f t="shared" si="4"/>
+        <v>-4.323192657878856</v>
+      </c>
+    </row>
+    <row r="265" spans="3:4">
+      <c r="C265">
+        <v>264</v>
+      </c>
+      <c r="D265">
+        <f t="shared" si="4"/>
+        <v>-4.267256047393464</v>
+      </c>
+    </row>
+    <row r="266" spans="3:4">
+      <c r="C266">
+        <v>265</v>
+      </c>
+      <c r="D266">
+        <f t="shared" si="4"/>
+        <v>-4.2113112862456523</v>
+      </c>
+    </row>
+    <row r="267" spans="3:4">
+      <c r="C267">
+        <v>266</v>
+      </c>
+      <c r="D267">
+        <f t="shared" si="4"/>
+        <v>-4.1553584793520129</v>
+      </c>
+    </row>
+    <row r="268" spans="3:4">
+      <c r="C268">
+        <v>267</v>
+      </c>
+      <c r="D268">
+        <f t="shared" si="4"/>
+        <v>-4.0993977317207007</v>
+      </c>
+    </row>
+    <row r="269" spans="3:4">
+      <c r="C269">
+        <v>268</v>
+      </c>
+      <c r="D269">
+        <f t="shared" si="4"/>
+        <v>-4.0434291484502802</v>
+      </c>
+    </row>
+    <row r="270" spans="3:4">
+      <c r="C270">
+        <v>269</v>
+      </c>
+      <c r="D270">
+        <f t="shared" si="4"/>
+        <v>-3.9874528347285647</v>
+      </c>
+    </row>
+    <row r="271" spans="3:4">
+      <c r="C271">
+        <v>270</v>
+      </c>
+      <c r="D271">
+        <f t="shared" si="4"/>
+        <v>-3.9314688958314501</v>
+      </c>
+    </row>
+    <row r="272" spans="3:4">
+      <c r="C272">
+        <v>271</v>
+      </c>
+      <c r="D272">
+        <f t="shared" si="4"/>
+        <v>-3.8754774371217606</v>
+      </c>
+    </row>
+    <row r="273" spans="3:4">
+      <c r="C273">
+        <v>272</v>
+      </c>
+      <c r="D273">
+        <f t="shared" si="4"/>
+        <v>-3.8194785640480737</v>
+      </c>
+    </row>
+    <row r="274" spans="3:4">
+      <c r="C274">
+        <v>273</v>
+      </c>
+      <c r="D274">
+        <f t="shared" si="4"/>
+        <v>-3.7634723821435601</v>
+      </c>
+    </row>
+    <row r="275" spans="3:4">
+      <c r="C275">
+        <v>274</v>
+      </c>
+      <c r="D275">
+        <f t="shared" si="4"/>
+        <v>-3.7074589970248018</v>
+      </c>
+    </row>
+    <row r="276" spans="3:4">
+      <c r="C276">
+        <v>275</v>
+      </c>
+      <c r="D276">
+        <f t="shared" si="4"/>
+        <v>-3.6514385143906325</v>
+      </c>
+    </row>
+    <row r="277" spans="3:4">
+      <c r="C277">
+        <v>276</v>
+      </c>
+      <c r="D277">
+        <f t="shared" si="4"/>
+        <v>-3.5954110400209478</v>
+      </c>
+    </row>
+    <row r="278" spans="3:4">
+      <c r="C278">
+        <v>277</v>
+      </c>
+      <c r="D278">
+        <f t="shared" si="4"/>
+        <v>-3.5393766797755375</v>
+      </c>
+    </row>
+    <row r="279" spans="3:4">
+      <c r="C279">
+        <v>278</v>
+      </c>
+      <c r="D279">
+        <f t="shared" si="4"/>
+        <v>-3.4833355395929018</v>
+      </c>
+    </row>
+    <row r="280" spans="3:4">
+      <c r="C280">
+        <v>279</v>
+      </c>
+      <c r="D280">
+        <f t="shared" si="4"/>
+        <v>-3.4272877254890659</v>
+      </c>
+    </row>
+    <row r="281" spans="3:4">
+      <c r="C281">
+        <v>280</v>
+      </c>
+      <c r="D281">
+        <f t="shared" si="4"/>
+        <v>-3.3712333435564008</v>
+      </c>
+    </row>
+    <row r="282" spans="3:4">
+      <c r="C282">
+        <v>281</v>
+      </c>
+      <c r="D282">
+        <f t="shared" si="4"/>
+        <v>-3.3151724999624328</v>
+      </c>
+    </row>
+    <row r="283" spans="3:4">
+      <c r="C283">
+        <v>282</v>
+      </c>
+      <c r="D283">
+        <f t="shared" si="4"/>
+        <v>-3.259105300948653</v>
+      </c>
+    </row>
+    <row r="284" spans="3:4">
+      <c r="C284">
+        <v>283</v>
+      </c>
+      <c r="D284">
+        <f t="shared" si="4"/>
+        <v>-3.2030318528293322</v>
+      </c>
+    </row>
+    <row r="285" spans="3:4">
+      <c r="C285">
+        <v>284</v>
+      </c>
+      <c r="D285">
+        <f t="shared" si="4"/>
+        <v>-3.1469522619903212</v>
+      </c>
+    </row>
+    <row r="286" spans="3:4">
+      <c r="C286">
+        <v>285</v>
+      </c>
+      <c r="D286">
+        <f t="shared" si="4"/>
+        <v>-3.0908666348878588</v>
+      </c>
+    </row>
+    <row r="287" spans="3:4">
+      <c r="C287">
+        <v>286</v>
+      </c>
+      <c r="D287">
+        <f t="shared" si="4"/>
+        <v>-3.0347750780473755</v>
+      </c>
+    </row>
+    <row r="288" spans="3:4">
+      <c r="C288">
+        <v>287</v>
+      </c>
+      <c r="D288">
+        <f t="shared" si="4"/>
+        <v>-2.9786776980622904</v>
+      </c>
+    </row>
+    <row r="289" spans="3:4">
+      <c r="C289">
+        <v>288</v>
+      </c>
+      <c r="D289">
+        <f t="shared" si="4"/>
+        <v>-2.9225746015928142</v>
+      </c>
+    </row>
+    <row r="290" spans="3:4">
+      <c r="C290">
+        <v>289</v>
+      </c>
+      <c r="D290">
+        <f t="shared" si="4"/>
+        <v>-2.8664658953647426</v>
+      </c>
+    </row>
+    <row r="291" spans="3:4">
+      <c r="C291">
+        <v>290</v>
+      </c>
+      <c r="D291">
+        <f t="shared" si="4"/>
+        <v>-2.810351686168254</v>
+      </c>
+    </row>
+    <row r="292" spans="3:4">
+      <c r="C292">
+        <v>291</v>
+      </c>
+      <c r="D292">
+        <f t="shared" si="4"/>
+        <v>-2.7542320808567022</v>
+      </c>
+    </row>
+    <row r="293" spans="3:4">
+      <c r="C293">
+        <v>292</v>
+      </c>
+      <c r="D293">
+        <f t="shared" si="4"/>
+        <v>-2.6981071863454069</v>
+      </c>
+    </row>
+    <row r="294" spans="3:4">
+      <c r="C294">
+        <v>293</v>
+      </c>
+      <c r="D294">
+        <f t="shared" si="4"/>
+        <v>-2.6419771096104427</v>
+      </c>
+    </row>
+    <row r="295" spans="3:4">
+      <c r="C295">
+        <v>294</v>
+      </c>
+      <c r="D295">
+        <f t="shared" si="4"/>
+        <v>-2.5858419576874292</v>
+      </c>
+    </row>
+    <row r="296" spans="3:4">
+      <c r="C296">
+        <v>295</v>
+      </c>
+      <c r="D296">
+        <f t="shared" si="4"/>
+        <v>-2.5297018376703155</v>
+      </c>
+    </row>
+    <row r="297" spans="3:4">
+      <c r="C297">
+        <v>296</v>
+      </c>
+      <c r="D297">
+        <f t="shared" si="4"/>
+        <v>-2.4735568567101649</v>
+      </c>
+    </row>
+    <row r="298" spans="3:4">
+      <c r="C298">
+        <v>297</v>
+      </c>
+      <c r="D298">
+        <f t="shared" si="4"/>
+        <v>-2.4174071220139379</v>
+      </c>
+    </row>
+    <row r="299" spans="3:4">
+      <c r="C299">
+        <v>298</v>
+      </c>
+      <c r="D299">
+        <f t="shared" si="4"/>
+        <v>-2.3612527408432751</v>
+      </c>
+    </row>
+    <row r="300" spans="3:4">
+      <c r="C300">
+        <v>299</v>
+      </c>
+      <c r="D300">
+        <f t="shared" si="4"/>
+        <v>-2.3050938205132732</v>
+      </c>
+    </row>
+    <row r="301" spans="3:4">
+      <c r="C301">
+        <v>300</v>
+      </c>
+      <c r="D301">
+        <f t="shared" si="4"/>
+        <v>-2.2489304683912668</v>
+      </c>
+    </row>
+    <row r="302" spans="3:4">
+      <c r="C302">
+        <v>301</v>
+      </c>
+      <c r="D302">
+        <f t="shared" si="4"/>
+        <v>-2.192762791895603</v>
+      </c>
+    </row>
+    <row r="303" spans="3:4">
+      <c r="C303">
+        <v>302</v>
+      </c>
+      <c r="D303">
+        <f t="shared" si="4"/>
+        <v>-2.1365908984944166</v>
+      </c>
+    </row>
+    <row r="304" spans="3:4">
+      <c r="C304">
+        <v>303</v>
+      </c>
+      <c r="D304">
+        <f t="shared" si="4"/>
+        <v>-2.0804148957044064</v>
+      </c>
+    </row>
+    <row r="305" spans="3:4">
+      <c r="C305">
+        <v>304</v>
+      </c>
+      <c r="D305">
+        <f t="shared" si="4"/>
+        <v>-2.0242348910896024</v>
+      </c>
+    </row>
+    <row r="306" spans="3:4">
+      <c r="C306">
+        <v>305</v>
+      </c>
+      <c r="D306">
+        <f t="shared" si="4"/>
+        <v>-1.9680509922601428</v>
+      </c>
+    </row>
+    <row r="307" spans="3:4">
+      <c r="C307">
+        <v>306</v>
+      </c>
+      <c r="D307">
+        <f t="shared" si="4"/>
+        <v>-1.9118633068710411</v>
+      </c>
+    </row>
+    <row r="308" spans="3:4">
+      <c r="C308">
+        <v>307</v>
+      </c>
+      <c r="D308">
+        <f t="shared" si="4"/>
+        <v>-1.8556719426209509</v>
+      </c>
+    </row>
+    <row r="309" spans="3:4">
+      <c r="C309">
+        <v>308</v>
+      </c>
+      <c r="D309">
+        <f t="shared" si="4"/>
+        <v>-1.7994770072509403</v>
+      </c>
+    </row>
+    <row r="310" spans="3:4">
+      <c r="C310">
+        <v>309</v>
+      </c>
+      <c r="D310">
+        <f t="shared" si="4"/>
+        <v>-1.7432786085432512</v>
+      </c>
+    </row>
+    <row r="311" spans="3:4">
+      <c r="C311">
+        <v>310</v>
+      </c>
+      <c r="D311">
+        <f t="shared" si="4"/>
+        <v>-1.6870768543200683</v>
+      </c>
+    </row>
+    <row r="312" spans="3:4">
+      <c r="C312">
+        <v>311</v>
+      </c>
+      <c r="D312">
+        <f t="shared" si="4"/>
+        <v>-1.6308718524422805</v>
+      </c>
+    </row>
+    <row r="313" spans="3:4">
+      <c r="C313">
+        <v>312</v>
+      </c>
+      <c r="D313">
+        <f t="shared" si="4"/>
+        <v>-1.574663710808244</v>
+      </c>
+    </row>
+    <row r="314" spans="3:4">
+      <c r="C314">
+        <v>313</v>
+      </c>
+      <c r="D314">
+        <f t="shared" si="4"/>
+        <v>-1.5184525373525442</v>
+      </c>
+    </row>
+    <row r="315" spans="3:4">
+      <c r="C315">
+        <v>314</v>
+      </c>
+      <c r="D315">
+        <f t="shared" si="4"/>
+        <v>-1.4622384400447548</v>
+      </c>
+    </row>
+    <row r="316" spans="3:4">
+      <c r="C316">
+        <v>315</v>
+      </c>
+      <c r="D316">
+        <f t="shared" si="4"/>
+        <v>-1.4060215268881979</v>
+      </c>
+    </row>
+    <row r="317" spans="3:4">
+      <c r="C317">
+        <v>316</v>
+      </c>
+      <c r="D317">
+        <f t="shared" si="4"/>
+        <v>-1.349801905918703</v>
+      </c>
+    </row>
+    <row r="318" spans="3:4">
+      <c r="C318">
+        <v>317</v>
+      </c>
+      <c r="D318">
+        <f t="shared" si="4"/>
+        <v>-1.2935796852033634</v>
+      </c>
+    </row>
+    <row r="319" spans="3:4">
+      <c r="C319">
+        <v>318</v>
+      </c>
+      <c r="D319">
+        <f t="shared" si="4"/>
+        <v>-1.2373549728392925</v>
+      </c>
+    </row>
+    <row r="320" spans="3:4">
+      <c r="C320">
+        <v>319</v>
+      </c>
+      <c r="D320">
+        <f t="shared" si="4"/>
+        <v>-1.181127876952381</v>
+      </c>
+    </row>
+    <row r="321" spans="3:4">
+      <c r="C321">
+        <v>320</v>
+      </c>
+      <c r="D321">
+        <f t="shared" si="4"/>
+        <v>-1.1248985056960497</v>
+      </c>
+    </row>
+    <row r="322" spans="3:4">
+      <c r="C322">
+        <v>321</v>
+      </c>
+      <c r="D322">
+        <f t="shared" si="4"/>
+        <v>-1.0686669672500058</v>
+      </c>
+    </row>
+    <row r="323" spans="3:4">
+      <c r="C323">
+        <v>322</v>
+      </c>
+      <c r="D323">
+        <f t="shared" ref="D323:D386" si="5">DEGREES(ATAN((C323-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>-1.0124333698189936</v>
+      </c>
+    </row>
+    <row r="324" spans="3:4">
+      <c r="C324">
+        <v>323</v>
+      </c>
+      <c r="D324">
+        <f t="shared" si="5"/>
+        <v>-0.95619782163154898</v>
+      </c>
+    </row>
+    <row r="325" spans="3:4">
+      <c r="C325">
+        <v>324</v>
+      </c>
+      <c r="D325">
+        <f t="shared" si="5"/>
+        <v>-0.89996043093875133</v>
+      </c>
+    </row>
+    <row r="326" spans="3:4">
+      <c r="C326">
+        <v>325</v>
+      </c>
+      <c r="D326">
+        <f t="shared" si="5"/>
+        <v>-0.84372130601297279</v>
+      </c>
+    </row>
+    <row r="327" spans="3:4">
+      <c r="C327">
+        <v>326</v>
+      </c>
+      <c r="D327">
+        <f t="shared" si="5"/>
+        <v>-0.78748055514663129</v>
+      </c>
+    </row>
+    <row r="328" spans="3:4">
+      <c r="C328">
+        <v>327</v>
+      </c>
+      <c r="D328">
+        <f t="shared" si="5"/>
+        <v>-0.73123828665093893</v>
+      </c>
+    </row>
+    <row r="329" spans="3:4">
+      <c r="C329">
+        <v>328</v>
+      </c>
+      <c r="D329">
+        <f t="shared" si="5"/>
+        <v>-0.67499460885465168</v>
+      </c>
+    </row>
+    <row r="330" spans="3:4">
+      <c r="C330">
+        <v>329</v>
+      </c>
+      <c r="D330">
+        <f t="shared" si="5"/>
+        <v>-0.61874963010281936</v>
+      </c>
+    </row>
+    <row r="331" spans="3:4">
+      <c r="C331">
+        <v>330</v>
+      </c>
+      <c r="D331">
+        <f t="shared" si="5"/>
+        <v>-0.56250345875553276</v>
+      </c>
+    </row>
+    <row r="332" spans="3:4">
+      <c r="C332">
+        <v>331</v>
+      </c>
+      <c r="D332">
+        <f t="shared" si="5"/>
+        <v>-0.50625620318667264</v>
+      </c>
+    </row>
+    <row r="333" spans="3:4">
+      <c r="C333">
+        <v>332</v>
+      </c>
+      <c r="D333">
+        <f t="shared" si="5"/>
+        <v>-0.45000797178265695</v>
+      </c>
+    </row>
+    <row r="334" spans="3:4">
+      <c r="C334">
+        <v>333</v>
+      </c>
+      <c r="D334">
+        <f t="shared" si="5"/>
+        <v>-0.39375887294118828</v>
+      </c>
+    </row>
+    <row r="335" spans="3:4">
+      <c r="C335">
+        <v>334</v>
+      </c>
+      <c r="D335">
+        <f t="shared" si="5"/>
+        <v>-0.33750901507000092</v>
+      </c>
+    </row>
+    <row r="336" spans="3:4">
+      <c r="C336">
+        <v>335</v>
+      </c>
+      <c r="D336">
+        <f t="shared" si="5"/>
+        <v>-0.28125850658560742</v>
+      </c>
+    </row>
+    <row r="337" spans="3:4">
+      <c r="C337">
+        <v>336</v>
+      </c>
+      <c r="D337">
+        <f t="shared" si="5"/>
+        <v>-0.22500745591204516</v>
+      </c>
+    </row>
+    <row r="338" spans="3:4">
+      <c r="C338">
+        <v>337</v>
+      </c>
+      <c r="D338">
+        <f t="shared" si="5"/>
+        <v>-0.16875597147962201</v>
+      </c>
+    </row>
+    <row r="339" spans="3:4">
+      <c r="C339">
+        <v>338</v>
+      </c>
+      <c r="D339">
+        <f t="shared" si="5"/>
+        <v>-0.11250416172366338</v>
+      </c>
+    </row>
+    <row r="340" spans="3:4">
+      <c r="C340">
+        <v>339</v>
+      </c>
+      <c r="D340">
+        <f t="shared" si="5"/>
+        <v>-5.6252135083257181E-2</v>
+      </c>
+    </row>
+    <row r="341" spans="3:4">
+      <c r="C341">
+        <v>340</v>
+      </c>
+      <c r="D341">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="3:4">
+      <c r="C342">
+        <v>341</v>
+      </c>
+      <c r="D342">
+        <f t="shared" si="5"/>
+        <v>5.6252135083257181E-2</v>
+      </c>
+    </row>
+    <row r="343" spans="3:4">
+      <c r="C343">
+        <v>342</v>
+      </c>
+      <c r="D343">
+        <f t="shared" si="5"/>
+        <v>0.11250416172366338</v>
+      </c>
+    </row>
+    <row r="344" spans="3:4">
+      <c r="C344">
+        <v>343</v>
+      </c>
+      <c r="D344">
+        <f t="shared" si="5"/>
+        <v>0.16875597147962201</v>
+      </c>
+    </row>
+    <row r="345" spans="3:4">
+      <c r="C345">
+        <v>344</v>
+      </c>
+      <c r="D345">
+        <f t="shared" si="5"/>
+        <v>0.22500745591204516</v>
+      </c>
+    </row>
+    <row r="346" spans="3:4">
+      <c r="C346">
+        <v>345</v>
+      </c>
+      <c r="D346">
+        <f t="shared" si="5"/>
+        <v>0.28125850658560742</v>
+      </c>
+    </row>
+    <row r="347" spans="3:4">
+      <c r="C347">
+        <v>346</v>
+      </c>
+      <c r="D347">
+        <f t="shared" si="5"/>
+        <v>0.33750901507000092</v>
+      </c>
+    </row>
+    <row r="348" spans="3:4">
+      <c r="C348">
+        <v>347</v>
+      </c>
+      <c r="D348">
+        <f t="shared" si="5"/>
+        <v>0.39375887294118828</v>
+      </c>
+    </row>
+    <row r="349" spans="3:4">
+      <c r="C349">
+        <v>348</v>
+      </c>
+      <c r="D349">
+        <f t="shared" si="5"/>
+        <v>0.45000797178265695</v>
+      </c>
+    </row>
+    <row r="350" spans="3:4">
+      <c r="C350">
+        <v>349</v>
+      </c>
+      <c r="D350">
+        <f t="shared" si="5"/>
+        <v>0.50625620318667264</v>
+      </c>
+    </row>
+    <row r="351" spans="3:4">
+      <c r="C351">
+        <v>350</v>
+      </c>
+      <c r="D351">
+        <f t="shared" si="5"/>
+        <v>0.56250345875553276</v>
+      </c>
+    </row>
+    <row r="352" spans="3:4">
+      <c r="C352">
+        <v>351</v>
+      </c>
+      <c r="D352">
+        <f t="shared" si="5"/>
+        <v>0.61874963010281936</v>
+      </c>
+    </row>
+    <row r="353" spans="3:4">
+      <c r="C353">
+        <v>352</v>
+      </c>
+      <c r="D353">
+        <f t="shared" si="5"/>
+        <v>0.67499460885465168</v>
+      </c>
+    </row>
+    <row r="354" spans="3:4">
+      <c r="C354">
+        <v>353</v>
+      </c>
+      <c r="D354">
+        <f t="shared" si="5"/>
+        <v>0.73123828665093893</v>
+      </c>
+    </row>
+    <row r="355" spans="3:4">
+      <c r="C355">
+        <v>354</v>
+      </c>
+      <c r="D355">
+        <f t="shared" si="5"/>
+        <v>0.78748055514663129</v>
+      </c>
+    </row>
+    <row r="356" spans="3:4">
+      <c r="C356">
+        <v>355</v>
+      </c>
+      <c r="D356">
+        <f t="shared" si="5"/>
+        <v>0.84372130601297279</v>
+      </c>
+    </row>
+    <row r="357" spans="3:4">
+      <c r="C357">
+        <v>356</v>
+      </c>
+      <c r="D357">
+        <f t="shared" si="5"/>
+        <v>0.89996043093875133</v>
+      </c>
+    </row>
+    <row r="358" spans="3:4">
+      <c r="C358">
+        <v>357</v>
+      </c>
+      <c r="D358">
+        <f t="shared" si="5"/>
+        <v>0.95619782163154898</v>
+      </c>
+    </row>
+    <row r="359" spans="3:4">
+      <c r="C359">
+        <v>358</v>
+      </c>
+      <c r="D359">
+        <f t="shared" si="5"/>
+        <v>1.0124333698189936</v>
+      </c>
+    </row>
+    <row r="360" spans="3:4">
+      <c r="C360">
+        <v>359</v>
+      </c>
+      <c r="D360">
+        <f t="shared" si="5"/>
+        <v>1.0686669672500058</v>
+      </c>
+    </row>
+    <row r="361" spans="3:4">
+      <c r="C361">
+        <v>360</v>
+      </c>
+      <c r="D361">
+        <f t="shared" si="5"/>
+        <v>1.1248985056960497</v>
+      </c>
+    </row>
+    <row r="362" spans="3:4">
+      <c r="C362">
+        <v>361</v>
+      </c>
+      <c r="D362">
+        <f t="shared" si="5"/>
+        <v>1.181127876952381</v>
+      </c>
+    </row>
+    <row r="363" spans="3:4">
+      <c r="C363">
+        <v>362</v>
+      </c>
+      <c r="D363">
+        <f t="shared" si="5"/>
+        <v>1.2373549728392925</v>
+      </c>
+    </row>
+    <row r="364" spans="3:4">
+      <c r="C364">
+        <v>363</v>
+      </c>
+      <c r="D364">
+        <f t="shared" si="5"/>
+        <v>1.2935796852033634</v>
+      </c>
+    </row>
+    <row r="365" spans="3:4">
+      <c r="C365">
+        <v>364</v>
+      </c>
+      <c r="D365">
+        <f t="shared" si="5"/>
+        <v>1.349801905918703</v>
+      </c>
+    </row>
+    <row r="366" spans="3:4">
+      <c r="C366">
+        <v>365</v>
+      </c>
+      <c r="D366">
+        <f t="shared" si="5"/>
+        <v>1.4060215268881979</v>
+      </c>
+    </row>
+    <row r="367" spans="3:4">
+      <c r="C367">
+        <v>366</v>
+      </c>
+      <c r="D367">
+        <f t="shared" si="5"/>
+        <v>1.4622384400447548</v>
+      </c>
+    </row>
+    <row r="368" spans="3:4">
+      <c r="C368">
+        <v>367</v>
+      </c>
+      <c r="D368">
+        <f t="shared" si="5"/>
+        <v>1.5184525373525442</v>
+      </c>
+    </row>
+    <row r="369" spans="3:4">
+      <c r="C369">
+        <v>368</v>
+      </c>
+      <c r="D369">
+        <f t="shared" si="5"/>
+        <v>1.574663710808244</v>
+      </c>
+    </row>
+    <row r="370" spans="3:4">
+      <c r="C370">
+        <v>369</v>
+      </c>
+      <c r="D370">
+        <f t="shared" si="5"/>
+        <v>1.6308718524422805</v>
+      </c>
+    </row>
+    <row r="371" spans="3:4">
+      <c r="C371">
+        <v>370</v>
+      </c>
+      <c r="D371">
+        <f t="shared" si="5"/>
+        <v>1.6870768543200683</v>
+      </c>
+    </row>
+    <row r="372" spans="3:4">
+      <c r="C372">
+        <v>371</v>
+      </c>
+      <c r="D372">
+        <f t="shared" si="5"/>
+        <v>1.7432786085432512</v>
+      </c>
+    </row>
+    <row r="373" spans="3:4">
+      <c r="C373">
+        <v>372</v>
+      </c>
+      <c r="D373">
+        <f t="shared" si="5"/>
+        <v>1.7994770072509403</v>
+      </c>
+    </row>
+    <row r="374" spans="3:4">
+      <c r="C374">
+        <v>373</v>
+      </c>
+      <c r="D374">
+        <f t="shared" si="5"/>
+        <v>1.8556719426209509</v>
+      </c>
+    </row>
+    <row r="375" spans="3:4">
+      <c r="C375">
+        <v>374</v>
+      </c>
+      <c r="D375">
+        <f t="shared" si="5"/>
+        <v>1.9118633068710411</v>
+      </c>
+    </row>
+    <row r="376" spans="3:4">
+      <c r="C376">
+        <v>375</v>
+      </c>
+      <c r="D376">
+        <f t="shared" si="5"/>
+        <v>1.9680509922601428</v>
+      </c>
+    </row>
+    <row r="377" spans="3:4">
+      <c r="C377">
+        <v>376</v>
+      </c>
+      <c r="D377">
+        <f t="shared" si="5"/>
+        <v>2.0242348910896024</v>
+      </c>
+    </row>
+    <row r="378" spans="3:4">
+      <c r="C378">
+        <v>377</v>
+      </c>
+      <c r="D378">
+        <f t="shared" si="5"/>
+        <v>2.0804148957044064</v>
+      </c>
+    </row>
+    <row r="379" spans="3:4">
+      <c r="C379">
+        <v>378</v>
+      </c>
+      <c r="D379">
+        <f t="shared" si="5"/>
+        <v>2.1365908984944166</v>
+      </c>
+    </row>
+    <row r="380" spans="3:4">
+      <c r="C380">
+        <v>379</v>
+      </c>
+      <c r="D380">
+        <f t="shared" si="5"/>
+        <v>2.192762791895603</v>
+      </c>
+    </row>
+    <row r="381" spans="3:4">
+      <c r="C381">
+        <v>380</v>
+      </c>
+      <c r="D381">
+        <f t="shared" si="5"/>
+        <v>2.2489304683912668</v>
+      </c>
+    </row>
+    <row r="382" spans="3:4">
+      <c r="C382">
+        <v>381</v>
+      </c>
+      <c r="D382">
+        <f t="shared" si="5"/>
+        <v>2.3050938205132732</v>
+      </c>
+    </row>
+    <row r="383" spans="3:4">
+      <c r="C383">
+        <v>382</v>
+      </c>
+      <c r="D383">
+        <f t="shared" si="5"/>
+        <v>2.3612527408432751</v>
+      </c>
+    </row>
+    <row r="384" spans="3:4">
+      <c r="C384">
+        <v>383</v>
+      </c>
+      <c r="D384">
+        <f t="shared" si="5"/>
+        <v>2.4174071220139379</v>
+      </c>
+    </row>
+    <row r="385" spans="3:4">
+      <c r="C385">
+        <v>384</v>
+      </c>
+      <c r="D385">
+        <f t="shared" si="5"/>
+        <v>2.4735568567101649</v>
+      </c>
+    </row>
+    <row r="386" spans="3:4">
+      <c r="C386">
+        <v>385</v>
+      </c>
+      <c r="D386">
+        <f t="shared" si="5"/>
+        <v>2.5297018376703155</v>
+      </c>
+    </row>
+    <row r="387" spans="3:4">
+      <c r="C387">
+        <v>386</v>
+      </c>
+      <c r="D387">
+        <f t="shared" ref="D387:D450" si="6">DEGREES(ATAN((C387-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>2.5858419576874292</v>
+      </c>
+    </row>
+    <row r="388" spans="3:4">
+      <c r="C388">
+        <v>387</v>
+      </c>
+      <c r="D388">
+        <f t="shared" si="6"/>
+        <v>2.6419771096104427</v>
+      </c>
+    </row>
+    <row r="389" spans="3:4">
+      <c r="C389">
+        <v>388</v>
+      </c>
+      <c r="D389">
+        <f t="shared" si="6"/>
+        <v>2.6981071863454069</v>
+      </c>
+    </row>
+    <row r="390" spans="3:4">
+      <c r="C390">
+        <v>389</v>
+      </c>
+      <c r="D390">
+        <f t="shared" si="6"/>
+        <v>2.7542320808567022</v>
+      </c>
+    </row>
+    <row r="391" spans="3:4">
+      <c r="C391">
+        <v>390</v>
+      </c>
+      <c r="D391">
+        <f t="shared" si="6"/>
+        <v>2.810351686168254</v>
+      </c>
+    </row>
+    <row r="392" spans="3:4">
+      <c r="C392">
+        <v>391</v>
+      </c>
+      <c r="D392">
+        <f t="shared" si="6"/>
+        <v>2.8664658953647426</v>
+      </c>
+    </row>
+    <row r="393" spans="3:4">
+      <c r="C393">
+        <v>392</v>
+      </c>
+      <c r="D393">
+        <f t="shared" si="6"/>
+        <v>2.9225746015928142</v>
+      </c>
+    </row>
+    <row r="394" spans="3:4">
+      <c r="C394">
+        <v>393</v>
+      </c>
+      <c r="D394">
+        <f t="shared" si="6"/>
+        <v>2.9786776980622904</v>
+      </c>
+    </row>
+    <row r="395" spans="3:4">
+      <c r="C395">
+        <v>394</v>
+      </c>
+      <c r="D395">
+        <f t="shared" si="6"/>
+        <v>3.0347750780473755</v>
+      </c>
+    </row>
+    <row r="396" spans="3:4">
+      <c r="C396">
+        <v>395</v>
+      </c>
+      <c r="D396">
+        <f t="shared" si="6"/>
+        <v>3.0908666348878588</v>
+      </c>
+    </row>
+    <row r="397" spans="3:4">
+      <c r="C397">
+        <v>396</v>
+      </c>
+      <c r="D397">
+        <f t="shared" si="6"/>
+        <v>3.1469522619903212</v>
+      </c>
+    </row>
+    <row r="398" spans="3:4">
+      <c r="C398">
+        <v>397</v>
+      </c>
+      <c r="D398">
+        <f t="shared" si="6"/>
+        <v>3.2030318528293322</v>
+      </c>
+    </row>
+    <row r="399" spans="3:4">
+      <c r="C399">
+        <v>398</v>
+      </c>
+      <c r="D399">
+        <f t="shared" si="6"/>
+        <v>3.259105300948653</v>
+      </c>
+    </row>
+    <row r="400" spans="3:4">
+      <c r="C400">
+        <v>399</v>
+      </c>
+      <c r="D400">
+        <f t="shared" si="6"/>
+        <v>3.3151724999624328</v>
+      </c>
+    </row>
+    <row r="401" spans="3:4">
+      <c r="C401">
+        <v>400</v>
+      </c>
+      <c r="D401">
+        <f t="shared" si="6"/>
+        <v>3.3712333435564008</v>
+      </c>
+    </row>
+    <row r="402" spans="3:4">
+      <c r="C402">
+        <v>401</v>
+      </c>
+      <c r="D402">
+        <f t="shared" si="6"/>
+        <v>3.4272877254890659</v>
+      </c>
+    </row>
+    <row r="403" spans="3:4">
+      <c r="C403">
+        <v>402</v>
+      </c>
+      <c r="D403">
+        <f t="shared" si="6"/>
+        <v>3.4833355395929018</v>
+      </c>
+    </row>
+    <row r="404" spans="3:4">
+      <c r="C404">
+        <v>403</v>
+      </c>
+      <c r="D404">
+        <f t="shared" si="6"/>
+        <v>3.5393766797755375</v>
+      </c>
+    </row>
+    <row r="405" spans="3:4">
+      <c r="C405">
+        <v>404</v>
+      </c>
+      <c r="D405">
+        <f t="shared" si="6"/>
+        <v>3.5954110400209478</v>
+      </c>
+    </row>
+    <row r="406" spans="3:4">
+      <c r="C406">
+        <v>405</v>
+      </c>
+      <c r="D406">
+        <f t="shared" si="6"/>
+        <v>3.6514385143906325</v>
+      </c>
+    </row>
+    <row r="407" spans="3:4">
+      <c r="C407">
+        <v>406</v>
+      </c>
+      <c r="D407">
+        <f t="shared" si="6"/>
+        <v>3.7074589970248018</v>
+      </c>
+    </row>
+    <row r="408" spans="3:4">
+      <c r="C408">
+        <v>407</v>
+      </c>
+      <c r="D408">
+        <f t="shared" si="6"/>
+        <v>3.7634723821435601</v>
+      </c>
+    </row>
+    <row r="409" spans="3:4">
+      <c r="C409">
+        <v>408</v>
+      </c>
+      <c r="D409">
+        <f t="shared" si="6"/>
+        <v>3.8194785640480737</v>
+      </c>
+    </row>
+    <row r="410" spans="3:4">
+      <c r="C410">
+        <v>409</v>
+      </c>
+      <c r="D410">
+        <f t="shared" si="6"/>
+        <v>3.8754774371217606</v>
+      </c>
+    </row>
+    <row r="411" spans="3:4">
+      <c r="C411">
+        <v>410</v>
+      </c>
+      <c r="D411">
+        <f t="shared" si="6"/>
+        <v>3.9314688958314501</v>
+      </c>
+    </row>
+    <row r="412" spans="3:4">
+      <c r="C412">
+        <v>411</v>
+      </c>
+      <c r="D412">
+        <f t="shared" si="6"/>
+        <v>3.9874528347285647</v>
+      </c>
+    </row>
+    <row r="413" spans="3:4">
+      <c r="C413">
+        <v>412</v>
+      </c>
+      <c r="D413">
+        <f t="shared" si="6"/>
+        <v>4.0434291484502802</v>
+      </c>
+    </row>
+    <row r="414" spans="3:4">
+      <c r="C414">
+        <v>413</v>
+      </c>
+      <c r="D414">
+        <f t="shared" si="6"/>
+        <v>4.0993977317207007</v>
+      </c>
+    </row>
+    <row r="415" spans="3:4">
+      <c r="C415">
+        <v>414</v>
+      </c>
+      <c r="D415">
+        <f t="shared" si="6"/>
+        <v>4.1553584793520129</v>
+      </c>
+    </row>
+    <row r="416" spans="3:4">
+      <c r="C416">
+        <v>415</v>
+      </c>
+      <c r="D416">
+        <f t="shared" si="6"/>
+        <v>4.2113112862456523</v>
+      </c>
+    </row>
+    <row r="417" spans="3:4">
+      <c r="C417">
+        <v>416</v>
+      </c>
+      <c r="D417">
+        <f t="shared" si="6"/>
+        <v>4.267256047393464</v>
+      </c>
+    </row>
+    <row r="418" spans="3:4">
+      <c r="C418">
+        <v>417</v>
+      </c>
+      <c r="D418">
+        <f t="shared" si="6"/>
+        <v>4.323192657878856</v>
+      </c>
+    </row>
+    <row r="419" spans="3:4">
+      <c r="C419">
+        <v>418</v>
+      </c>
+      <c r="D419">
+        <f t="shared" si="6"/>
+        <v>4.3791210128779516</v>
+      </c>
+    </row>
+    <row r="420" spans="3:4">
+      <c r="C420">
+        <v>419</v>
+      </c>
+      <c r="D420">
+        <f t="shared" si="6"/>
+        <v>4.4350410076607423</v>
+      </c>
+    </row>
+    <row r="421" spans="3:4">
+      <c r="C421">
+        <v>420</v>
+      </c>
+      <c r="D421">
+        <f t="shared" si="6"/>
+        <v>4.4909525375922348</v>
+      </c>
+    </row>
+    <row r="422" spans="3:4">
+      <c r="C422">
+        <v>421</v>
+      </c>
+      <c r="D422">
+        <f t="shared" si="6"/>
+        <v>4.5468554981336</v>
+      </c>
+    </row>
+    <row r="423" spans="3:4">
+      <c r="C423">
+        <v>422</v>
+      </c>
+      <c r="D423">
+        <f t="shared" si="6"/>
+        <v>4.6027497848433105</v>
+      </c>
+    </row>
+    <row r="424" spans="3:4">
+      <c r="C424">
+        <v>423</v>
+      </c>
+      <c r="D424">
+        <f t="shared" si="6"/>
+        <v>4.6586352933782864</v>
+      </c>
+    </row>
+    <row r="425" spans="3:4">
+      <c r="C425">
+        <v>424</v>
+      </c>
+      <c r="D425">
+        <f t="shared" si="6"/>
+        <v>4.7145119194950267</v>
+      </c>
+    </row>
+    <row r="426" spans="3:4">
+      <c r="C426">
+        <v>425</v>
+      </c>
+      <c r="D426">
+        <f t="shared" si="6"/>
+        <v>4.7703795590507498</v>
+      </c>
+    </row>
+    <row r="427" spans="3:4">
+      <c r="C427">
+        <v>426</v>
+      </c>
+      <c r="D427">
+        <f t="shared" si="6"/>
+        <v>4.8262381080045218</v>
+      </c>
+    </row>
+    <row r="428" spans="3:4">
+      <c r="C428">
+        <v>427</v>
+      </c>
+      <c r="D428">
+        <f t="shared" si="6"/>
+        <v>4.8820874624183874</v>
+      </c>
+    </row>
+    <row r="429" spans="3:4">
+      <c r="C429">
+        <v>428</v>
+      </c>
+      <c r="D429">
+        <f t="shared" si="6"/>
+        <v>4.9379275184584923</v>
+      </c>
+    </row>
+    <row r="430" spans="3:4">
+      <c r="C430">
+        <v>429</v>
+      </c>
+      <c r="D430">
+        <f t="shared" si="6"/>
+        <v>4.9937581723962108</v>
+      </c>
+    </row>
+    <row r="431" spans="3:4">
+      <c r="C431">
+        <v>430</v>
+      </c>
+      <c r="D431">
+        <f t="shared" si="6"/>
+        <v>5.0495793206092632</v>
+      </c>
+    </row>
+    <row r="432" spans="3:4">
+      <c r="C432">
+        <v>431</v>
+      </c>
+      <c r="D432">
+        <f t="shared" si="6"/>
+        <v>5.1053908595828323</v>
+      </c>
+    </row>
+    <row r="433" spans="3:4">
+      <c r="C433">
+        <v>432</v>
+      </c>
+      <c r="D433">
+        <f t="shared" si="6"/>
+        <v>5.1611926859106827</v>
+      </c>
+    </row>
+    <row r="434" spans="3:4">
+      <c r="C434">
+        <v>433</v>
+      </c>
+      <c r="D434">
+        <f t="shared" si="6"/>
+        <v>5.2169846962962652</v>
+      </c>
+    </row>
+    <row r="435" spans="3:4">
+      <c r="C435">
+        <v>434</v>
+      </c>
+      <c r="D435">
+        <f t="shared" si="6"/>
+        <v>5.27276678755383</v>
+      </c>
+    </row>
+    <row r="436" spans="3:4">
+      <c r="C436">
+        <v>435</v>
+      </c>
+      <c r="D436">
+        <f t="shared" si="6"/>
+        <v>5.3285388566095264</v>
+      </c>
+    </row>
+    <row r="437" spans="3:4">
+      <c r="C437">
+        <v>436</v>
+      </c>
+      <c r="D437">
+        <f t="shared" si="6"/>
+        <v>5.3843008005025119</v>
+      </c>
+    </row>
+    <row r="438" spans="3:4">
+      <c r="C438">
+        <v>437</v>
+      </c>
+      <c r="D438">
+        <f t="shared" si="6"/>
+        <v>5.4400525163860438</v>
+      </c>
+    </row>
+    <row r="439" spans="3:4">
+      <c r="C439">
+        <v>438</v>
+      </c>
+      <c r="D439">
+        <f t="shared" si="6"/>
+        <v>5.4957939015285797</v>
+      </c>
+    </row>
+    <row r="440" spans="3:4">
+      <c r="C440">
+        <v>439</v>
+      </c>
+      <c r="D440">
+        <f t="shared" si="6"/>
+        <v>5.5515248533148673</v>
+      </c>
+    </row>
+    <row r="441" spans="3:4">
+      <c r="C441">
+        <v>440</v>
+      </c>
+      <c r="D441">
+        <f t="shared" si="6"/>
+        <v>5.6072452692470343</v>
+      </c>
+    </row>
+    <row r="442" spans="3:4">
+      <c r="C442">
+        <v>441</v>
+      </c>
+      <c r="D442">
+        <f t="shared" si="6"/>
+        <v>5.6629550469456742</v>
+      </c>
+    </row>
+    <row r="443" spans="3:4">
+      <c r="C443">
+        <v>442</v>
+      </c>
+      <c r="D443">
+        <f t="shared" si="6"/>
+        <v>5.7186540841509279</v>
+      </c>
+    </row>
+    <row r="444" spans="3:4">
+      <c r="C444">
+        <v>443</v>
+      </c>
+      <c r="D444">
+        <f t="shared" si="6"/>
+        <v>5.7743422787235659</v>
+      </c>
+    </row>
+    <row r="445" spans="3:4">
+      <c r="C445">
+        <v>444</v>
+      </c>
+      <c r="D445">
+        <f t="shared" si="6"/>
+        <v>5.8300195286460612</v>
+      </c>
+    </row>
+    <row r="446" spans="3:4">
+      <c r="C446">
+        <v>445</v>
+      </c>
+      <c r="D446">
+        <f t="shared" si="6"/>
+        <v>5.88568573202366</v>
+      </c>
+    </row>
+    <row r="447" spans="3:4">
+      <c r="C447">
+        <v>446</v>
+      </c>
+      <c r="D447">
+        <f t="shared" si="6"/>
+        <v>5.9413407870854602</v>
+      </c>
+    </row>
+    <row r="448" spans="3:4">
+      <c r="C448">
+        <v>447</v>
+      </c>
+      <c r="D448">
+        <f t="shared" si="6"/>
+        <v>5.9969845921854645</v>
+      </c>
+    </row>
+    <row r="449" spans="3:4">
+      <c r="C449">
+        <v>448</v>
+      </c>
+      <c r="D449">
+        <f t="shared" si="6"/>
+        <v>6.0526170458036512</v>
+      </c>
+    </row>
+    <row r="450" spans="3:4">
+      <c r="C450">
+        <v>449</v>
+      </c>
+      <c r="D450">
+        <f t="shared" si="6"/>
+        <v>6.1082380465470294</v>
+      </c>
+    </row>
+    <row r="451" spans="3:4">
+      <c r="C451">
+        <v>450</v>
+      </c>
+      <c r="D451">
+        <f t="shared" ref="D451:D514" si="7">DEGREES(ATAN((C451-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>6.1638474931506959</v>
+      </c>
+    </row>
+    <row r="452" spans="3:4">
+      <c r="C452">
+        <v>451</v>
+      </c>
+      <c r="D452">
+        <f t="shared" si="7"/>
+        <v>6.2194452844788897</v>
+      </c>
+    </row>
+    <row r="453" spans="3:4">
+      <c r="C453">
+        <v>452</v>
+      </c>
+      <c r="D453">
+        <f t="shared" si="7"/>
+        <v>6.2750313195260299</v>
+      </c>
+    </row>
+    <row r="454" spans="3:4">
+      <c r="C454">
+        <v>453</v>
+      </c>
+      <c r="D454">
+        <f t="shared" si="7"/>
+        <v>6.3306054974177739</v>
+      </c>
+    </row>
+    <row r="455" spans="3:4">
+      <c r="C455">
+        <v>454</v>
+      </c>
+      <c r="D455">
+        <f t="shared" si="7"/>
+        <v>6.3861677174120501</v>
+      </c>
+    </row>
+    <row r="456" spans="3:4">
+      <c r="C456">
+        <v>455</v>
+      </c>
+      <c r="D456">
+        <f t="shared" si="7"/>
+        <v>6.4417178789000955</v>
+      </c>
+    </row>
+    <row r="457" spans="3:4">
+      <c r="C457">
+        <v>456</v>
+      </c>
+      <c r="D457">
+        <f t="shared" si="7"/>
+        <v>6.4972558814074928</v>
+      </c>
+    </row>
+    <row r="458" spans="3:4">
+      <c r="C458">
+        <v>457</v>
+      </c>
+      <c r="D458">
+        <f t="shared" si="7"/>
+        <v>6.5527816245951973</v>
+      </c>
+    </row>
+    <row r="459" spans="3:4">
+      <c r="C459">
+        <v>458</v>
+      </c>
+      <c r="D459">
+        <f t="shared" si="7"/>
+        <v>6.6082950082605683</v>
+      </c>
+    </row>
+    <row r="460" spans="3:4">
+      <c r="C460">
+        <v>459</v>
+      </c>
+      <c r="D460">
+        <f t="shared" si="7"/>
+        <v>6.6637959323383837</v>
+      </c>
+    </row>
+    <row r="461" spans="3:4">
+      <c r="C461">
+        <v>460</v>
+      </c>
+      <c r="D461">
+        <f t="shared" si="7"/>
+        <v>6.719284296901864</v>
+      </c>
+    </row>
+    <row r="462" spans="3:4">
+      <c r="C462">
+        <v>461</v>
+      </c>
+      <c r="D462">
+        <f t="shared" si="7"/>
+        <v>6.7747600021636929</v>
+      </c>
+    </row>
+    <row r="463" spans="3:4">
+      <c r="C463">
+        <v>462</v>
+      </c>
+      <c r="D463">
+        <f t="shared" si="7"/>
+        <v>6.8302229484770161</v>
+      </c>
+    </row>
+    <row r="464" spans="3:4">
+      <c r="C464">
+        <v>463</v>
+      </c>
+      <c r="D464">
+        <f t="shared" si="7"/>
+        <v>6.8856730363364553</v>
+      </c>
+    </row>
+    <row r="465" spans="3:4">
+      <c r="C465">
+        <v>464</v>
+      </c>
+      <c r="D465">
+        <f t="shared" si="7"/>
+        <v>6.9411101663791159</v>
+      </c>
+    </row>
+    <row r="466" spans="3:4">
+      <c r="C466">
+        <v>465</v>
+      </c>
+      <c r="D466">
+        <f t="shared" si="7"/>
+        <v>6.9965342393855794</v>
+      </c>
+    </row>
+    <row r="467" spans="3:4">
+      <c r="C467">
+        <v>466</v>
+      </c>
+      <c r="D467">
+        <f t="shared" si="7"/>
+        <v>7.0519451562809046</v>
+      </c>
+    </row>
+    <row r="468" spans="3:4">
+      <c r="C468">
+        <v>467</v>
+      </c>
+      <c r="D468">
+        <f t="shared" si="7"/>
+        <v>7.1073428181356162</v>
+      </c>
+    </row>
+    <row r="469" spans="3:4">
+      <c r="C469">
+        <v>468</v>
+      </c>
+      <c r="D469">
+        <f t="shared" si="7"/>
+        <v>7.1627271261666952</v>
+      </c>
+    </row>
+    <row r="470" spans="3:4">
+      <c r="C470">
+        <v>469</v>
+      </c>
+      <c r="D470">
+        <f t="shared" si="7"/>
+        <v>7.2180979817385618</v>
+      </c>
+    </row>
+    <row r="471" spans="3:4">
+      <c r="C471">
+        <v>470</v>
+      </c>
+      <c r="D471">
+        <f t="shared" si="7"/>
+        <v>7.2734552863640536</v>
+      </c>
+    </row>
+    <row r="472" spans="3:4">
+      <c r="C472">
+        <v>471</v>
+      </c>
+      <c r="D472">
+        <f t="shared" si="7"/>
+        <v>7.3287989417054078</v>
+      </c>
+    </row>
+    <row r="473" spans="3:4">
+      <c r="C473">
+        <v>472</v>
+      </c>
+      <c r="D473">
+        <f t="shared" si="7"/>
+        <v>7.3841288495752249</v>
+      </c>
+    </row>
+    <row r="474" spans="3:4">
+      <c r="C474">
+        <v>473</v>
+      </c>
+      <c r="D474">
+        <f t="shared" si="7"/>
+        <v>7.4394449119374482</v>
+      </c>
+    </row>
+    <row r="475" spans="3:4">
+      <c r="C475">
+        <v>474</v>
+      </c>
+      <c r="D475">
+        <f t="shared" si="7"/>
+        <v>7.4947470309083108</v>
+      </c>
+    </row>
+    <row r="476" spans="3:4">
+      <c r="C476">
+        <v>475</v>
+      </c>
+      <c r="D476">
+        <f t="shared" si="7"/>
+        <v>7.550035108757311</v>
+      </c>
+    </row>
+    <row r="477" spans="3:4">
+      <c r="C477">
+        <v>476</v>
+      </c>
+      <c r="D477">
+        <f t="shared" si="7"/>
+        <v>7.6053090479081638</v>
+      </c>
+    </row>
+    <row r="478" spans="3:4">
+      <c r="C478">
+        <v>477</v>
+      </c>
+      <c r="D478">
+        <f t="shared" si="7"/>
+        <v>7.6605687509397464</v>
+      </c>
+    </row>
+    <row r="479" spans="3:4">
+      <c r="C479">
+        <v>478</v>
+      </c>
+      <c r="D479">
+        <f t="shared" si="7"/>
+        <v>7.7158141205870541</v>
+      </c>
+    </row>
+    <row r="480" spans="3:4">
+      <c r="C480">
+        <v>479</v>
+      </c>
+      <c r="D480">
+        <f t="shared" si="7"/>
+        <v>7.7710450597421383</v>
+      </c>
+    </row>
+    <row r="481" spans="3:4">
+      <c r="C481">
+        <v>480</v>
+      </c>
+      <c r="D481">
+        <f t="shared" si="7"/>
+        <v>7.8262614714550471</v>
+      </c>
+    </row>
+    <row r="482" spans="3:4">
+      <c r="C482">
+        <v>481</v>
+      </c>
+      <c r="D482">
+        <f t="shared" si="7"/>
+        <v>7.88146325893476</v>
+      </c>
+    </row>
+    <row r="483" spans="3:4">
+      <c r="C483">
+        <v>482</v>
+      </c>
+      <c r="D483">
+        <f t="shared" si="7"/>
+        <v>7.9366503255501213</v>
+      </c>
+    </row>
+    <row r="484" spans="3:4">
+      <c r="C484">
+        <v>483</v>
+      </c>
+      <c r="D484">
+        <f t="shared" si="7"/>
+        <v>7.9918225748307563</v>
+      </c>
+    </row>
+    <row r="485" spans="3:4">
+      <c r="C485">
+        <v>484</v>
+      </c>
+      <c r="D485">
+        <f t="shared" si="7"/>
+        <v>8.0469799104680089</v>
+      </c>
+    </row>
+    <row r="486" spans="3:4">
+      <c r="C486">
+        <v>485</v>
+      </c>
+      <c r="D486">
+        <f t="shared" si="7"/>
+        <v>8.10212223631585</v>
+      </c>
+    </row>
+    <row r="487" spans="3:4">
+      <c r="C487">
+        <v>486</v>
+      </c>
+      <c r="D487">
+        <f t="shared" si="7"/>
+        <v>8.1572494563917921</v>
+      </c>
+    </row>
+    <row r="488" spans="3:4">
+      <c r="C488">
+        <v>487</v>
+      </c>
+      <c r="D488">
+        <f t="shared" si="7"/>
+        <v>8.2123614748777953</v>
+      </c>
+    </row>
+    <row r="489" spans="3:4">
+      <c r="C489">
+        <v>488</v>
+      </c>
+      <c r="D489">
+        <f t="shared" si="7"/>
+        <v>8.2674581961211775</v>
+      </c>
+    </row>
+    <row r="490" spans="3:4">
+      <c r="C490">
+        <v>489</v>
+      </c>
+      <c r="D490">
+        <f t="shared" si="7"/>
+        <v>8.3225395246355163</v>
+      </c>
+    </row>
+    <row r="491" spans="3:4">
+      <c r="C491">
+        <v>490</v>
+      </c>
+      <c r="D491">
+        <f t="shared" si="7"/>
+        <v>8.377605365101541</v>
+      </c>
+    </row>
+    <row r="492" spans="3:4">
+      <c r="C492">
+        <v>491</v>
+      </c>
+      <c r="D492">
+        <f t="shared" si="7"/>
+        <v>8.4326556223680189</v>
+      </c>
+    </row>
+    <row r="493" spans="3:4">
+      <c r="C493">
+        <v>492</v>
+      </c>
+      <c r="D493">
+        <f t="shared" si="7"/>
+        <v>8.4876902014526561</v>
+      </c>
+    </row>
+    <row r="494" spans="3:4">
+      <c r="C494">
+        <v>493</v>
+      </c>
+      <c r="D494">
+        <f t="shared" si="7"/>
+        <v>8.542709007542971</v>
+      </c>
+    </row>
+    <row r="495" spans="3:4">
+      <c r="C495">
+        <v>494</v>
+      </c>
+      <c r="D495">
+        <f t="shared" si="7"/>
+        <v>8.5977119459971725</v>
+      </c>
+    </row>
+    <row r="496" spans="3:4">
+      <c r="C496">
+        <v>495</v>
+      </c>
+      <c r="D496">
+        <f t="shared" si="7"/>
+        <v>8.6526989223450368</v>
+      </c>
+    </row>
+    <row r="497" spans="3:4">
+      <c r="C497">
+        <v>496</v>
+      </c>
+      <c r="D497">
+        <f t="shared" si="7"/>
+        <v>8.7076698422887802</v>
+      </c>
+    </row>
+    <row r="498" spans="3:4">
+      <c r="C498">
+        <v>497</v>
+      </c>
+      <c r="D498">
+        <f t="shared" si="7"/>
+        <v>8.7626246117039113</v>
+      </c>
+    </row>
+    <row r="499" spans="3:4">
+      <c r="C499">
+        <v>498</v>
+      </c>
+      <c r="D499">
+        <f t="shared" si="7"/>
+        <v>8.8175631366401053</v>
+      </c>
+    </row>
+    <row r="500" spans="3:4">
+      <c r="C500">
+        <v>499</v>
+      </c>
+      <c r="D500">
+        <f t="shared" si="7"/>
+        <v>8.8724853233220546</v>
+      </c>
+    </row>
+    <row r="501" spans="3:4">
+      <c r="C501">
+        <v>500</v>
+      </c>
+      <c r="D501">
+        <f t="shared" si="7"/>
+        <v>8.9273910781503165</v>
+      </c>
+    </row>
+    <row r="502" spans="3:4">
+      <c r="C502">
+        <v>501</v>
+      </c>
+      <c r="D502">
+        <f t="shared" si="7"/>
+        <v>8.9822803077021689</v>
+      </c>
+    </row>
+    <row r="503" spans="3:4">
+      <c r="C503">
+        <v>502</v>
+      </c>
+      <c r="D503">
+        <f t="shared" si="7"/>
+        <v>9.0371529187324366</v>
+      </c>
+    </row>
+    <row r="504" spans="3:4">
+      <c r="C504">
+        <v>503</v>
+      </c>
+      <c r="D504">
+        <f t="shared" si="7"/>
+        <v>9.0920088181743495</v>
+      </c>
+    </row>
+    <row r="505" spans="3:4">
+      <c r="C505">
+        <v>504</v>
+      </c>
+      <c r="D505">
+        <f t="shared" si="7"/>
+        <v>9.1468479131403591</v>
+      </c>
+    </row>
+    <row r="506" spans="3:4">
+      <c r="C506">
+        <v>505</v>
+      </c>
+      <c r="D506">
+        <f t="shared" si="7"/>
+        <v>9.2016701109229704</v>
+      </c>
+    </row>
+    <row r="507" spans="3:4">
+      <c r="C507">
+        <v>506</v>
+      </c>
+      <c r="D507">
+        <f t="shared" si="7"/>
+        <v>9.2564753189955731</v>
+      </c>
+    </row>
+    <row r="508" spans="3:4">
+      <c r="C508">
+        <v>507</v>
+      </c>
+      <c r="D508">
+        <f t="shared" si="7"/>
+        <v>9.3112634450132532</v>
+      </c>
+    </row>
+    <row r="509" spans="3:4">
+      <c r="C509">
+        <v>508</v>
+      </c>
+      <c r="D509">
+        <f t="shared" si="7"/>
+        <v>9.3660343968136015</v>
+      </c>
+    </row>
+    <row r="510" spans="3:4">
+      <c r="C510">
+        <v>509</v>
+      </c>
+      <c r="D510">
+        <f t="shared" si="7"/>
+        <v>9.4207880824175412</v>
+      </c>
+    </row>
+    <row r="511" spans="3:4">
+      <c r="C511">
+        <v>510</v>
+      </c>
+      <c r="D511">
+        <f t="shared" si="7"/>
+        <v>9.4755244100301166</v>
+      </c>
+    </row>
+    <row r="512" spans="3:4">
+      <c r="C512">
+        <v>511</v>
+      </c>
+      <c r="D512">
+        <f t="shared" si="7"/>
+        <v>9.5302432880412979</v>
+      </c>
+    </row>
+    <row r="513" spans="3:4">
+      <c r="C513">
+        <v>512</v>
+      </c>
+      <c r="D513">
+        <f t="shared" si="7"/>
+        <v>9.5849446250267789</v>
+      </c>
+    </row>
+    <row r="514" spans="3:4">
+      <c r="C514">
+        <v>513</v>
+      </c>
+      <c r="D514">
+        <f t="shared" si="7"/>
+        <v>9.6396283297487688</v>
+      </c>
+    </row>
+    <row r="515" spans="3:4">
+      <c r="C515">
+        <v>514</v>
+      </c>
+      <c r="D515">
+        <f t="shared" ref="D515:D578" si="8">DEGREES(ATAN((C515-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>9.6942943111567708</v>
+      </c>
+    </row>
+    <row r="516" spans="3:4">
+      <c r="C516">
+        <v>515</v>
+      </c>
+      <c r="D516">
+        <f t="shared" si="8"/>
+        <v>9.7489424783883667</v>
+      </c>
+    </row>
+    <row r="517" spans="3:4">
+      <c r="C517">
+        <v>516</v>
+      </c>
+      <c r="D517">
+        <f t="shared" si="8"/>
+        <v>9.8035727407699991</v>
+      </c>
+    </row>
+    <row r="518" spans="3:4">
+      <c r="C518">
+        <v>517</v>
+      </c>
+      <c r="D518">
+        <f t="shared" si="8"/>
+        <v>9.8581850078177364</v>
+      </c>
+    </row>
+    <row r="519" spans="3:4">
+      <c r="C519">
+        <v>518</v>
+      </c>
+      <c r="D519">
+        <f t="shared" si="8"/>
+        <v>9.912779189238039</v>
+      </c>
+    </row>
+    <row r="520" spans="3:4">
+      <c r="C520">
+        <v>519</v>
+      </c>
+      <c r="D520">
+        <f t="shared" si="8"/>
+        <v>9.9673551949285262</v>
+      </c>
+    </row>
+    <row r="521" spans="3:4">
+      <c r="C521">
+        <v>520</v>
+      </c>
+      <c r="D521">
+        <f t="shared" si="8"/>
+        <v>10.021912934978728</v>
+      </c>
+    </row>
+    <row r="522" spans="3:4">
+      <c r="C522">
+        <v>521</v>
+      </c>
+      <c r="D522">
+        <f t="shared" si="8"/>
+        <v>10.076452319670837</v>
+      </c>
+    </row>
+    <row r="523" spans="3:4">
+      <c r="C523">
+        <v>522</v>
+      </c>
+      <c r="D523">
+        <f t="shared" si="8"/>
+        <v>10.130973259480468</v>
+      </c>
+    </row>
+    <row r="524" spans="3:4">
+      <c r="C524">
+        <v>523</v>
+      </c>
+      <c r="D524">
+        <f t="shared" si="8"/>
+        <v>10.185475665077382</v>
+      </c>
+    </row>
+    <row r="525" spans="3:4">
+      <c r="C525">
+        <v>524</v>
+      </c>
+      <c r="D525">
+        <f t="shared" si="8"/>
+        <v>10.239959447326235</v>
+      </c>
+    </row>
+    <row r="526" spans="3:4">
+      <c r="C526">
+        <v>525</v>
+      </c>
+      <c r="D526">
+        <f t="shared" si="8"/>
+        <v>10.294424517287311</v>
+      </c>
+    </row>
+    <row r="527" spans="3:4">
+      <c r="C527">
+        <v>526</v>
+      </c>
+      <c r="D527">
+        <f t="shared" si="8"/>
+        <v>10.348870786217244</v>
+      </c>
+    </row>
+    <row r="528" spans="3:4">
+      <c r="C528">
+        <v>527</v>
+      </c>
+      <c r="D528">
+        <f t="shared" si="8"/>
+        <v>10.403298165569744</v>
+      </c>
+    </row>
+    <row r="529" spans="3:4">
+      <c r="C529">
+        <v>528</v>
+      </c>
+      <c r="D529">
+        <f t="shared" si="8"/>
+        <v>10.457706566996318</v>
+      </c>
+    </row>
+    <row r="530" spans="3:4">
+      <c r="C530">
+        <v>529</v>
+      </c>
+      <c r="D530">
+        <f t="shared" si="8"/>
+        <v>10.512095902346974</v>
+      </c>
+    </row>
+    <row r="531" spans="3:4">
+      <c r="C531">
+        <v>530</v>
+      </c>
+      <c r="D531">
+        <f t="shared" si="8"/>
+        <v>10.566466083670944</v>
+      </c>
+    </row>
+    <row r="532" spans="3:4">
+      <c r="C532">
+        <v>531</v>
+      </c>
+      <c r="D532">
+        <f t="shared" si="8"/>
+        <v>10.620817023217372</v>
+      </c>
+    </row>
+    <row r="533" spans="3:4">
+      <c r="C533">
+        <v>532</v>
+      </c>
+      <c r="D533">
+        <f t="shared" si="8"/>
+        <v>10.675148633436017</v>
+      </c>
+    </row>
+    <row r="534" spans="3:4">
+      <c r="C534">
+        <v>533</v>
+      </c>
+      <c r="D534">
+        <f t="shared" si="8"/>
+        <v>10.729460826977956</v>
+      </c>
+    </row>
+    <row r="535" spans="3:4">
+      <c r="C535">
+        <v>534</v>
+      </c>
+      <c r="D535">
+        <f t="shared" si="8"/>
+        <v>10.783753516696255</v>
+      </c>
+    </row>
+    <row r="536" spans="3:4">
+      <c r="C536">
+        <v>535</v>
+      </c>
+      <c r="D536">
+        <f t="shared" si="8"/>
+        <v>10.838026615646664</v>
+      </c>
+    </row>
+    <row r="537" spans="3:4">
+      <c r="C537">
+        <v>536</v>
+      </c>
+      <c r="D537">
+        <f t="shared" si="8"/>
+        <v>10.892280037088295</v>
+      </c>
+    </row>
+    <row r="538" spans="3:4">
+      <c r="C538">
+        <v>537</v>
+      </c>
+      <c r="D538">
+        <f t="shared" si="8"/>
+        <v>10.946513694484288</v>
+      </c>
+    </row>
+    <row r="539" spans="3:4">
+      <c r="C539">
+        <v>538</v>
+      </c>
+      <c r="D539">
+        <f t="shared" si="8"/>
+        <v>11.000727501502492</v>
+      </c>
+    </row>
+    <row r="540" spans="3:4">
+      <c r="C540">
+        <v>539</v>
+      </c>
+      <c r="D540">
+        <f t="shared" si="8"/>
+        <v>11.054921372016111</v>
+      </c>
+    </row>
+    <row r="541" spans="3:4">
+      <c r="C541">
+        <v>540</v>
+      </c>
+      <c r="D541">
+        <f t="shared" si="8"/>
+        <v>11.109095220104374</v>
+      </c>
+    </row>
+    <row r="542" spans="3:4">
+      <c r="C542">
+        <v>541</v>
+      </c>
+      <c r="D542">
+        <f t="shared" si="8"/>
+        <v>11.163248960053188</v>
+      </c>
+    </row>
+    <row r="543" spans="3:4">
+      <c r="C543">
+        <v>542</v>
+      </c>
+      <c r="D543">
+        <f t="shared" si="8"/>
+        <v>11.217382506355785</v>
+      </c>
+    </row>
+    <row r="544" spans="3:4">
+      <c r="C544">
+        <v>543</v>
+      </c>
+      <c r="D544">
+        <f t="shared" si="8"/>
+        <v>11.271495773713358</v>
+      </c>
+    </row>
+    <row r="545" spans="3:4">
+      <c r="C545">
+        <v>544</v>
+      </c>
+      <c r="D545">
+        <f t="shared" si="8"/>
+        <v>11.325588677035709</v>
+      </c>
+    </row>
+    <row r="546" spans="3:4">
+      <c r="C546">
+        <v>545</v>
+      </c>
+      <c r="D546">
+        <f t="shared" si="8"/>
+        <v>11.379661131441875</v>
+      </c>
+    </row>
+    <row r="547" spans="3:4">
+      <c r="C547">
+        <v>546</v>
+      </c>
+      <c r="D547">
+        <f t="shared" si="8"/>
+        <v>11.433713052260762</v>
+      </c>
+    </row>
+    <row r="548" spans="3:4">
+      <c r="C548">
+        <v>547</v>
+      </c>
+      <c r="D548">
+        <f t="shared" si="8"/>
+        <v>11.487744355031762</v>
+      </c>
+    </row>
+    <row r="549" spans="3:4">
+      <c r="C549">
+        <v>548</v>
+      </c>
+      <c r="D549">
+        <f t="shared" si="8"/>
+        <v>11.541754955505374</v>
+      </c>
+    </row>
+    <row r="550" spans="3:4">
+      <c r="C550">
+        <v>549</v>
+      </c>
+      <c r="D550">
+        <f t="shared" si="8"/>
+        <v>11.595744769643808</v>
+      </c>
+    </row>
+    <row r="551" spans="3:4">
+      <c r="C551">
+        <v>550</v>
+      </c>
+      <c r="D551">
+        <f t="shared" si="8"/>
+        <v>11.649713713621622</v>
+      </c>
+    </row>
+    <row r="552" spans="3:4">
+      <c r="C552">
+        <v>551</v>
+      </c>
+      <c r="D552">
+        <f t="shared" si="8"/>
+        <v>11.703661703826283</v>
+      </c>
+    </row>
+    <row r="553" spans="3:4">
+      <c r="C553">
+        <v>552</v>
+      </c>
+      <c r="D553">
+        <f t="shared" si="8"/>
+        <v>11.757588656858786</v>
+      </c>
+    </row>
+    <row r="554" spans="3:4">
+      <c r="C554">
+        <v>553</v>
+      </c>
+      <c r="D554">
+        <f t="shared" si="8"/>
+        <v>11.811494489534253</v>
+      </c>
+    </row>
+    <row r="555" spans="3:4">
+      <c r="C555">
+        <v>554</v>
+      </c>
+      <c r="D555">
+        <f t="shared" si="8"/>
+        <v>11.865379118882508</v>
+      </c>
+    </row>
+    <row r="556" spans="3:4">
+      <c r="C556">
+        <v>555</v>
+      </c>
+      <c r="D556">
+        <f t="shared" si="8"/>
+        <v>11.919242462148659</v>
+      </c>
+    </row>
+    <row r="557" spans="3:4">
+      <c r="C557">
+        <v>556</v>
+      </c>
+      <c r="D557">
+        <f t="shared" si="8"/>
+        <v>11.973084436793688</v>
+      </c>
+    </row>
+    <row r="558" spans="3:4">
+      <c r="C558">
+        <v>557</v>
+      </c>
+      <c r="D558">
+        <f t="shared" si="8"/>
+        <v>12.026904960495001</v>
+      </c>
+    </row>
+    <row r="559" spans="3:4">
+      <c r="C559">
+        <v>558</v>
+      </c>
+      <c r="D559">
+        <f t="shared" si="8"/>
+        <v>12.080703951147019</v>
+      </c>
+    </row>
+    <row r="560" spans="3:4">
+      <c r="C560">
+        <v>559</v>
+      </c>
+      <c r="D560">
+        <f t="shared" si="8"/>
+        <v>12.134481326861719</v>
+      </c>
+    </row>
+    <row r="561" spans="3:4">
+      <c r="C561">
+        <v>560</v>
+      </c>
+      <c r="D561">
+        <f t="shared" si="8"/>
+        <v>12.188237005969208</v>
+      </c>
+    </row>
+    <row r="562" spans="3:4">
+      <c r="C562">
+        <v>561</v>
+      </c>
+      <c r="D562">
+        <f t="shared" si="8"/>
+        <v>12.241970907018262</v>
+      </c>
+    </row>
+    <row r="563" spans="3:4">
+      <c r="C563">
+        <v>562</v>
+      </c>
+      <c r="D563">
+        <f t="shared" si="8"/>
+        <v>12.295682948776868</v>
+      </c>
+    </row>
+    <row r="564" spans="3:4">
+      <c r="C564">
+        <v>563</v>
+      </c>
+      <c r="D564">
+        <f t="shared" si="8"/>
+        <v>12.349373050232783</v>
+      </c>
+    </row>
+    <row r="565" spans="3:4">
+      <c r="C565">
+        <v>564</v>
+      </c>
+      <c r="D565">
+        <f t="shared" si="8"/>
+        <v>12.40304113059406</v>
+      </c>
+    </row>
+    <row r="566" spans="3:4">
+      <c r="C566">
+        <v>565</v>
+      </c>
+      <c r="D566">
+        <f t="shared" si="8"/>
+        <v>12.45668710928957</v>
+      </c>
+    </row>
+    <row r="567" spans="3:4">
+      <c r="C567">
+        <v>566</v>
+      </c>
+      <c r="D567">
+        <f t="shared" si="8"/>
+        <v>12.510310905969545</v>
+      </c>
+    </row>
+    <row r="568" spans="3:4">
+      <c r="C568">
+        <v>567</v>
+      </c>
+      <c r="D568">
+        <f t="shared" si="8"/>
+        <v>12.563912440506082</v>
+      </c>
+    </row>
+    <row r="569" spans="3:4">
+      <c r="C569">
+        <v>568</v>
+      </c>
+      <c r="D569">
+        <f t="shared" si="8"/>
+        <v>12.617491632993669</v>
+      </c>
+    </row>
+    <row r="570" spans="3:4">
+      <c r="C570">
+        <v>569</v>
+      </c>
+      <c r="D570">
+        <f t="shared" si="8"/>
+        <v>12.671048403749698</v>
+      </c>
+    </row>
+    <row r="571" spans="3:4">
+      <c r="C571">
+        <v>570</v>
+      </c>
+      <c r="D571">
+        <f t="shared" si="8"/>
+        <v>12.724582673314954</v>
+      </c>
+    </row>
+    <row r="572" spans="3:4">
+      <c r="C572">
+        <v>571</v>
+      </c>
+      <c r="D572">
+        <f t="shared" si="8"/>
+        <v>12.77809436245413</v>
+      </c>
+    </row>
+    <row r="573" spans="3:4">
+      <c r="C573">
+        <v>572</v>
+      </c>
+      <c r="D573">
+        <f t="shared" si="8"/>
+        <v>12.831583392156318</v>
+      </c>
+    </row>
+    <row r="574" spans="3:4">
+      <c r="C574">
+        <v>573</v>
+      </c>
+      <c r="D574">
+        <f t="shared" si="8"/>
+        <v>12.885049683635492</v>
+      </c>
+    </row>
+    <row r="575" spans="3:4">
+      <c r="C575">
+        <v>574</v>
+      </c>
+      <c r="D575">
+        <f t="shared" si="8"/>
+        <v>12.938493158331001</v>
+      </c>
+    </row>
+    <row r="576" spans="3:4">
+      <c r="C576">
+        <v>575</v>
+      </c>
+      <c r="D576">
+        <f t="shared" si="8"/>
+        <v>12.991913737908048</v>
+      </c>
+    </row>
+    <row r="577" spans="3:4">
+      <c r="C577">
+        <v>576</v>
+      </c>
+      <c r="D577">
+        <f t="shared" si="8"/>
+        <v>13.045311344258156</v>
+      </c>
+    </row>
+    <row r="578" spans="3:4">
+      <c r="C578">
+        <v>577</v>
+      </c>
+      <c r="D578">
+        <f t="shared" si="8"/>
+        <v>13.098685899499639</v>
+      </c>
+    </row>
+    <row r="579" spans="3:4">
+      <c r="C579">
+        <v>578</v>
+      </c>
+      <c r="D579">
+        <f t="shared" ref="D579:D642" si="9">DEGREES(ATAN((C579-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>13.152037325978078</v>
+      </c>
+    </row>
+    <row r="580" spans="3:4">
+      <c r="C580">
+        <v>579</v>
+      </c>
+      <c r="D580">
+        <f t="shared" si="9"/>
+        <v>13.205365546266762</v>
+      </c>
+    </row>
+    <row r="581" spans="3:4">
+      <c r="C581">
+        <v>580</v>
+      </c>
+      <c r="D581">
+        <f t="shared" si="9"/>
+        <v>13.258670483167149</v>
+      </c>
+    </row>
+    <row r="582" spans="3:4">
+      <c r="C582">
+        <v>581</v>
+      </c>
+      <c r="D582">
+        <f t="shared" si="9"/>
+        <v>13.311952059709323</v>
+      </c>
+    </row>
+    <row r="583" spans="3:4">
+      <c r="C583">
+        <v>582</v>
+      </c>
+      <c r="D583">
+        <f t="shared" si="9"/>
+        <v>13.365210199152425</v>
+      </c>
+    </row>
+    <row r="584" spans="3:4">
+      <c r="C584">
+        <v>583</v>
+      </c>
+      <c r="D584">
+        <f t="shared" si="9"/>
+        <v>13.418444824985093</v>
+      </c>
+    </row>
+    <row r="585" spans="3:4">
+      <c r="C585">
+        <v>584</v>
+      </c>
+      <c r="D585">
+        <f t="shared" si="9"/>
+        <v>13.471655860925898</v>
+      </c>
+    </row>
+    <row r="586" spans="3:4">
+      <c r="C586">
+        <v>585</v>
+      </c>
+      <c r="D586">
+        <f t="shared" si="9"/>
+        <v>13.52484323092377</v>
+      </c>
+    </row>
+    <row r="587" spans="3:4">
+      <c r="C587">
+        <v>586</v>
+      </c>
+      <c r="D587">
+        <f t="shared" si="9"/>
+        <v>13.578006859158425</v>
+      </c>
+    </row>
+    <row r="588" spans="3:4">
+      <c r="C588">
+        <v>587</v>
+      </c>
+      <c r="D588">
+        <f t="shared" si="9"/>
+        <v>13.631146670040772</v>
+      </c>
+    </row>
+    <row r="589" spans="3:4">
+      <c r="C589">
+        <v>588</v>
+      </c>
+      <c r="D589">
+        <f t="shared" si="9"/>
+        <v>13.684262588213343</v>
+      </c>
+    </row>
+    <row r="590" spans="3:4">
+      <c r="C590">
+        <v>589</v>
+      </c>
+      <c r="D590">
+        <f t="shared" si="9"/>
+        <v>13.737354538550676</v>
+      </c>
+    </row>
+    <row r="591" spans="3:4">
+      <c r="C591">
+        <v>590</v>
+      </c>
+      <c r="D591">
+        <f t="shared" si="9"/>
+        <v>13.79042244615974</v>
+      </c>
+    </row>
+    <row r="592" spans="3:4">
+      <c r="C592">
+        <v>591</v>
+      </c>
+      <c r="D592">
+        <f t="shared" si="9"/>
+        <v>13.843466236380317</v>
+      </c>
+    </row>
+    <row r="593" spans="3:4">
+      <c r="C593">
+        <v>592</v>
+      </c>
+      <c r="D593">
+        <f t="shared" si="9"/>
+        <v>13.896485834785402</v>
+      </c>
+    </row>
+    <row r="594" spans="3:4">
+      <c r="C594">
+        <v>593</v>
+      </c>
+      <c r="D594">
+        <f t="shared" si="9"/>
+        <v>13.949481167181585</v>
+      </c>
+    </row>
+    <row r="595" spans="3:4">
+      <c r="C595">
+        <v>594</v>
+      </c>
+      <c r="D595">
+        <f t="shared" si="9"/>
+        <v>14.002452159609431</v>
+      </c>
+    </row>
+    <row r="596" spans="3:4">
+      <c r="C596">
+        <v>595</v>
+      </c>
+      <c r="D596">
+        <f t="shared" si="9"/>
+        <v>14.055398738343866</v>
+      </c>
+    </row>
+    <row r="597" spans="3:4">
+      <c r="C597">
+        <v>596</v>
+      </c>
+      <c r="D597">
+        <f t="shared" si="9"/>
+        <v>14.10832082989454</v>
+      </c>
+    </row>
+    <row r="598" spans="3:4">
+      <c r="C598">
+        <v>597</v>
+      </c>
+      <c r="D598">
+        <f t="shared" si="9"/>
+        <v>14.161218361006185</v>
+      </c>
+    </row>
+    <row r="599" spans="3:4">
+      <c r="C599">
+        <v>598</v>
+      </c>
+      <c r="D599">
+        <f t="shared" si="9"/>
+        <v>14.214091258659002</v>
+      </c>
+    </row>
+    <row r="600" spans="3:4">
+      <c r="C600">
+        <v>599</v>
+      </c>
+      <c r="D600">
+        <f t="shared" si="9"/>
+        <v>14.266939450068989</v>
+      </c>
+    </row>
+    <row r="601" spans="3:4">
+      <c r="C601">
+        <v>600</v>
+      </c>
+      <c r="D601">
+        <f t="shared" si="9"/>
+        <v>14.319762862688311</v>
+      </c>
+    </row>
+    <row r="602" spans="3:4">
+      <c r="C602">
+        <v>601</v>
+      </c>
+      <c r="D602">
+        <f t="shared" si="9"/>
+        <v>14.372561424205633</v>
+      </c>
+    </row>
+    <row r="603" spans="3:4">
+      <c r="C603">
+        <v>602</v>
+      </c>
+      <c r="D603">
+        <f t="shared" si="9"/>
+        <v>14.425335062546468</v>
+      </c>
+    </row>
+    <row r="604" spans="3:4">
+      <c r="C604">
+        <v>603</v>
+      </c>
+      <c r="D604">
+        <f t="shared" si="9"/>
+        <v>14.478083705873511</v>
+      </c>
+    </row>
+    <row r="605" spans="3:4">
+      <c r="C605">
+        <v>604</v>
+      </c>
+      <c r="D605">
+        <f t="shared" si="9"/>
+        <v>14.530807282586972</v>
+      </c>
+    </row>
+    <row r="606" spans="3:4">
+      <c r="C606">
+        <v>605</v>
+      </c>
+      <c r="D606">
+        <f t="shared" si="9"/>
+        <v>14.583505721324899</v>
+      </c>
+    </row>
+    <row r="607" spans="3:4">
+      <c r="C607">
+        <v>606</v>
+      </c>
+      <c r="D607">
+        <f t="shared" si="9"/>
+        <v>14.636178950963494</v>
+      </c>
+    </row>
+    <row r="608" spans="3:4">
+      <c r="C608">
+        <v>607</v>
+      </c>
+      <c r="D608">
+        <f t="shared" si="9"/>
+        <v>14.688826900617432</v>
+      </c>
+    </row>
+    <row r="609" spans="3:4">
+      <c r="C609">
+        <v>608</v>
+      </c>
+      <c r="D609">
+        <f t="shared" si="9"/>
+        <v>14.741449499640179</v>
+      </c>
+    </row>
+    <row r="610" spans="3:4">
+      <c r="C610">
+        <v>609</v>
+      </c>
+      <c r="D610">
+        <f t="shared" si="9"/>
+        <v>14.794046677624282</v>
+      </c>
+    </row>
+    <row r="611" spans="3:4">
+      <c r="C611">
+        <v>610</v>
+      </c>
+      <c r="D611">
+        <f t="shared" si="9"/>
+        <v>14.846618364401685</v>
+      </c>
+    </row>
+    <row r="612" spans="3:4">
+      <c r="C612">
+        <v>611</v>
+      </c>
+      <c r="D612">
+        <f t="shared" si="9"/>
+        <v>14.899164490044011</v>
+      </c>
+    </row>
+    <row r="613" spans="3:4">
+      <c r="C613">
+        <v>612</v>
+      </c>
+      <c r="D613">
+        <f t="shared" si="9"/>
+        <v>14.951684984862858</v>
+      </c>
+    </row>
+    <row r="614" spans="3:4">
+      <c r="C614">
+        <v>613</v>
+      </c>
+      <c r="D614">
+        <f t="shared" si="9"/>
+        <v>15.004179779410084</v>
+      </c>
+    </row>
+    <row r="615" spans="3:4">
+      <c r="C615">
+        <v>614</v>
+      </c>
+      <c r="D615">
+        <f t="shared" si="9"/>
+        <v>15.056648804478094</v>
+      </c>
+    </row>
+    <row r="616" spans="3:4">
+      <c r="C616">
+        <v>615</v>
+      </c>
+      <c r="D616">
+        <f t="shared" si="9"/>
+        <v>15.109091991100094</v>
+      </c>
+    </row>
+    <row r="617" spans="3:4">
+      <c r="C617">
+        <v>616</v>
+      </c>
+      <c r="D617">
+        <f t="shared" si="9"/>
+        <v>15.161509270550393</v>
+      </c>
+    </row>
+    <row r="618" spans="3:4">
+      <c r="C618">
+        <v>617</v>
+      </c>
+      <c r="D618">
+        <f t="shared" si="9"/>
+        <v>15.213900574344628</v>
+      </c>
+    </row>
+    <row r="619" spans="3:4">
+      <c r="C619">
+        <v>618</v>
+      </c>
+      <c r="D619">
+        <f t="shared" si="9"/>
+        <v>15.266265834240066</v>
+      </c>
+    </row>
+    <row r="620" spans="3:4">
+      <c r="C620">
+        <v>619</v>
+      </c>
+      <c r="D620">
+        <f t="shared" si="9"/>
+        <v>15.318604982235833</v>
+      </c>
+    </row>
+    <row r="621" spans="3:4">
+      <c r="C621">
+        <v>620</v>
+      </c>
+      <c r="D621">
+        <f t="shared" si="9"/>
+        <v>15.370917950573158</v>
+      </c>
+    </row>
+    <row r="622" spans="3:4">
+      <c r="C622">
+        <v>621</v>
+      </c>
+      <c r="D622">
+        <f t="shared" si="9"/>
+        <v>15.423204671735654</v>
+      </c>
+    </row>
+    <row r="623" spans="3:4">
+      <c r="C623">
+        <v>622</v>
+      </c>
+      <c r="D623">
+        <f t="shared" si="9"/>
+        <v>15.475465078449512</v>
+      </c>
+    </row>
+    <row r="624" spans="3:4">
+      <c r="C624">
+        <v>623</v>
+      </c>
+      <c r="D624">
+        <f t="shared" si="9"/>
+        <v>15.527699103683778</v>
+      </c>
+    </row>
+    <row r="625" spans="3:4">
+      <c r="C625">
+        <v>624</v>
+      </c>
+      <c r="D625">
+        <f t="shared" si="9"/>
+        <v>15.579906680650554</v>
+      </c>
+    </row>
+    <row r="626" spans="3:4">
+      <c r="C626">
+        <v>625</v>
+      </c>
+      <c r="D626">
+        <f t="shared" si="9"/>
+        <v>15.632087742805234</v>
+      </c>
+    </row>
+    <row r="627" spans="3:4">
+      <c r="C627">
+        <v>626</v>
+      </c>
+      <c r="D627">
+        <f t="shared" si="9"/>
+        <v>15.684242223846729</v>
+      </c>
+    </row>
+    <row r="628" spans="3:4">
+      <c r="C628">
+        <v>627</v>
+      </c>
+      <c r="D628">
+        <f t="shared" si="9"/>
+        <v>15.736370057717673</v>
+      </c>
+    </row>
+    <row r="629" spans="3:4">
+      <c r="C629">
+        <v>628</v>
+      </c>
+      <c r="D629">
+        <f t="shared" si="9"/>
+        <v>15.788471178604647</v>
+      </c>
+    </row>
+    <row r="630" spans="3:4">
+      <c r="C630">
+        <v>629</v>
+      </c>
+      <c r="D630">
+        <f t="shared" si="9"/>
+        <v>15.840545520938369</v>
+      </c>
+    </row>
+    <row r="631" spans="3:4">
+      <c r="C631">
+        <v>630</v>
+      </c>
+      <c r="D631">
+        <f t="shared" si="9"/>
+        <v>15.8925930193939</v>
+      </c>
+    </row>
+    <row r="632" spans="3:4">
+      <c r="C632">
+        <v>631</v>
+      </c>
+      <c r="D632">
+        <f t="shared" si="9"/>
+        <v>15.944613608890856</v>
+      </c>
+    </row>
+    <row r="633" spans="3:4">
+      <c r="C633">
+        <v>632</v>
+      </c>
+      <c r="D633">
+        <f t="shared" si="9"/>
+        <v>15.996607224593571</v>
+      </c>
+    </row>
+    <row r="634" spans="3:4">
+      <c r="C634">
+        <v>633</v>
+      </c>
+      <c r="D634">
+        <f t="shared" si="9"/>
+        <v>16.048573801911314</v>
+      </c>
+    </row>
+    <row r="635" spans="3:4">
+      <c r="C635">
+        <v>634</v>
+      </c>
+      <c r="D635">
+        <f t="shared" si="9"/>
+        <v>16.100513276498436</v>
+      </c>
+    </row>
+    <row r="636" spans="3:4">
+      <c r="C636">
+        <v>635</v>
+      </c>
+      <c r="D636">
+        <f t="shared" si="9"/>
+        <v>16.152425584254573</v>
+      </c>
+    </row>
+    <row r="637" spans="3:4">
+      <c r="C637">
+        <v>636</v>
+      </c>
+      <c r="D637">
+        <f t="shared" si="9"/>
+        <v>16.204310661324826</v>
+      </c>
+    </row>
+    <row r="638" spans="3:4">
+      <c r="C638">
+        <v>637</v>
+      </c>
+      <c r="D638">
+        <f t="shared" si="9"/>
+        <v>16.256168444099885</v>
+      </c>
+    </row>
+    <row r="639" spans="3:4">
+      <c r="C639">
+        <v>638</v>
+      </c>
+      <c r="D639">
+        <f t="shared" si="9"/>
+        <v>16.307998869216235</v>
+      </c>
+    </row>
+    <row r="640" spans="3:4">
+      <c r="C640">
+        <v>639</v>
+      </c>
+      <c r="D640">
+        <f t="shared" si="9"/>
+        <v>16.3598018735563</v>
+      </c>
+    </row>
+    <row r="641" spans="3:4">
+      <c r="C641">
+        <v>640</v>
+      </c>
+      <c r="D641">
+        <f t="shared" si="9"/>
+        <v>16.411577394248582</v>
+      </c>
+    </row>
+    <row r="642" spans="3:4">
+      <c r="C642">
+        <v>641</v>
+      </c>
+      <c r="D642">
+        <f t="shared" si="9"/>
+        <v>16.463325368667821</v>
+      </c>
+    </row>
+    <row r="643" spans="3:4">
+      <c r="C643">
+        <v>642</v>
+      </c>
+      <c r="D643">
+        <f t="shared" ref="D643:D681" si="10">DEGREES(ATAN((C643-$B$3)*TAN(RADIANS($B$2)/2)/($B$3)))</f>
+        <v>16.515045734435144</v>
+      </c>
+    </row>
+    <row r="644" spans="3:4">
+      <c r="C644">
+        <v>643</v>
+      </c>
+      <c r="D644">
+        <f t="shared" si="10"/>
+        <v>16.566738429418194</v>
+      </c>
+    </row>
+    <row r="645" spans="3:4">
+      <c r="C645">
+        <v>644</v>
+      </c>
+      <c r="D645">
+        <f t="shared" si="10"/>
+        <v>16.618403391731253</v>
+      </c>
+    </row>
+    <row r="646" spans="3:4">
+      <c r="C646">
+        <v>645</v>
+      </c>
+      <c r="D646">
+        <f t="shared" si="10"/>
+        <v>16.670040559735408</v>
+      </c>
+    </row>
+    <row r="647" spans="3:4">
+      <c r="C647">
+        <v>646</v>
+      </c>
+      <c r="D647">
+        <f t="shared" si="10"/>
+        <v>16.721649872038629</v>
+      </c>
+    </row>
+    <row r="648" spans="3:4">
+      <c r="C648">
+        <v>647</v>
+      </c>
+      <c r="D648">
+        <f t="shared" si="10"/>
+        <v>16.773231267495923</v>
+      </c>
+    </row>
+    <row r="649" spans="3:4">
+      <c r="C649">
+        <v>648</v>
+      </c>
+      <c r="D649">
+        <f t="shared" si="10"/>
+        <v>16.824784685209426</v>
+      </c>
+    </row>
+    <row r="650" spans="3:4">
+      <c r="C650">
+        <v>649</v>
+      </c>
+      <c r="D650">
+        <f t="shared" si="10"/>
+        <v>16.876310064528539</v>
+      </c>
+    </row>
+    <row r="651" spans="3:4">
+      <c r="C651">
+        <v>650</v>
+      </c>
+      <c r="D651">
+        <f t="shared" si="10"/>
+        <v>16.927807345049999</v>
+      </c>
+    </row>
+    <row r="652" spans="3:4">
+      <c r="C652">
+        <v>651</v>
+      </c>
+      <c r="D652">
+        <f t="shared" si="10"/>
+        <v>16.979276466618018</v>
+      </c>
+    </row>
+    <row r="653" spans="3:4">
+      <c r="C653">
+        <v>652</v>
+      </c>
+      <c r="D653">
+        <f t="shared" si="10"/>
+        <v>17.030717369324339</v>
+      </c>
+    </row>
+    <row r="654" spans="3:4">
+      <c r="C654">
+        <v>653</v>
+      </c>
+      <c r="D654">
+        <f t="shared" si="10"/>
+        <v>17.082129993508367</v>
+      </c>
+    </row>
+    <row r="655" spans="3:4">
+      <c r="C655">
+        <v>654</v>
+      </c>
+      <c r="D655">
+        <f t="shared" si="10"/>
+        <v>17.133514279757232</v>
+      </c>
+    </row>
+    <row r="656" spans="3:4">
+      <c r="C656">
+        <v>655</v>
+      </c>
+      <c r="D656">
+        <f t="shared" si="10"/>
+        <v>17.184870168905874</v>
+      </c>
+    </row>
+    <row r="657" spans="3:4">
+      <c r="C657">
+        <v>656</v>
+      </c>
+      <c r="D657">
+        <f t="shared" si="10"/>
+        <v>17.236197602037127</v>
+      </c>
+    </row>
+    <row r="658" spans="3:4">
+      <c r="C658">
+        <v>657</v>
+      </c>
+      <c r="D658">
+        <f t="shared" si="10"/>
+        <v>17.287496520481788</v>
+      </c>
+    </row>
+    <row r="659" spans="3:4">
+      <c r="C659">
+        <v>658</v>
+      </c>
+      <c r="D659">
+        <f t="shared" si="10"/>
+        <v>17.338766865818688</v>
+      </c>
+    </row>
+    <row r="660" spans="3:4">
+      <c r="C660">
+        <v>659</v>
+      </c>
+      <c r="D660">
+        <f t="shared" si="10"/>
+        <v>17.390008579874749</v>
+      </c>
+    </row>
+    <row r="661" spans="3:4">
+      <c r="C661">
+        <v>660</v>
+      </c>
+      <c r="D661">
+        <f t="shared" si="10"/>
+        <v>17.441221604725062</v>
+      </c>
+    </row>
+    <row r="662" spans="3:4">
+      <c r="C662">
+        <v>661</v>
+      </c>
+      <c r="D662">
+        <f t="shared" si="10"/>
+        <v>17.492405882692914</v>
+      </c>
+    </row>
+    <row r="663" spans="3:4">
+      <c r="C663">
+        <v>662</v>
+      </c>
+      <c r="D663">
+        <f t="shared" si="10"/>
+        <v>17.543561356349873</v>
+      </c>
+    </row>
+    <row r="664" spans="3:4">
+      <c r="C664">
+        <v>663</v>
+      </c>
+      <c r="D664">
+        <f t="shared" si="10"/>
+        <v>17.594687968515792</v>
+      </c>
+    </row>
+    <row r="665" spans="3:4">
+      <c r="C665">
+        <v>664</v>
+      </c>
+      <c r="D665">
+        <f t="shared" si="10"/>
+        <v>17.645785662258895</v>
+      </c>
+    </row>
+    <row r="666" spans="3:4">
+      <c r="C666">
+        <v>665</v>
+      </c>
+      <c r="D666">
+        <f t="shared" si="10"/>
+        <v>17.696854380895779</v>
+      </c>
+    </row>
+    <row r="667" spans="3:4">
+      <c r="C667">
+        <v>666</v>
+      </c>
+      <c r="D667">
+        <f t="shared" si="10"/>
+        <v>17.747894067991474</v>
+      </c>
+    </row>
+    <row r="668" spans="3:4">
+      <c r="C668">
+        <v>667</v>
+      </c>
+      <c r="D668">
+        <f t="shared" si="10"/>
+        <v>17.798904667359444</v>
+      </c>
+    </row>
+    <row r="669" spans="3:4">
+      <c r="C669">
+        <v>668</v>
+      </c>
+      <c r="D669">
+        <f t="shared" si="10"/>
+        <v>17.84988612306163</v>
+      </c>
+    </row>
+    <row r="670" spans="3:4">
+      <c r="C670">
+        <v>669</v>
+      </c>
+      <c r="D670">
+        <f t="shared" si="10"/>
+        <v>17.900838379408469</v>
+      </c>
+    </row>
+    <row r="671" spans="3:4">
+      <c r="C671">
+        <v>670</v>
+      </c>
+      <c r="D671">
+        <f t="shared" si="10"/>
+        <v>17.951761380958896</v>
+      </c>
+    </row>
+    <row r="672" spans="3:4">
+      <c r="C672">
+        <v>671</v>
+      </c>
+      <c r="D672">
+        <f t="shared" si="10"/>
+        <v>18.002655072520373</v>
+      </c>
+    </row>
+    <row r="673" spans="3:4">
+      <c r="C673">
+        <v>672</v>
+      </c>
+      <c r="D673">
+        <f t="shared" si="10"/>
+        <v>18.053519399148875</v>
+      </c>
+    </row>
+    <row r="674" spans="3:4">
+      <c r="C674">
+        <v>673</v>
+      </c>
+      <c r="D674">
+        <f t="shared" si="10"/>
+        <v>18.104354306148903</v>
+      </c>
+    </row>
+    <row r="675" spans="3:4">
+      <c r="C675">
+        <v>674</v>
+      </c>
+      <c r="D675">
+        <f t="shared" si="10"/>
+        <v>18.155159739073493</v>
+      </c>
+    </row>
+    <row r="676" spans="3:4">
+      <c r="C676">
+        <v>675</v>
+      </c>
+      <c r="D676">
+        <f t="shared" si="10"/>
+        <v>18.205935643724182</v>
+      </c>
+    </row>
+    <row r="677" spans="3:4">
+      <c r="C677">
+        <v>676</v>
+      </c>
+      <c r="D677">
+        <f t="shared" si="10"/>
+        <v>18.256681966151024</v>
+      </c>
+    </row>
+    <row r="678" spans="3:4">
+      <c r="C678">
+        <v>677</v>
+      </c>
+      <c r="D678">
+        <f t="shared" si="10"/>
+        <v>18.307398652652548</v>
+      </c>
+    </row>
+    <row r="679" spans="3:4">
+      <c r="C679">
+        <v>678</v>
+      </c>
+      <c r="D679">
+        <f t="shared" si="10"/>
+        <v>18.35808564977577</v>
+      </c>
+    </row>
+    <row r="680" spans="3:4">
+      <c r="C680">
+        <v>679</v>
+      </c>
+      <c r="D680">
+        <f t="shared" si="10"/>
+        <v>18.408742904316139</v>
+      </c>
+    </row>
+    <row r="681" spans="3:4">
+      <c r="C681">
+        <v>680</v>
+      </c>
+      <c r="D681">
+        <f t="shared" si="10"/>
+        <v>18.459370363317536</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>